--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1819,7 +1819,7 @@
     <tableColumn id="6" name="Url" dataDxfId="6"/>
     <tableColumn id="7" name="Headers" dataDxfId="7"/>
     <tableColumn id="17" name="Headers Crypto" dataDxfId="8"/>
-    <tableColumn id="23" name="Params" dataDxfId="9"/>
+    <tableColumn id="23" name="Query Str" dataDxfId="9"/>
     <tableColumn id="16" name="Request Data Type" dataDxfId="10"/>
     <tableColumn id="8" name="Request Data" dataDxfId="11"/>
     <tableColumn id="9" name="Request Data Crypto" dataDxfId="12"/>
@@ -2125,7 +2125,7 @@
     <col width="14.7777777777778" customWidth="1" style="10" min="7" max="7"/>
     <col width="29.8888888888889" customWidth="1" style="3" min="8" max="8"/>
     <col width="15.2222222222222" customWidth="1" style="3" min="9" max="9"/>
-    <col width="7.44444444444444" customWidth="1" style="3" min="10" max="10"/>
+    <col width="9.33333333333333" customWidth="1" style="3" min="10" max="10"/>
     <col width="18.5555555555556" customWidth="1" style="10" min="11" max="11"/>
     <col width="14.7777777777778" customWidth="1" style="3" min="12" max="12"/>
     <col width="23.1037037037037" customWidth="1" style="3" min="13" max="13"/>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>Params</t>
+          <t>Query Str</t>
         </is>
       </c>
       <c r="K1" s="11" t="inlineStr">
@@ -2358,7 +2358,7 @@
       <c r="U3" s="12" t="n"/>
       <c r="V3" s="12" t="inlineStr">
         <is>
-          <t>{"code":"0","type":"success","data":{"id":"216869045616844116","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"74e56aa9c583d4690ea8b52eba4fcd37","type":"user","avatar":null,"ncAccount":null,"timestamp":1686904561,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
+          <t>{"code":"0","type":"success","data":{"id":"216872510227231778","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"19aceef2ef93b7c09070e2251e25c32a","type":"user","avatar":null,"ncAccount":null,"timestamp":1687251022,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
         </is>
       </c>
       <c r="W3" s="12" t="inlineStr">
@@ -2654,21 +2654,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation sqref="I2 I3:I7 L7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"MD5,sha1,sha256"</formula1>
+    <dataValidation sqref="M8:M1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
     <dataValidation sqref="D2 D3 D4 D5 D6 D7 E1 E2 E3 E4 E5 E6 E7 E8:E1048576 I1 J1 J8:J1048576 K1 K8:K1048576 M1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
     <dataValidation sqref="F2 F3 F4 F5 F6 F7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation sqref="I8:I1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"md5,sha1"</formula1>
-    </dataValidation>
     <dataValidation sqref="J2 J3:J7 K2 K3:K6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"json,data,params"</formula1>
     </dataValidation>
-    <dataValidation sqref="M8:M1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"md5,sha1,sha256"</formula1>
+    <dataValidation sqref="I2 I3:I7 L7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"MD5,sha1,sha256"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I8:I1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"md5,sha1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -2115,7 +2115,7 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col width="3.22222222222222" customWidth="1" style="3" min="1" max="1"/>
     <col width="7.88888888888889" customWidth="1" style="3" min="2" max="2"/>
@@ -2356,16 +2356,8 @@
       <c r="S3" s="3" t="inlineStr"/>
       <c r="T3" s="3" t="inlineStr"/>
       <c r="U3" s="12" t="n"/>
-      <c r="V3" s="12" t="inlineStr">
-        <is>
-          <t>{"code":"0","type":"success","data":{"id":"216872510227231778","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"19aceef2ef93b7c09070e2251e25c32a","type":"user","avatar":null,"ncAccount":null,"timestamp":1687251022,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
-        </is>
-      </c>
-      <c r="W3" s="12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="V3" s="12" t="inlineStr"/>
+      <c r="W3" s="12" t="inlineStr"/>
       <c r="X3" s="12" t="inlineStr"/>
     </row>
     <row r="4" ht="26" customHeight="1" s="1">
@@ -2465,16 +2457,8 @@
       <c r="S5" s="12" t="inlineStr"/>
       <c r="T5" s="3" t="inlineStr"/>
       <c r="U5" s="12" t="n"/>
-      <c r="V5" s="12" t="inlineStr">
-        <is>
-          <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
-        </is>
-      </c>
-      <c r="W5" s="12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="V5" s="12" t="inlineStr"/>
+      <c r="W5" s="12" t="inlineStr"/>
       <c r="X5" s="12" t="inlineStr"/>
       <c r="Y5" s="5" t="n"/>
     </row>
@@ -2524,16 +2508,8 @@
       <c r="S6" s="12" t="inlineStr"/>
       <c r="T6" s="3" t="inlineStr"/>
       <c r="U6" s="12" t="n"/>
-      <c r="V6" s="12" t="inlineStr">
-        <is>
-          <t>{"code":200,"success":true,"data":{"id":"1637650408413749249","projectId":"104966","shortInfo":"博智林提醒您：一切不能保证安全、质量的施工都要停工！进入工地，请佩戴安全帽，穿着反光衣，文明作业！","qrCode":"https://ibs-test.bzlrobot.com/api/ibs-file/document/get/MjAyMS0xMC0xOCxQSE9UT18yMDIxMTAxOF8wOTMxMDExMDIuanBnLDA0ZGQxOWU5YzA3MjQ0YjE5OTIwNzZjOTUxNzY4YzQ1","manageDeparts":[]},"msg":"操作成功"}</t>
-        </is>
-      </c>
-      <c r="W6" s="12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
+      <c r="V6" s="12" t="inlineStr"/>
+      <c r="W6" s="12" t="inlineStr"/>
       <c r="X6" s="12" t="inlineStr"/>
       <c r="Y6" s="5" t="n"/>
     </row>
@@ -2690,7 +2666,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
     <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
@@ -3022,7 +2998,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col width="58" customWidth="1" style="1" min="1" max="1"/>
     <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -2104,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2115,7 +2115,7 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
     <col width="3.22222222222222" customWidth="1" style="3" min="1" max="1"/>
     <col width="7.88888888888889" customWidth="1" style="3" min="2" max="2"/>
@@ -2356,8 +2356,16 @@
       <c r="S3" s="3" t="inlineStr"/>
       <c r="T3" s="3" t="inlineStr"/>
       <c r="U3" s="12" t="n"/>
-      <c r="V3" s="12" t="inlineStr"/>
-      <c r="W3" s="12" t="inlineStr"/>
+      <c r="V3" s="12" t="inlineStr">
+        <is>
+          <t>{"code":"0","type":"success","data":{"id":"216877024344524552","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"3989b7356e0b17173f793d252a89a8b2","type":"user","avatar":null,"ncAccount":null,"timestamp":1687702434,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
+        </is>
+      </c>
+      <c r="W3" s="12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="X3" s="12" t="inlineStr"/>
     </row>
     <row r="4" ht="26" customHeight="1" s="1">
@@ -2457,8 +2465,16 @@
       <c r="S5" s="12" t="inlineStr"/>
       <c r="T5" s="3" t="inlineStr"/>
       <c r="U5" s="12" t="n"/>
-      <c r="V5" s="12" t="inlineStr"/>
-      <c r="W5" s="12" t="inlineStr"/>
+      <c r="V5" s="12" t="inlineStr">
+        <is>
+          <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
+        </is>
+      </c>
+      <c r="W5" s="12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="X5" s="12" t="inlineStr"/>
       <c r="Y5" s="5" t="n"/>
     </row>
@@ -2508,8 +2524,16 @@
       <c r="S6" s="12" t="inlineStr"/>
       <c r="T6" s="3" t="inlineStr"/>
       <c r="U6" s="12" t="n"/>
-      <c r="V6" s="12" t="inlineStr"/>
-      <c r="W6" s="12" t="inlineStr"/>
+      <c r="V6" s="12" t="inlineStr">
+        <is>
+          <t>{"code":200,"success":true,"data":{"id":"1637650408413749249","projectId":"104966","shortInfo":"博智林提醒您：一切不能保证安全、质量的施工都要停工！进入工地，请佩戴安全帽，穿着反光衣，文明作业！","qrCode":"https://ibs-test.bzlrobot.com/api/ibs-file/document/get/MjAyMS0xMC0xOCxQSE9UT18yMDIxMTAxOF8wOTMxMDExMDIuanBnLDA0ZGQxOWU5YzA3MjQ0YjE5OTIwNzZjOTUxNzY4YzQ1","manageDeparts":[]},"msg":"操作成功"}</t>
+        </is>
+      </c>
+      <c r="W6" s="12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="X6" s="12" t="inlineStr"/>
       <c r="Y6" s="5" t="n"/>
     </row>
@@ -2630,18 +2654,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation sqref="M8:M1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"md5,sha1,sha256"</formula1>
-    </dataValidation>
     <dataValidation sqref="D2 D3 D4 D5 D6 D7 E1 E2 E3 E4 E5 E6 E7 E8:E1048576 I1 J1 J8:J1048576 K1 K8:K1048576 M1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
     <dataValidation sqref="F2 F3 F4 F5 F6 F7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
+    <dataValidation sqref="I2 I3:I7 L7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"MD5,sha1,sha256"</formula1>
+    </dataValidation>
+    <dataValidation sqref="M8:M1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>"md5,sha1,sha256"</formula1>
+    </dataValidation>
     <dataValidation sqref="J2 J3:J7 K2 K3:K6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"json,data,params"</formula1>
-    </dataValidation>
-    <dataValidation sqref="I2 I3:I7 L7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
     <dataValidation sqref="I8:I1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"md5,sha1"</formula1>
@@ -2649,13 +2673,13 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -2666,7 +2690,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
     <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
@@ -2979,7 +3003,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="https://bimdc.bzlrobot.com" display="https://bimdc.bzlrobot.com" r:id="rId1"/>
+    <hyperlink ref="C2" tooltip="https://bimdc.bzlrobot.com" display="https://bimdc.bzlrobot.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
@@ -2998,7 +3022,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
     <col width="58" customWidth="1" style="1" min="1" max="1"/>
     <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -2358,7 +2358,7 @@
       <c r="U3" s="12" t="n"/>
       <c r="V3" s="12" t="inlineStr">
         <is>
-          <t>{"code":"0","type":"success","data":{"id":"216877024344524552","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"3989b7356e0b17173f793d252a89a8b2","type":"user","avatar":null,"ncAccount":null,"timestamp":1687702434,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
+          <t>{"code":"0","type":"success","data":{"id":"216877043329145631","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"ef624f367b662e55017d1c19e7e99171","type":"user","avatar":null,"ncAccount":null,"timestamp":1687704332,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
         </is>
       </c>
       <c r="W3" s="12" t="inlineStr">

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1,200 +1,537 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
+    <sheet name="init" sheetId="2" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Headers Crypto</t>
+  </si>
+  <si>
+    <t>Query Str</t>
+  </si>
+  <si>
+    <t>Request Data Type</t>
+  </si>
+  <si>
+    <t>Request Data</t>
+  </si>
+  <si>
+    <t>Request Data Crypto</t>
+  </si>
+  <si>
+    <t>Extract Request Data</t>
+  </si>
+  <si>
+    <t>Jsonpath</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Regex Params List</t>
+  </si>
+  <si>
+    <t>Retrieve Value</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Sql Params Dict</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Error Log</t>
+  </si>
+  <si>
+    <t>清表</t>
+  </si>
+  <si>
+    <t>初始化查询sql</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>非BIP用户登录</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
+  </si>
+  <si>
+    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+  </si>
+  <si>
+    <t>{"code":"0","type":"success","data":{"id":"216877043329145631","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"ef624f367b662e55017d1c19e7e99171","type":"user","avatar":null,"ncAccount":null,"timestamp":1687704332,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>安全大屏</t>
+  </si>
+  <si>
+    <t>大盘-隐患类型数据</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>劳务基础配置</t>
+  </si>
+  <si>
+    <t>绑定TV</t>
+  </si>
+  <si>
+    <t>/adnce?t={{get_timestamp()}}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+  </si>
+  <si>
+    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+  </si>
+  <si>
+    <t>{"tvSequence": "$..tvSequence"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
+  </si>
+  <si>
+    <t>查询配置</t>
+  </si>
+  <si>
+    <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>{"code":200,"success":true,"data":{"id":"1637650408413749249","projectId":"104966","shortInfo":"博智林提醒您：一切不能保证安全、质量的施工都要停工！进入工地，请佩戴安全帽，穿着反光衣，文明作业！","qrCode":"https://ibs-test.bzlrobot.com/api/ibs-file/document/get/MjAyMS0xMC0xOCxQSE9UT18yMDIxMTAxOF8wOTMxMDExMDIuanBnLDA0ZGQxOWU5YzA3MjQ0YjE5OTIwNzZjOTUxNzY4YzQ1","manageDeparts":[]},"msg":"操作成功"}</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>databases</t>
+  </si>
+  <si>
+    <t>sheets</t>
+  </si>
+  <si>
+    <t>initialize_data</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
+  </si>
+  <si>
+    <t>/test</t>
+  </si>
+  <si>
+    <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "mysql",
+ "user":"root",
+ "password":"root@3306"
+}</t>
+  </si>
+  <si>
+    <t>["安全纯净大屏"]</t>
+  </si>
+  <si>
+    <t>{
+"{{account}}":"18127813600",
+     "{{passwd}}": "WD6Y0+",
+"{{projectId}}":"1066",
+"{{tenant}}":"2419"
+}</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>如何填写提取参数</t>
+  </si>
+  <si>
+    <t>断言的填写方式</t>
+  </si>
+  <si>
+    <t>内置的断言方法</t>
+  </si>
+  <si>
+    <t>sql 的填写方式及如何提取sql结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+  </si>
+  <si>
+    <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+  </si>
+  <si>
+    <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+  </si>
+  <si>
+    <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+  </si>
+  <si>
+    <t>如何使用已提取的参数：</t>
+  </si>
+  <si>
+    <t>断言也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>sql 语句也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+  </si>
+  <si>
+    <t>替换方式依然是 {{}}，{{fun()}}</t>
+  </si>
+  <si>
+    <t>比如:
+SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
+            }
+    }</t>
+  </si>
+  <si>
+    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
+</t>
+  </si>
+  <si>
+    <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数中</t>
+  </si>
+  <si>
+    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath：{"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储标量：["co","na"]</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1" tint="0.05"/>
-      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -539,200 +876,200 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="32" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -933,14 +1270,15 @@
     <dxf>
       <font>
         <name val="宋体"/>
+        <scheme val="none"/>
+        <sz val="11"/>
         <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -960,8 +1298,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -981,8 +1319,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1012,8 +1350,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1043,19 +1381,19 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1079,8 +1417,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1103,7 +1441,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1131,7 +1469,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1157,7 +1495,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1183,7 +1521,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="180">
+        <gradientFill degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1206,8 +1544,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
     </dxf>
     <dxf>
@@ -1350,8 +1688,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1381,8 +1719,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1412,8 +1750,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1513,7 +1851,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1525,8 +1863,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFF8F8F8"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1556,8 +1894,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1587,11 +1925,11 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="270">
+        <gradientFill degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -1736,79 +2074,16 @@
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="73"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:X7" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:X7">
   <tableColumns count="24">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2104,574 +2379,492 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col width="3.22222222222222" customWidth="1" style="3" min="1" max="1"/>
-    <col width="7.88888888888889" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="3" max="3"/>
-    <col width="4.22222222222222" customWidth="1" style="3" min="4" max="5"/>
-    <col width="7.88888888888889" customWidth="1" style="3" min="6" max="6"/>
-    <col width="14.7777777777778" customWidth="1" style="10" min="7" max="7"/>
-    <col width="29.8888888888889" customWidth="1" style="3" min="8" max="8"/>
-    <col width="15.2222222222222" customWidth="1" style="3" min="9" max="9"/>
-    <col width="9.33333333333333" customWidth="1" style="3" min="10" max="10"/>
-    <col width="18.5555555555556" customWidth="1" style="10" min="11" max="11"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="12" max="12"/>
-    <col width="23.1037037037037" customWidth="1" style="3" min="13" max="13"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="14" max="24"/>
-    <col width="25.7777777777778" customWidth="1" style="3" min="25" max="16384"/>
+    <col min="1" max="1" width="3.22222222222222" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.88888888888889" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="4" max="5" width="4.22222222222222" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.88888888888889" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.7777777777778" style="10" customWidth="1"/>
+    <col min="8" max="8" width="29.8888888888889" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.2222222222222" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.33333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.1037037037037" style="3" customWidth="1"/>
+    <col min="14" max="24" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customFormat="1" customHeight="1" s="8">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Headers</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Headers Crypto</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Query Str</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>Request Data Type</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data Crypto</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Extract Request Data</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Jsonpath</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Regex</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Regex Params List</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Retrieve Value</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>Sql Params Dict</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>Assertion</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>Error Log</t>
-        </is>
+    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:24">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" ht="26" customFormat="1" customHeight="1" s="3">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>清表</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>初始化查询sql</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="n"/>
-      <c r="J2" s="10" t="n"/>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="S2" s="12" t="inlineStr"/>
-      <c r="T2" s="12" t="inlineStr"/>
-      <c r="U2" s="12" t="inlineStr"/>
-      <c r="V2" s="12" t="inlineStr"/>
-      <c r="W2" s="12" t="inlineStr"/>
-      <c r="X2" s="12" t="inlineStr"/>
-      <c r="Y2" s="5" t="n"/>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="5"/>
     </row>
-    <row r="3" ht="26" customFormat="1" customHeight="1" s="9">
-      <c r="A3" s="3" t="n">
+    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:24">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>登录</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>非BIP用户登录</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>/auth/loginByNotBip</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/json"}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="inlineStr"/>
-      <c r="T3" s="3" t="inlineStr"/>
-      <c r="U3" s="12" t="n"/>
-      <c r="V3" s="12" t="inlineStr">
-        <is>
-          <t>{"code":"0","type":"success","data":{"id":"216877043329145631","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"ef624f367b662e55017d1c19e7e99171","type":"user","avatar":null,"ncAccount":null,"timestamp":1687704332,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
-        </is>
-      </c>
-      <c r="W3" s="12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="X3" s="12" t="inlineStr"/>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" ht="26" customHeight="1" s="1">
-      <c r="A4" s="3" t="n">
+    <row r="4" ht="26" customHeight="1" spans="1:25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>安全大屏</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>大盘-隐患类型数据</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n"/>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="inlineStr"/>
-      <c r="T4" s="10" t="inlineStr"/>
-      <c r="U4" s="10" t="n"/>
-      <c r="V4" s="10" t="inlineStr"/>
-      <c r="W4" s="10" t="inlineStr"/>
-      <c r="X4" s="12" t="inlineStr"/>
-      <c r="Y4" s="5" t="n"/>
+      <c r="B4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="5"/>
     </row>
-    <row r="5" ht="115.5" customHeight="1" s="1">
-      <c r="A5" s="3" t="n">
+    <row r="5" ht="115.5" customHeight="1" spans="1:25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>绑定TV</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>/ibs/api/ibs-lms-base/tvConfig/addTvSequence?t={{get_timestamp()}}</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>{"tvSequence": "$..tvSequence"}</t>
-        </is>
-      </c>
-      <c r="S5" s="12" t="inlineStr"/>
-      <c r="T5" s="3" t="inlineStr"/>
-      <c r="U5" s="12" t="n"/>
-      <c r="V5" s="12" t="inlineStr">
-        <is>
-          <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
-        </is>
-      </c>
-      <c r="W5" s="12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="X5" s="12" t="inlineStr"/>
-      <c r="Y5" s="5" t="n"/>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="5"/>
     </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" s="3" t="n">
+    <row r="6" ht="82.5" customHeight="1" spans="1:25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>查询配置</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>/ibs/api/ibs-lms-base/tvConfig/getTvInfo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-        </is>
-      </c>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="S6" s="12" t="inlineStr"/>
-      <c r="T6" s="3" t="inlineStr"/>
-      <c r="U6" s="12" t="n"/>
-      <c r="V6" s="12" t="inlineStr">
-        <is>
-          <t>{"code":200,"success":true,"data":{"id":"1637650408413749249","projectId":"104966","shortInfo":"博智林提醒您：一切不能保证安全、质量的施工都要停工！进入工地，请佩戴安全帽，穿着反光衣，文明作业！","qrCode":"https://ibs-test.bzlrobot.com/api/ibs-file/document/get/MjAyMS0xMC0xOCxQSE9UT18yMDIxMTAxOF8wOTMxMDExMDIuanBnLDA0ZGQxOWU5YzA3MjQ0YjE5OTIwNzZjOTUxNzY4YzQ1","manageDeparts":[]},"msg":"操作成功"}</t>
-        </is>
-      </c>
-      <c r="W6" s="12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="X6" s="12" t="inlineStr"/>
-      <c r="Y6" s="5" t="n"/>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="5"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1" s="1">
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>TIME</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="n">
+    <row r="7" ht="16.5" customHeight="1" spans="6:25">
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="S7" s="12" t="inlineStr"/>
-      <c r="T7" s="12" t="inlineStr"/>
-      <c r="U7" s="12" t="n"/>
-      <c r="V7" s="12" t="inlineStr"/>
-      <c r="W7" s="12" t="inlineStr"/>
-      <c r="X7" s="12" t="inlineStr"/>
-      <c r="Y7" s="5" t="n"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="3"/>
+      <c r="S7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="24">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="25">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="26">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="1" dxfId="27">
+    <cfRule type="containsBlanks" dxfId="27" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:X1">
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="24">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="25">
+    <cfRule type="expression" dxfId="25" priority="8">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="26">
+    <cfRule type="expression" dxfId="26" priority="7">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="6" dxfId="27">
+    <cfRule type="containsBlanks" dxfId="27" priority="6">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="28">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="28">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="28">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V7">
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W1048576">
-    <cfRule type="cellIs" priority="30" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:W7">
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="24">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="16" dxfId="25">
+    <cfRule type="expression" dxfId="25" priority="16">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="15" dxfId="26">
+    <cfRule type="expression" dxfId="26" priority="15">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="14" dxfId="27">
+    <cfRule type="containsBlanks" dxfId="27" priority="14">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:X1048576 X2:X7">
-    <cfRule type="containsBlanks" priority="26" dxfId="27">
+    <cfRule type="containsBlanks" dxfId="27" priority="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" dxfId="26">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" dxfId="25">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="29" operator="equal" dxfId="24">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="28">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E1048576">
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="28">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 E1 E2 E3 E4 E5 E6 E7 E8:E1048576 I1 J1 J8:J1048576 K1 K8:K1048576 M1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
-    <dataValidation sqref="F2 F3 F4 F5 F6 F7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 M1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation sqref="I2 I3:I7 L7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M8:M1048576">
+      <formula1>"md5,sha1,sha256"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 I3:I7">
       <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation sqref="M8:M1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
-      <formula1>"md5,sha1,sha256"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2 J3:J7 K2 K3:K6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
       <formula1>"json,data,params"</formula1>
     </dataValidation>
-    <dataValidation sqref="I8:I1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2679,142 +2872,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
-    <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
-    <col width="34.5555555555556" customWidth="1" style="6" min="3" max="3"/>
-    <col width="24.5555555555556" customWidth="1" style="6" min="4" max="4"/>
-    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
-    <col width="20.1111111111111" customWidth="1" style="6" min="6" max="6"/>
-    <col width="52.8888888888889" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.1111111111111" customWidth="1" style="6" min="8" max="8"/>
-    <col width="7.36296296296296" customWidth="1" style="6" min="9" max="16384"/>
+    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>host</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>databases</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>sheets</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>initialize_data</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>run</t>
-        </is>
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" s="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="215.25" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>https://bimdc.bzlrobot.com</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>/bsp/test/user/ugs</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "mysql",
- "user":"root",
- "password":"root@3306"
-}</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>["安全纯净大屏"]</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-"{{account}}":"18127813600",
-     "{{passwd}}": "WD6Y0+LJLHXuFaplzUtSCnwktA7KgXCpjCS+OVvIFGTEoz2gbqK2oOOuJUf7ao0m2YYGiGi1pQTMBnkrxIY1cztGYbVp97kvIQwZLN4UhrOAe3h1asY/NLnDwB/byl7agcGv9WI4oy6B1Z93HVHmQiAKn7QqnDgPVITu4jthNc8=",
-"{{projectId}}":"104966",
-"{{tenant}}":"216317749963825419"
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" s="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="47" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" priority="133" dxfId="30">
+    <cfRule type="containsBlanks" dxfId="30" priority="133">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -2823,16 +2970,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="135" dxfId="31">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{aae6fa8c-3791-45e2-abb5-3f7063bd3f38}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="135">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="136" dxfId="32">
+    <cfRule type="expression" dxfId="32" priority="136">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" priority="73" dxfId="30">
+    <cfRule type="containsBlanks" dxfId="30" priority="73">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -2841,16 +2993,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="75" dxfId="31">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9c75ad15-295b-41d2-a6c4-e8c3e2285b93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="75">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="76" dxfId="32">
+    <cfRule type="expression" dxfId="32" priority="76">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" priority="85" dxfId="30">
+    <cfRule type="containsBlanks" dxfId="30" priority="85">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -2859,16 +3016,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="87" dxfId="31">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2d66086c-b887-472b-84a5-5c5db364aca4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="87">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="88" dxfId="32">
+    <cfRule type="expression" dxfId="32" priority="88">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" priority="69" dxfId="30">
+    <cfRule type="containsBlanks" dxfId="30" priority="69">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -2877,19 +3039,24 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="71" dxfId="31">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f3f939ad-85e3-4610-af2b-c354e272bfa8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="71">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="72" dxfId="32">
+    <cfRule type="expression" dxfId="32" priority="72">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="60" dxfId="32">
+    <cfRule type="expression" dxfId="32" priority="60">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="59" dxfId="31">
+    <cfRule type="expression" dxfId="31" priority="59">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -2898,16 +3065,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="57" dxfId="30">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{43627233-feec-46bc-b346-1a2496a60d19}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="30" priority="57">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" priority="68" dxfId="32">
+    <cfRule type="expression" dxfId="32" priority="68">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="67" dxfId="31">
+    <cfRule type="expression" dxfId="31" priority="67">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -2916,16 +3088,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="65" dxfId="30">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fb3b4dd6-b10f-4ba6-8689-bd5fe2a502bd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="30" priority="65">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" priority="64" dxfId="32">
+    <cfRule type="expression" dxfId="32" priority="64">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="63" dxfId="31">
+    <cfRule type="expression" dxfId="31" priority="63">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -2934,13 +3111,18 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="61" dxfId="30">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a2fca00e-7227-4925-8b9a-b27f75ff3ef5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="30" priority="61">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" priority="1" dxfId="30">
+    <cfRule type="containsBlanks" dxfId="30" priority="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -2949,11 +3131,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="3" dxfId="31">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{eb1333be-8018-4865-a683-a27d3c76220a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="32">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2964,10 +3151,15 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bb79ad8d-989f-4b2f-9ac8-7cf6e20763ec}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" priority="142" dxfId="30">
+    <cfRule type="containsBlanks" dxfId="30" priority="142">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -2976,16 +3168,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="144" dxfId="31">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{98bda4ec-a704-4c1e-a46f-bc998910ce65}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="144">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="145" dxfId="32">
+    <cfRule type="expression" dxfId="32" priority="145">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" priority="77" dxfId="30">
+    <cfRule type="containsBlanks" dxfId="30" priority="77">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -2994,246 +3191,275 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="79" dxfId="31">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{adeee90d-241c-45ea-9d2a-4bfc1b9638b3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="79">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="80" dxfId="32">
+    <cfRule type="expression" dxfId="32" priority="80">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" tooltip="https://bimdc.bzlrobot.com" display="https://bimdc.bzlrobot.com" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{aae6fa8c-3791-45e2-abb5-3f7063bd3f38}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9c75ad15-295b-41d2-a6c4-e8c3e2285b93}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2d66086c-b887-472b-84a5-5c5db364aca4}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f3f939ad-85e3-4610-af2b-c354e272bfa8}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{43627233-feec-46bc-b346-1a2496a60d19}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{fb3b4dd6-b10f-4ba6-8689-bd5fe2a502bd}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:F3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a2fca00e-7227-4925-8b9a-b27f75ff3ef5}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{eb1333be-8018-4865-a683-a27d3c76220a}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{bb79ad8d-989f-4b2f-9ac8-7cf6e20763ec}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{98bda4ec-a704-4c1e-a46f-bc998910ce65}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{adeee90d-241c-45ea-9d2a-4bfc1b9638b3}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:D2 C3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col width="58" customWidth="1" style="1" min="1" max="1"/>
-    <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>
-    <col width="47.6148148148148" customWidth="1" style="1" min="3" max="3"/>
-    <col width="109.955555555556" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.8888888888889" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.7777777777778" customWidth="1" style="1" min="8" max="8"/>
+    <col min="1" max="1" width="58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>如何填写提取参数</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>断言的填写方式</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>内置的断言方法</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>sql 的填写方式及如何提取sql结果</t>
-        </is>
+    <row r="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" s="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="6" t="n"/>
+    <row r="2" ht="346.5" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="18" customHeight="1" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>如何使用已提取的参数：</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>断言也可以使用变量替换</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>sql 语句也可以使用变量替换</t>
-        </is>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="4" ht="181.5" customHeight="1" s="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>替换方式依然是 {{}}，{{fun()}}</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>比如:
-SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
-            }
-    }</t>
-        </is>
+    <row r="4" ht="181.5" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" s="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-</t>
-        </is>
+    <row r="5" ht="66" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数中</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
+    <row r="6" ht="82.5" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
-    <row r="7" ht="165" customHeight="1" s="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath：{"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储标量：["co","na"]</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+    <row r="7" ht="165" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="24">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="25">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" dxfId="26">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="5" dxfId="27">
+    <cfRule type="containsBlanks" dxfId="27" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="24">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="25">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="26">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="1" dxfId="27">
+    <cfRule type="containsBlanks" dxfId="27" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Request Data</t>
   </si>
   <si>
+    <t>Setup Script</t>
+  </si>
+  <si>
     <t>Request Data Crypto</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t>Sql Params Dict</t>
+  </si>
+  <si>
+    <t>Teardown Script</t>
   </si>
   <si>
     <t>Expected</t>
@@ -293,13 +299,17 @@
                 "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
             }
     }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
+那么在excel中的sql params dict 中就可以写入：{"total": "$.select_sale[0].total", "total_1": "$..total"} 来提取所需要的参数了</t>
   </si>
   <si>
     <t>如何使用已提取的参数：</t>
   </si>
   <si>
     <t>断言也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>也可以像postman一样写前后置脚本代码段</t>
   </si>
   <si>
     <t>sql 语句也可以使用变量替换</t>
@@ -310,6 +320,19 @@
   </si>
   <si>
     <t>替换方式依然是 {{}}，{{fun()}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
   </si>
   <si>
     <t>比如:
@@ -326,6 +349,9 @@
 {{函数名(*args,**kwargs)}}</t>
   </si>
   <si>
+    <t>后置脚本代码 与前置脚本的差不多</t>
+  </si>
+  <si>
     <t xml:space="preserve">sql 语句执行后的返回结果如下：
 {'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
 </t>
@@ -333,16 +359,16 @@
   <si>
     <t>以下为例子：
 请求入参body：{"hello":"world"}
-那么提取请求参数中</t>
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
   </si>
   <si>
     <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
 那么提取响应的code,第一个name可以这样写：
-jsonpath：{"name":"$.data[0].name","code":"$.code"}
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
 绝对路径表达式则：name=data[0].name;code=code
 正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
 表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储标量：["co","na"]</t>
+存储变量：["co","na"]</t>
   </si>
 </sst>
 </file>
@@ -1127,104 +1153,110 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
     <cellStyle name="常规 2" xfId="51"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
+  <dxfs count="76">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.25"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.25"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1951,127 +1983,127 @@
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="自定义" pivot="0" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="35"/>
     </tableStyle>
     <tableStyle name="黄色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="34"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
     <tableStyle name="紫色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="35"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="37"/>
     </tableStyle>
     <tableStyle name="绿色标题行表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="36"/>
+      <tableStyleElement type="totalRow" dxfId="38"/>
     </tableStyle>
     <tableStyle name="红色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="37"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
     <tableStyle name="商务绿标题行表格样式" count="1">
-      <tableStyleElement type="firstHeaderCell" dxfId="38"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="40"/>
     </tableStyle>
     <tableStyle name="藤萝紫线条表格样式" count="1">
-      <tableStyleElement type="firstColumn" dxfId="39"/>
+      <tableStyleElement type="firstColumn" dxfId="41"/>
     </tableStyle>
     <tableStyle name="蓝色线条表格样式" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="40"/>
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
     <tableStyle name="蓝色镶边列表格样式" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="41"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="43"/>
     </tableStyle>
     <tableStyle name="单色渐变商务蓝表格样式" count="1">
-      <tableStyleElement type="wholeTable" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
     </tableStyle>
     <tableStyle name="汇总蓝绿渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="43"/>
+      <tableStyleElement type="totalRow" dxfId="45"/>
     </tableStyle>
     <tableStyle name="汇总红蓝渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="44"/>
+      <tableStyleElement type="totalRow" dxfId="46"/>
     </tableStyle>
     <tableStyle name="汇总红黄渐变表格样式" count="1">
-      <tableStyleElement type="totalRow" dxfId="45"/>
+      <tableStyleElement type="totalRow" dxfId="47"/>
     </tableStyle>
     <tableStyle name="深浅交替4" count="1">
-      <tableStyleElement type="firstHeaderCell" dxfId="46"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="48"/>
     </tableStyle>
     <tableStyle name="商务深棕双色表格样式1" count="1">
-      <tableStyleElement type="totalRow" dxfId="47"/>
+      <tableStyleElement type="totalRow" dxfId="49"/>
     </tableStyle>
     <tableStyle name="商务深紫双色表格样式1" count="1">
-      <tableStyleElement type="totalRow" dxfId="48"/>
+      <tableStyleElement type="totalRow" dxfId="50"/>
     </tableStyle>
     <tableStyle name="商务深灰双色表格样式1" count="1">
-      <tableStyleElement type="totalRow" dxfId="49"/>
+      <tableStyleElement type="totalRow" dxfId="51"/>
     </tableStyle>
     <tableStyle name="商务深色系列12" count="1">
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
     </tableStyle>
     <tableStyle name="商务深色系列1" count="1">
-      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
     <tableStyle name="商务首列填充05" count="1">
-      <tableStyleElement type="firstColumn" dxfId="52"/>
+      <tableStyleElement type="firstColumn" dxfId="54"/>
     </tableStyle>
     <tableStyle name="商务首列填充04" count="1">
-      <tableStyleElement type="firstColumn" dxfId="53"/>
+      <tableStyleElement type="firstColumn" dxfId="55"/>
     </tableStyle>
     <tableStyle name="商务首列填充03" count="1">
-      <tableStyleElement type="firstColumn" dxfId="54"/>
+      <tableStyleElement type="firstColumn" dxfId="56"/>
     </tableStyle>
     <tableStyle name="商务隔行填充03" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
+      <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
     <tableStyle name="商务首列填充汇总01" count="1">
-      <tableStyleElement type="firstColumn" dxfId="56"/>
+      <tableStyleElement type="firstColumn" dxfId="58"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式67" count="1">
-      <tableStyleElement type="firstColumn" dxfId="57"/>
+      <tableStyleElement type="firstColumn" dxfId="59"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式68" count="1">
-      <tableStyleElement type="firstColumn" dxfId="58"/>
+      <tableStyleElement type="firstColumn" dxfId="60"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式64" count="1">
-      <tableStyleElement type="firstColumn" dxfId="59"/>
+      <tableStyleElement type="firstColumn" dxfId="61"/>
     </tableStyle>
     <tableStyle name="首列填充系列2" count="1">
-      <tableStyleElement type="firstColumn" dxfId="60"/>
+      <tableStyleElement type="firstColumn" dxfId="62"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式3" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="61"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式6" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="62"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式10" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="63"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="65"/>
     </tableStyle>
     <tableStyle name="镶边列表格样式10" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="64"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="66"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式1" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="65"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="67"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式5" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="66"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="68"/>
     </tableStyle>
     <tableStyle name="首行首列填充表格样式8" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="67"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="69"/>
     </tableStyle>
     <tableStyle name="水彩85.xlsx" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="68"/>
+      <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
     <tableStyle name="黑灰渐变行" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="69"/>
+      <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
     <tableStyle name="镶边列表格样式9" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="70"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="72"/>
     </tableStyle>
     <tableStyle name="镶边列表格样式7" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="71"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="73"/>
     </tableStyle>
     <tableStyle name="渐变色镶边列表格样式2" count="1">
-      <tableStyleElement type="secondColumnStripe" dxfId="72"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="74"/>
     </tableStyle>
     <tableStyle name="表样式 1" pivot="0" count="1">
-      <tableStyleElement type="firstColumnStripe" size="2" dxfId="73"/>
+      <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2083,8 +2115,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:X7">
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7">
+  <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
     <tableColumn id="3" name="Description" dataDxfId="2"/>
@@ -2097,18 +2129,20 @@
     <tableColumn id="23" name="Query Str" dataDxfId="9"/>
     <tableColumn id="16" name="Request Data Type" dataDxfId="10"/>
     <tableColumn id="8" name="Request Data" dataDxfId="11"/>
-    <tableColumn id="9" name="Request Data Crypto" dataDxfId="12"/>
-    <tableColumn id="22" name="Extract Request Data" dataDxfId="13"/>
-    <tableColumn id="10" name="Jsonpath" dataDxfId="14"/>
-    <tableColumn id="11" name="Regex" dataDxfId="15"/>
-    <tableColumn id="12" name="Regex Params List" dataDxfId="16"/>
-    <tableColumn id="13" name="Retrieve Value" dataDxfId="17"/>
-    <tableColumn id="14" name="SQL" dataDxfId="18"/>
-    <tableColumn id="15" name="Sql Params Dict" dataDxfId="19"/>
-    <tableColumn id="18" name="Expected" dataDxfId="20"/>
-    <tableColumn id="19" name="Response" dataDxfId="21"/>
-    <tableColumn id="20" name="Assertion" totalsRowFunction="count" dataDxfId="22"/>
-    <tableColumn id="21" name="Error Log" dataDxfId="23"/>
+    <tableColumn id="25" name="Setup Script" dataDxfId="12"/>
+    <tableColumn id="9" name="Request Data Crypto" dataDxfId="13"/>
+    <tableColumn id="22" name="Extract Request Data" dataDxfId="14"/>
+    <tableColumn id="10" name="Jsonpath" dataDxfId="15"/>
+    <tableColumn id="11" name="Regex" dataDxfId="16"/>
+    <tableColumn id="12" name="Regex Params List" dataDxfId="17"/>
+    <tableColumn id="13" name="Retrieve Value" dataDxfId="18"/>
+    <tableColumn id="14" name="SQL" dataDxfId="19"/>
+    <tableColumn id="15" name="Sql Params Dict" dataDxfId="20"/>
+    <tableColumn id="26" name="Teardown Script" dataDxfId="21"/>
+    <tableColumn id="18" name="Expected" dataDxfId="22"/>
+    <tableColumn id="19" name="Response" dataDxfId="23"/>
+    <tableColumn id="20" name="Assertion" totalsRowFunction="count" dataDxfId="24"/>
+    <tableColumn id="21" name="Error Log" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2381,31 +2415,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.88888888888889" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="4" max="5" width="4.22222222222222" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.88888888888889" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.7777777777778" style="10" customWidth="1"/>
-    <col min="8" max="8" width="29.8888888888889" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.2222222222222" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.21969696969697" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.88636363636364" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.780303030303" style="3" customWidth="1"/>
+    <col min="4" max="5" width="4.21969696969697" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.88636363636364" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.780303030303" style="10" customWidth="1"/>
+    <col min="8" max="8" width="29.8863636363636" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.219696969697" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.33333333333333" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="13" max="13" width="23.1037037037037" style="3" customWidth="1"/>
-    <col min="14" max="24" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5530303030303" style="10" customWidth="1"/>
+    <col min="12" max="13" width="14.780303030303" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.1060606060606" style="3" customWidth="1"/>
+    <col min="15" max="26" width="14.780303030303" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:24">
+    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2478,121 +2512,130 @@
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:25">
+    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="V2" s="12"/>
       <c r="W2" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="5"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:24">
+    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:26">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="S3" s="3"/>
       <c r="T3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="12"/>
       <c r="X3" s="12" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:25">
+    <row r="4" ht="26" customHeight="1" spans="1:27">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="10"/>
       <c r="J4" s="10"/>
@@ -2603,264 +2646,267 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="S4" s="10"/>
       <c r="T4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="5"/>
     </row>
-    <row r="5" ht="115.5" customHeight="1" spans="1:25">
+    <row r="5" ht="115.5" customHeight="1" spans="1:27">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="W5" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="P5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="12"/>
       <c r="X5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="5"/>
     </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:25">
+    <row r="6" ht="82.5" customHeight="1" spans="1:27">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="12"/>
       <c r="X6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="5"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1" spans="6:25">
+    <row r="7" ht="16.5" customHeight="1" spans="6:27">
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G7" s="10">
         <v>100</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="3"/>
-      <c r="S7" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="T7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
       <c r="X7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
+      <formula>LEN(TRIM(A1))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="2">
+      <formula>IF(FIND("SQL",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="3">
+      <formula>IF(FIND("TIME",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:Z1">
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
+      <formula>LEN(TRIM(B1))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="7">
+      <formula>IF(FIND("SQL",$F1),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
-      <formula>IF(FIND("SQL",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="1">
-      <formula>LEN(TRIM(A1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:X1">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"不通过"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8">
-      <formula>IF(FIND("TIME",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="7">
-      <formula>IF(FIND("SQL",$F1),1,0)</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="6">
-      <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1">
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="equal">
+  <conditionalFormatting sqref="Y1">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V7">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+  <conditionalFormatting sqref="X2:X7">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W8:W1048576">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+  <conditionalFormatting sqref="Y8:Y1048576">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:W7">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+  <conditionalFormatting sqref="A2:Y7">
+    <cfRule type="containsBlanks" dxfId="26" priority="14">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="15">
+      <formula>IF(FIND("SQL",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="16">
+      <formula>IF(FIND("TIME",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="16">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:Z1048576 Z2:Z7">
+    <cfRule type="containsBlanks" dxfId="26" priority="26">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>IF(FIND("SQL",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="15">
-      <formula>IF(FIND("SQL",$F2),1,0)</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="14">
-      <formula>LEN(TRIM(A2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:X1048576 X2:X7">
-    <cfRule type="containsBlanks" dxfId="27" priority="26">
-      <formula>LEN(TRIM(A2))=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>IF(FIND("SQL",$F2),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="28">
-      <formula>IF(FIND("TIME",$F2),1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E1048576">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 M1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
+      <formula1>"MD5,sha1,sha256"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M8:M1048576">
-      <formula1>"md5,sha1,sha256"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 I3:I7">
-      <formula1>"MD5,sha1,sha256"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
+      <formula1>"md5,sha1"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
       <formula1>"json,data,params"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
-      <formula1>"md5,sha1"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
+      <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2880,43 +2926,43 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
     <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="215.25" customHeight="1" spans="1:8">
@@ -2924,25 +2970,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="47" customHeight="1" spans="1:8">
@@ -2950,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2961,7 +3007,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" dxfId="30" priority="133">
+    <cfRule type="containsBlanks" dxfId="32" priority="133">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -2972,19 +3018,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aae6fa8c-3791-45e2-abb5-3f7063bd3f38}</x14:id>
+          <x14:id>{01d7baaf-7baa-4006-8134-76660f20706a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="135">
+    <cfRule type="expression" dxfId="33" priority="135">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="136">
+    <cfRule type="expression" dxfId="34" priority="136">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" dxfId="30" priority="73">
+    <cfRule type="containsBlanks" dxfId="32" priority="73">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -2995,19 +3041,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9c75ad15-295b-41d2-a6c4-e8c3e2285b93}</x14:id>
+          <x14:id>{6c7b6284-0899-4929-a778-41b4e4076467}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="75">
+    <cfRule type="expression" dxfId="33" priority="75">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="76">
+    <cfRule type="expression" dxfId="34" priority="76">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="30" priority="85">
+    <cfRule type="containsBlanks" dxfId="32" priority="85">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -3018,19 +3064,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2d66086c-b887-472b-84a5-5c5db364aca4}</x14:id>
+          <x14:id>{d1a46fce-ae6f-474d-9dd2-3c3ed22b57fa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="87">
+    <cfRule type="expression" dxfId="33" priority="87">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="88">
+    <cfRule type="expression" dxfId="34" priority="88">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" dxfId="30" priority="69">
+    <cfRule type="containsBlanks" dxfId="32" priority="69">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -3041,22 +3087,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f3f939ad-85e3-4610-af2b-c354e272bfa8}</x14:id>
+          <x14:id>{6bcc4397-58cf-486d-b712-93820a493ca7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="71">
+    <cfRule type="expression" dxfId="33" priority="71">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="72">
+    <cfRule type="expression" dxfId="34" priority="72">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="32" priority="60">
+    <cfRule type="expression" dxfId="34" priority="60">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="59">
+    <cfRule type="expression" dxfId="33" priority="59">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3067,19 +3113,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{43627233-feec-46bc-b346-1a2496a60d19}</x14:id>
+          <x14:id>{9ef58e1c-bd95-4e5c-99d9-a1cbbe81ada6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="57">
+    <cfRule type="containsBlanks" dxfId="32" priority="57">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="32" priority="68">
+    <cfRule type="expression" dxfId="34" priority="68">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="67">
+    <cfRule type="expression" dxfId="33" priority="67">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3090,19 +3136,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fb3b4dd6-b10f-4ba6-8689-bd5fe2a502bd}</x14:id>
+          <x14:id>{ab5eee7f-97f0-4036-b431-0ee3163f5c5a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="65">
+    <cfRule type="containsBlanks" dxfId="32" priority="65">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="32" priority="64">
+    <cfRule type="expression" dxfId="34" priority="64">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="63">
+    <cfRule type="expression" dxfId="33" priority="63">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3113,16 +3159,16 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a2fca00e-7227-4925-8b9a-b27f75ff3ef5}</x14:id>
+          <x14:id>{c34f688e-d0be-4485-9bc0-f2e84d806603}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="30" priority="61">
+    <cfRule type="containsBlanks" dxfId="32" priority="61">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" dxfId="30" priority="1">
+    <cfRule type="containsBlanks" dxfId="32" priority="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3133,14 +3179,14 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eb1333be-8018-4865-a683-a27d3c76220a}</x14:id>
+          <x14:id>{7e8841c8-7109-4945-9782-020e9694013d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3153,13 +3199,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bb79ad8d-989f-4b2f-9ac8-7cf6e20763ec}</x14:id>
+          <x14:id>{6afddbab-4466-4da0-a9e0-cebb30f2e569}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" dxfId="30" priority="142">
+    <cfRule type="containsBlanks" dxfId="32" priority="142">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3170,19 +3216,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98bda4ec-a704-4c1e-a46f-bc998910ce65}</x14:id>
+          <x14:id>{25cd27db-1222-47fb-806c-c4aaee7a593b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="144">
+    <cfRule type="expression" dxfId="33" priority="144">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="145">
+    <cfRule type="expression" dxfId="34" priority="145">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" dxfId="30" priority="77">
+    <cfRule type="containsBlanks" dxfId="32" priority="77">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3193,14 +3239,14 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{adeee90d-241c-45ea-9d2a-4bfc1b9638b3}</x14:id>
+          <x14:id>{19aa6ce6-d4bb-4895-b723-3fb36df07a34}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="79">
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="80">
+    <cfRule type="expression" dxfId="34" priority="80">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3214,7 +3260,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aae6fa8c-3791-45e2-abb5-3f7063bd3f38}">
+          <x14:cfRule type="dataBar" id="{01d7baaf-7baa-4006-8134-76660f20706a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3224,7 +3270,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9c75ad15-295b-41d2-a6c4-e8c3e2285b93}">
+          <x14:cfRule type="dataBar" id="{6c7b6284-0899-4929-a778-41b4e4076467}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3234,7 +3280,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2d66086c-b887-472b-84a5-5c5db364aca4}">
+          <x14:cfRule type="dataBar" id="{d1a46fce-ae6f-474d-9dd2-3c3ed22b57fa}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3244,7 +3290,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f3f939ad-85e3-4610-af2b-c354e272bfa8}">
+          <x14:cfRule type="dataBar" id="{6bcc4397-58cf-486d-b712-93820a493ca7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3254,7 +3300,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{43627233-feec-46bc-b346-1a2496a60d19}">
+          <x14:cfRule type="dataBar" id="{9ef58e1c-bd95-4e5c-99d9-a1cbbe81ada6}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3264,7 +3310,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fb3b4dd6-b10f-4ba6-8689-bd5fe2a502bd}">
+          <x14:cfRule type="dataBar" id="{ab5eee7f-97f0-4036-b431-0ee3163f5c5a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3274,7 +3320,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a2fca00e-7227-4925-8b9a-b27f75ff3ef5}">
+          <x14:cfRule type="dataBar" id="{c34f688e-d0be-4485-9bc0-f2e84d806603}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3284,7 +3330,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eb1333be-8018-4865-a683-a27d3c76220a}">
+          <x14:cfRule type="dataBar" id="{7e8841c8-7109-4945-9782-020e9694013d}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3294,7 +3340,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bb79ad8d-989f-4b2f-9ac8-7cf6e20763ec}">
+          <x14:cfRule type="dataBar" id="{6afddbab-4466-4da0-a9e0-cebb30f2e569}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3304,7 +3350,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98bda4ec-a704-4c1e-a46f-bc998910ce65}">
+          <x14:cfRule type="dataBar" id="{25cd27db-1222-47fb-806c-c4aaee7a593b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3314,7 +3360,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{adeee90d-241c-45ea-9d2a-4bfc1b9638b3}">
+          <x14:cfRule type="dataBar" id="{19aa6ce6-d4bb-4895-b723-3fb36df07a34}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3338,42 +3384,42 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="346.5" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3382,49 +3428,55 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="4" ht="181.5" customHeight="1" spans="1:4">
+    <row r="4" ht="202.8" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="82.5" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" ht="165" customHeight="1" spans="1:4">
+    <row r="7" ht="187.2" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3432,30 +3484,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="5">
+    <cfRule type="containsBlanks" dxfId="26" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="27" priority="1">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1,563 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
-    <sheet name="init" sheetId="2" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Headers</t>
-  </si>
-  <si>
-    <t>Headers Crypto</t>
-  </si>
-  <si>
-    <t>Query Str</t>
-  </si>
-  <si>
-    <t>Request Data Type</t>
-  </si>
-  <si>
-    <t>Request Data</t>
-  </si>
-  <si>
-    <t>Setup Script</t>
-  </si>
-  <si>
-    <t>Request Data Crypto</t>
-  </si>
-  <si>
-    <t>Extract Request Data</t>
-  </si>
-  <si>
-    <t>Jsonpath</t>
-  </si>
-  <si>
-    <t>Regex</t>
-  </si>
-  <si>
-    <t>Regex Params List</t>
-  </si>
-  <si>
-    <t>Retrieve Value</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>Sql Params Dict</t>
-  </si>
-  <si>
-    <t>Teardown Script</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Assertion</t>
-  </si>
-  <si>
-    <t>Error Log</t>
-  </si>
-  <si>
-    <t>清表</t>
-  </si>
-  <si>
-    <t>初始化查询sql</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>非BIP用户登录</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/login</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
-  </si>
-  <si>
-    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-  </si>
-  <si>
-    <t>{"code":"0","type":"success","data":{"id":"216877043329145631","userId":"216483504447804297","ibsUserId":7884,"mobile":"18127813600","bspToken":"ef624f367b662e55017d1c19e7e99171","type":"user","avatar":null,"ncAccount":null,"timestamp":1687704332,"idpTokenId":null,"loginChannel":null,"clientType":null,"name":"陈勇志","btpToken":null,"account":"18127813600","accountType":"C","currentEnvId":null,"currentTenantId":"216260762345772077","currentAppId":"8d1f5bdc9c6648af84a98e2c017846c5","currentProjectId":"103654","currentOrgId":null,"currentMenuId":null,"currentOrgMenuId":null,"currentSelectedTab":"org","currentUrl":"/ibs/material/materialsReturned","tenants":[{"id":"1623811301356297657","code":"1623811301356297657","fullName":"广东博嘉拓建筑测试租户","shortName":"广东博嘉拓建筑测试租户","envId":"6296f5e3960c4fdfb9c9357b581c853b","envName":"默认环境","tenantEnvs":null},{"id":"216572673247394736","code":"9C8D5715AAA44D4B8530AB2B7F627E1A","fullName":"安徽腾越建筑工程有限公司","shortName":"安徽腾越建筑工程有限公司","envId":"d1b4f959495f433fb1dd5400a78bce2c","envName":"默认环境","tenantEnvs":null},{"id":"216317749963825419","code":"C2C35D2543B34CA99366D9C76E45D01B","fullName":"沈阳腾越建筑测试租户","shortName":"沈阳腾越建筑测试租户","envId":"c4a70c0a1f5c4aaa83fcd390dcd898c6","envName":"默认环境","tenantEnvs":null},{"id":"216260762345772077","code":"216260762345772077","fullName":"广东腾越建筑工程有限公司","shortName":"广东腾越建筑工程有限公司","envId":"210712034943271000","envName":"默认环境","tenantEnvs":null},{"id":"216328986981406025","code":"TENANT_TEST","fullName":"智慧工地测试租户9","shortName":"智慧工地测试租户9","envId":"e7682a3876a343b483645b0c20da93a3","envName":"默认环境","tenantEnvs":null},{"id":"216365124588606373","code":"TENANT_TEST","fullName":"计划排程自动化测试","shortName":"计划排程自动化测试","envId":"80ce8eb5a7c941f8a6f57b8ecb61ec17","envName":"默认环境","tenantEnvs":null},{"id":"216674624791091228","code":"232E9186B1BE494E966F27BA7CF33AE2","fullName":"cyq测试","shortName":"cyq测试","envId":"ef3f8ed4792f4ef0a5e7d92af394d29c","envName":"默认环境","tenantEnvs":null},{"id":"216687529947792866","code":"9769454E01304245AEE83CE7E99537A8","fullName":"成本总控报表测试租户","shortName":"成本总控报表测试租户","envId":"5125917072884123bf9fe3966ffa4af2","envName":"默认环境","tenantEnvs":null},{"id":"216661417159402453","code":"216661417159402453","fullName":"科技建筑集团","shortName":"科技建筑集团","envId":"b23d88da977e467cb81dd7fb57de97d0","envName":"默认环境","tenantEnvs":null},{"id":"216281557054332425","code":"216281557054332425","fullName":"BIM材料用量计算","shortName":"BIM材料用量计算","envId":"7501c77b0ccd4b4d912451e5f74c1ba7","envName":"默认环境","tenantEnvs":null},{"id":"1320970534539886592","code":"1320970534539886592","fullName":"碧桂园集团","shortName":"碧桂园集团","envId":"1320970534539886592","envName":"默认环境","tenantEnvs":null}],"loginAppDto":null},"msg":null,"succeed":true}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>安全大屏</t>
-  </si>
-  <si>
-    <t>大盘-隐患类型数据</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>劳务基础配置</t>
-  </si>
-  <si>
-    <t>绑定TV</t>
-  </si>
-  <si>
-    <t>/adnce?t={{get_timestamp()}}</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-  </si>
-  <si>
-    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-  </si>
-  <si>
-    <t>{"tvSequence": "$..tvSequence"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"success":true,"data":null,"msg":"添加成功"}</t>
-  </si>
-  <si>
-    <t>查询配置</t>
-  </si>
-  <si>
-    <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>{"code":200,"success":true,"data":{"id":"1637650408413749249","projectId":"104966","shortInfo":"博智林提醒您：一切不能保证安全、质量的施工都要停工！进入工地，请佩戴安全帽，穿着反光衣，文明作业！","qrCode":"https://ibs-test.bzlrobot.com/api/ibs-file/document/get/MjAyMS0xMC0xOCxQSE9UT18yMDIxMTAxOF8wOTMxMDExMDIuanBnLDA0ZGQxOWU5YzA3MjQ0YjE5OTIwNzZjOTUxNzY4YzQ1","manageDeparts":[]},"msg":"操作成功"}</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>databases</t>
-  </si>
-  <si>
-    <t>sheets</t>
-  </si>
-  <si>
-    <t>initialize_data</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
-  </si>
-  <si>
-    <t>/test</t>
-  </si>
-  <si>
-    <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "mysql",
- "user":"root",
- "password":"root@3306"
-}</t>
-  </si>
-  <si>
-    <t>["安全纯净大屏"]</t>
-  </si>
-  <si>
-    <t>{
-"{{account}}":"18127813600",
-     "{{passwd}}": "WD6Y0+",
-"{{projectId}}":"1066",
-"{{tenant}}":"2419"
-}</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>如何填写提取参数</t>
-  </si>
-  <si>
-    <t>断言的填写方式</t>
-  </si>
-  <si>
-    <t>内置的断言方法</t>
-  </si>
-  <si>
-    <t>sql 的填写方式及如何提取sql结果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-  </si>
-  <si>
-    <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-  </si>
-  <si>
-    <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-  </si>
-  <si>
-    <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-那么在excel中的sql params dict 中就可以写入：{"total": "$.select_sale[0].total", "total_1": "$..total"} 来提取所需要的参数了</t>
-  </si>
-  <si>
-    <t>如何使用已提取的参数：</t>
-  </si>
-  <si>
-    <t>断言也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>也可以像postman一样写前后置脚本代码段</t>
-  </si>
-  <si>
-    <t>sql 语句也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-  </si>
-  <si>
-    <t>替换方式依然是 {{}}，{{fun()}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-  </si>
-  <si>
-    <t>比如:
-SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
-            }
-    }</t>
-  </si>
-  <si>
-    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-  </si>
-  <si>
-    <t>后置脚本代码 与前置脚本的差不多</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-</t>
-  </si>
-  <si>
-    <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
-  </si>
-  <si>
-    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储变量：["co","na"]</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1" tint="0.05"/>
+      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -902,200 +539,200 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,15 +939,14 @@
     <dxf>
       <font>
         <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
         <sz val="11"/>
-        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1322,6 +958,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1330,8 +967,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1343,6 +980,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1351,8 +989,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1372,6 +1010,7 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1382,8 +1021,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1395,6 +1034,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1413,19 +1053,19 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1441,6 +1081,7 @@
         <bottom style="medium">
           <color rgb="FF0F4C81"/>
         </bottom>
+        <diagonal/>
         <vertical/>
         <horizontal style="medium">
           <color rgb="FF0F4C81"/>
@@ -1449,8 +1090,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1462,6 +1103,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1473,7 +1115,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1487,6 +1129,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFF2F2F2"/>
         </vertical>
@@ -1501,7 +1144,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1517,6 +1160,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1527,7 +1171,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1543,6 +1187,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1553,7 +1198,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill degree="180">
+        <gradientFill type="linear" degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1569,6 +1214,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1576,8 +1222,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
     </dxf>
     <dxf>
@@ -1596,6 +1242,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1620,6 +1267,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1644,6 +1292,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1675,6 +1324,7 @@
         <bottom style="medium">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFD9D9D9"/>
         </vertical>
@@ -1720,8 +1370,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1741,6 +1391,7 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1751,8 +1402,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1772,6 +1423,7 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1782,8 +1434,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1803,6 +1455,7 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1883,7 +1536,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1895,8 +1548,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF8F8F8"/>
         <sz val="11"/>
-        <color rgb="FFF8F8F8"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1916,6 +1569,7 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1926,8 +1580,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1947,6 +1601,7 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1957,11 +1612,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
-        <gradientFill degree="270">
+        <gradientFill type="linear" degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -1975,6 +1630,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -2106,16 +1762,79 @@
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7" headerRowCount="1">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2413,601 +2132,764 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.21969696969697" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.88636363636364" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.780303030303" style="3" customWidth="1"/>
-    <col min="4" max="5" width="4.21969696969697" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.88636363636364" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.780303030303" style="10" customWidth="1"/>
-    <col min="8" max="8" width="29.8863636363636" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.219696969697" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.33333333333333" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.5530303030303" style="10" customWidth="1"/>
-    <col min="12" max="13" width="14.780303030303" style="3" customWidth="1"/>
-    <col min="14" max="14" width="23.1060606060606" style="3" customWidth="1"/>
-    <col min="15" max="26" width="14.780303030303" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
+    <col width="3.22222222222222" customWidth="1" style="3" min="1" max="1"/>
+    <col width="7.88888888888889" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.7777777777778" customWidth="1" style="3" min="3" max="3"/>
+    <col width="4.22222222222222" customWidth="1" style="3" min="4" max="5"/>
+    <col width="7.88888888888889" customWidth="1" style="3" min="6" max="6"/>
+    <col width="14.7777777777778" customWidth="1" style="10" min="7" max="7"/>
+    <col width="29.8888888888889" customWidth="1" style="3" min="8" max="8"/>
+    <col width="15.2222222222222" customWidth="1" style="3" min="9" max="9"/>
+    <col width="9.33333333333333" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.5555555555556" customWidth="1" style="10" min="11" max="11"/>
+    <col width="14.7777777777778" customWidth="1" style="3" min="12" max="13"/>
+    <col width="23.1037037037037" customWidth="1" style="3" min="14" max="14"/>
+    <col width="14.7777777777778" customWidth="1" style="3" min="15" max="26"/>
+    <col width="25.7777777777778" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:26">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="54" customFormat="1" customHeight="1" s="8">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Headers</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Headers Crypto</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Query Str</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
+          <t>Request Data Type</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Setup Script</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data Crypto</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Extract Request Data</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Jsonpath</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Regex Params List</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Retrieve Value</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Sql Params Dict</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Teardown Script</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Assertion</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Error Log</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="26" customFormat="1" customHeight="1" s="3">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>清表</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>初始化查询sql</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="n"/>
+      <c r="J2" s="10" t="n"/>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="T2" s="12" t="inlineStr"/>
+      <c r="U2" s="12" t="inlineStr"/>
+      <c r="V2" s="12" t="inlineStr"/>
+      <c r="W2" s="12" t="inlineStr"/>
+      <c r="X2" s="12" t="inlineStr"/>
+      <c r="Y2" s="12" t="inlineStr"/>
+      <c r="Z2" s="12" t="inlineStr"/>
+      <c r="AA2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="26" customFormat="1" customHeight="1" s="9">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>非BIP用户登录</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>/login</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/json"}</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="K3" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>def setup(action):
+    action.vars = {"start": "start"}
+    print(action.vars)
+    action.set_variable({"end": "end"})
+    print(action.get_variable())
+setup(action)</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="inlineStr"/>
+      <c r="U3" s="3" t="inlineStr"/>
+      <c r="V3" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W3" s="12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="X3" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Y3" s="12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4" ht="26" customHeight="1" s="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>安全大屏</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>大盘-隐患类型数据</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H4" s="10" t="n"/>
+      <c r="J4" s="10" t="n"/>
+      <c r="L4" s="10" t="n"/>
+      <c r="M4" s="10" t="n"/>
+      <c r="N4" s="10" t="n"/>
+      <c r="O4" s="10" t="n"/>
+      <c r="P4" s="10" t="n"/>
+      <c r="Q4" s="10" t="n"/>
+      <c r="R4" s="10" t="n"/>
+      <c r="S4" s="10" t="n"/>
+      <c r="T4" s="10" t="inlineStr"/>
+      <c r="U4" s="10" t="inlineStr"/>
+      <c r="V4" s="10" t="inlineStr"/>
+      <c r="W4" s="10" t="inlineStr"/>
+      <c r="X4" s="10" t="inlineStr"/>
+      <c r="Y4" s="10" t="inlineStr"/>
+      <c r="Z4" s="12" t="inlineStr"/>
+      <c r="AA4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="115.5" customHeight="1" s="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>劳务基础配置</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>绑定TV</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>/adnce?t={{get_timestamp()}}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>def setup(action):
+    action.vars = {"start": "start"}
+    print(action.vars)
+    action.set_variable({"end": "end"})
+    print(action.get_variable())
+setup(action)</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>{"tvSequence": "$..tvSequence"}</t>
+        </is>
+      </c>
+      <c r="T5" s="12" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="0" t="inlineStr"/>
+      <c r="W5" s="12" t="inlineStr"/>
+      <c r="X5" s="12" t="inlineStr"/>
+      <c r="Y5" s="12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z5" s="12" t="inlineStr"/>
+      <c r="AA5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="82.5" customHeight="1" s="1">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>劳务基础配置</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>查询配置</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+        </is>
+      </c>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>def setup(action):
+    action.vars = {"start": "start"}
+    print(action.vars)
+    action.set_variable({"end": "end"})
+    print(action.get_variable())
+setup(action)</t>
+        </is>
+      </c>
+      <c r="T6" s="12" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="0" t="inlineStr"/>
+      <c r="W6" s="12" t="inlineStr"/>
+      <c r="X6" s="12" t="inlineStr"/>
+      <c r="Y6" s="12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z6" s="12" t="inlineStr"/>
+      <c r="AA6" s="5" t="n"/>
     </row>
-    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:27">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="5"/>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:26">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="26" customHeight="1" spans="1:27">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" ht="115.5" customHeight="1" spans="1:27">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:27">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" spans="6:27">
-      <c r="F7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="10">
+    <row r="7" ht="16.5" customHeight="1" s="1">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="3"/>
-      <c r="T7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="5"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="T7" s="12" t="inlineStr"/>
+      <c r="U7" s="12" t="inlineStr"/>
+      <c r="V7" s="12" t="inlineStr"/>
+      <c r="W7" s="12" t="inlineStr"/>
+      <c r="X7" s="12" t="inlineStr"/>
+      <c r="Y7" s="12" t="inlineStr"/>
+      <c r="Z7" s="12" t="inlineStr"/>
+      <c r="AA7" s="5" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:Z1">
-    <cfRule type="containsBlanks" dxfId="26" priority="6">
+    <cfRule type="containsBlanks" priority="6" dxfId="26">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" priority="7" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" priority="8" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X7">
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y1048576">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" priority="30" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Y7">
-    <cfRule type="containsBlanks" dxfId="26" priority="14">
+    <cfRule type="containsBlanks" priority="14" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" priority="15" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" priority="16" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:Z1048576 Z2:Z7">
-    <cfRule type="containsBlanks" dxfId="26" priority="26">
+    <cfRule type="containsBlanks" priority="26" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" priority="27" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" priority="28" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" priority="29" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E1048576">
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
+    <dataValidation sqref="N8:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"md5,sha1,sha256"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0"/>
+    <dataValidation sqref="F2 F3 F4 F5 F6 F7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2 L7 M7 I3:I7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
-      <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
-      <formula1>"md5,sha1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
+    <dataValidation sqref="J2 K2 J3:J7 K3:K6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"json,data,params"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
-      <formula1>"md5,sha1,sha256"</formula1>
+    <dataValidation sqref="I8:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"md5,sha1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
+    <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
+    <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
+    <col width="34.5555555555556" customWidth="1" style="6" min="3" max="3"/>
+    <col width="24.5555555555556" customWidth="1" style="6" min="4" max="4"/>
+    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
+    <col width="20.1111111111111" customWidth="1" style="6" min="6" max="6"/>
+    <col width="52.8888888888889" customWidth="1" style="6" min="7" max="7"/>
+    <col width="11.1111111111111" customWidth="1" style="6" min="8" max="8"/>
+    <col width="7.36296296296296" customWidth="1" style="6" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
+    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>host</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>databases</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sheets</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>initialize_data</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
+    <row r="2" ht="215.25" customHeight="1" s="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/test</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "mysql",
+ "user":"root",
+ "password":"root@3306"
+}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>["安全纯净大屏"]</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{
+"{{account}}":"18127813600",
+     "{{passwd}}": "WD6Y0+",
+"{{projectId}}":"1066",
+"{{tenant}}":"2419"
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" spans="1:8">
-      <c r="A3" s="3">
+    <row r="3" ht="47" customHeight="1" s="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" dxfId="32" priority="133">
+    <cfRule type="containsBlanks" priority="133" dxfId="32">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -3016,21 +2898,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01d7baaf-7baa-4006-8134-76660f20706a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="135">
+    </cfRule>
+    <cfRule type="expression" priority="135" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="136">
+    <cfRule type="expression" priority="136" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" dxfId="32" priority="73">
+    <cfRule type="containsBlanks" priority="73" dxfId="32">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -3039,21 +2916,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6c7b6284-0899-4929-a778-41b4e4076467}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="75">
+    </cfRule>
+    <cfRule type="expression" priority="75" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="76">
+    <cfRule type="expression" priority="76" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="32" priority="85">
+    <cfRule type="containsBlanks" priority="85" dxfId="32">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -3062,21 +2934,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d1a46fce-ae6f-474d-9dd2-3c3ed22b57fa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="87">
+    </cfRule>
+    <cfRule type="expression" priority="87" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="88">
+    <cfRule type="expression" priority="88" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" dxfId="32" priority="69">
+    <cfRule type="containsBlanks" priority="69" dxfId="32">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -3085,24 +2952,19 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6bcc4397-58cf-486d-b712-93820a493ca7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="71">
+    </cfRule>
+    <cfRule type="expression" priority="71" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="72">
+    <cfRule type="expression" priority="72" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="34" priority="60">
+    <cfRule type="expression" priority="60" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="59">
+    <cfRule type="expression" priority="59" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3111,21 +2973,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ef58e1c-bd95-4e5c-99d9-a1cbbe81ada6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="57">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="57" dxfId="32">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="34" priority="68">
+    <cfRule type="expression" priority="68" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="67">
+    <cfRule type="expression" priority="67" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3134,21 +2991,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ab5eee7f-97f0-4036-b431-0ee3163f5c5a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="65">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="65" dxfId="32">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="34" priority="64">
+    <cfRule type="expression" priority="64" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="63">
+    <cfRule type="expression" priority="63" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3157,18 +3009,13 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c34f688e-d0be-4485-9bc0-f2e84d806603}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="61">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="61" dxfId="32">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" dxfId="32" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="32">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3177,16 +3024,11 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e8841c8-7109-4945-9782-020e9694013d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" priority="4" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3197,15 +3039,10 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6afddbab-4466-4da0-a9e0-cebb30f2e569}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" dxfId="32" priority="142">
+    <cfRule type="containsBlanks" priority="142" dxfId="32">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3214,21 +3051,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{25cd27db-1222-47fb-806c-c4aaee7a593b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="144">
+    </cfRule>
+    <cfRule type="expression" priority="144" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="145">
+    <cfRule type="expression" priority="145" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" dxfId="32" priority="77">
+    <cfRule type="containsBlanks" priority="77" dxfId="32">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3237,281 +3069,269 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19aa6ce6-d4bb-4895-b723-3fb36df07a34}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="79">
+    </cfRule>
+    <cfRule type="expression" priority="79" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="80">
+    <cfRule type="expression" priority="80" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="https://www.baidu.com" display="https://www.baidu.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{01d7baaf-7baa-4006-8134-76660f20706a}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6c7b6284-0899-4929-a778-41b4e4076467}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d1a46fce-ae6f-474d-9dd2-3c3ed22b57fa}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6bcc4397-58cf-486d-b712-93820a493ca7}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ef58e1c-bd95-4e5c-99d9-a1cbbe81ada6}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ab5eee7f-97f0-4036-b431-0ee3163f5c5a}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E3:F3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c34f688e-d0be-4485-9bc0-f2e84d806603}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e8841c8-7109-4945-9782-020e9694013d}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6afddbab-4466-4da0-a9e0-cebb30f2e569}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:A3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{25cd27db-1222-47fb-806c-c4aaee7a593b}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{19aa6ce6-d4bb-4895-b723-3fb36df07a34}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:D2 C3</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
+    <col width="58" customWidth="1" style="1" min="1" max="1"/>
+    <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>
+    <col width="47.6148148148148" customWidth="1" style="1" min="3" max="3"/>
+    <col width="109.955555555556" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.8888888888889" customWidth="1" style="1" min="7" max="7"/>
+    <col width="40.7777777777778" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>74</v>
+    <row r="1" ht="18" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>如何填写提取参数</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>断言的填写方式</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>内置的断言方法</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>sql 的填写方式及如何提取sql结果</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+    <row r="2" ht="346.5" customHeight="1" s="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
+那么在excel中的sql params dict 中就可以写入：{"total": "$.select_sale[0].total", "total_1": "$..total"} 来提取所需要的参数了</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>82</v>
+    <row r="3" ht="18" customHeight="1" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>如何使用已提取的参数：</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>断言也可以使用变量替换</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>也可以像postman一样写前后置脚本代码段</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>sql 语句也可以使用变量替换</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="202.8" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>86</v>
+    <row r="4" ht="231" customHeight="1" s="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>替换方式依然是 {{}}，{{fun()}}</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>比如:
+SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
+            }
+    }</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>89</v>
+    <row r="5" ht="66" customHeight="1" s="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>后置脚本代码 与前置脚本的差不多</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
+</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" ht="82.5" customHeight="1" s="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
     </row>
-    <row r="7" ht="187.2" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" ht="198" customHeight="1" s="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储变量：["co","na"]</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" priority="7" dxfId="28">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" priority="6" dxfId="27">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="5">
+    <cfRule type="containsBlanks" priority="5" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1,200 +1,561 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
+    <sheet name="init" sheetId="2" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Headers Crypto</t>
+  </si>
+  <si>
+    <t>Query Str</t>
+  </si>
+  <si>
+    <t>Request Data Type</t>
+  </si>
+  <si>
+    <t>Request Data</t>
+  </si>
+  <si>
+    <t>Setup Script</t>
+  </si>
+  <si>
+    <t>Request Data Crypto</t>
+  </si>
+  <si>
+    <t>Extract Request Data</t>
+  </si>
+  <si>
+    <t>Jsonpath</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Regex Params List</t>
+  </si>
+  <si>
+    <t>Retrieve Value</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Sql Params Dict</t>
+  </si>
+  <si>
+    <t>Teardown Script</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Error Log</t>
+  </si>
+  <si>
+    <t>清表</t>
+  </si>
+  <si>
+    <t>初始化查询sql</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>非BIP用户登录</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def setup(action):
+    print("action.get_vars(): ", action.get_vars())
+    action.update_vars("999", "99999")
+    print("action.get_variable: ", action.get_variable())
+setup(action)
+</t>
+  </si>
+  <si>
+    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>安全大屏</t>
+  </si>
+  <si>
+    <t>大盘-隐患类型数据</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>劳务基础配置</t>
+  </si>
+  <si>
+    <t>绑定TV</t>
+  </si>
+  <si>
+    <t>/adnce?t={{get_timestamp()}}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+  </si>
+  <si>
+    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+  </si>
+  <si>
+    <t>{"tvSequence": "$..tvSequence"}</t>
+  </si>
+  <si>
+    <t>查询配置</t>
+  </si>
+  <si>
+    <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>databases</t>
+  </si>
+  <si>
+    <t>sheets</t>
+  </si>
+  <si>
+    <t>initialize_data</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
+  </si>
+  <si>
+    <t>/test</t>
+  </si>
+  <si>
+    <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "mysql",
+ "user":"root",
+ "password":"root@3306"
+}</t>
+  </si>
+  <si>
+    <t>["安全纯净大屏"]</t>
+  </si>
+  <si>
+    <t>{
+"{{account}}":"18127813600",
+     "{{passwd}}": "WD6Y0+",
+"{{projectId}}":"1066",
+"{{tenant}}":"2419"
+}</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>如何填写提取参数</t>
+  </si>
+  <si>
+    <t>断言的填写方式</t>
+  </si>
+  <si>
+    <t>内置的断言方法</t>
+  </si>
+  <si>
+    <t>sql 的填写方式及如何提取sql结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+  </si>
+  <si>
+    <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+  </si>
+  <si>
+    <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+  </si>
+  <si>
+    <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+  </si>
+  <si>
+    <t>如何使用已提取的参数：</t>
+  </si>
+  <si>
+    <t>断言也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>也可以像postman一样写前后置脚本代码段</t>
+  </si>
+  <si>
+    <t>sql 语句也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+  </si>
+  <si>
+    <t>替换方式依然是 {{}}，{{fun()}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
+  </si>
+  <si>
+    <t>比如:
+SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
+            }
+    }</t>
+  </si>
+  <si>
+    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+  </si>
+  <si>
+    <t>后置脚本代码 与前置脚本的差不多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
+</t>
+  </si>
+  <si>
+    <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+  </si>
+  <si>
+    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储变量：["co","na"]</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1" tint="0.05"/>
-      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -539,200 +900,200 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="32" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,14 +1300,15 @@
     <dxf>
       <font>
         <name val="宋体"/>
+        <scheme val="none"/>
+        <sz val="11"/>
         <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -958,7 +1320,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -967,8 +1328,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -980,7 +1341,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -989,8 +1349,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1010,7 +1370,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1021,8 +1380,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1034,7 +1393,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1053,19 +1411,19 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1081,7 +1439,6 @@
         <bottom style="medium">
           <color rgb="FF0F4C81"/>
         </bottom>
-        <diagonal/>
         <vertical/>
         <horizontal style="medium">
           <color rgb="FF0F4C81"/>
@@ -1090,8 +1447,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1103,7 +1460,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1115,7 +1471,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1129,7 +1485,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFF2F2F2"/>
         </vertical>
@@ -1144,7 +1499,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1160,7 +1515,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1171,7 +1525,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1187,7 +1541,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1198,7 +1551,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="180">
+        <gradientFill degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1214,7 +1567,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1222,8 +1574,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
     </dxf>
     <dxf>
@@ -1242,7 +1594,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1267,7 +1618,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1292,7 +1642,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1324,7 +1673,6 @@
         <bottom style="medium">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFD9D9D9"/>
         </vertical>
@@ -1370,8 +1718,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1391,7 +1739,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1402,8 +1749,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1423,7 +1770,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1434,8 +1780,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1455,7 +1801,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1536,7 +1881,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1548,8 +1893,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFF8F8F8"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1569,7 +1914,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1580,8 +1924,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1601,7 +1945,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1612,11 +1955,11 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="270">
+        <gradientFill degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -1630,7 +1973,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1762,79 +2104,16 @@
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2132,764 +2411,633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col width="3.22222222222222" customWidth="1" style="3" min="1" max="1"/>
-    <col width="7.88888888888889" customWidth="1" style="3" min="2" max="2"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="3" max="3"/>
-    <col width="4.22222222222222" customWidth="1" style="3" min="4" max="5"/>
-    <col width="7.88888888888889" customWidth="1" style="3" min="6" max="6"/>
-    <col width="14.7777777777778" customWidth="1" style="10" min="7" max="7"/>
-    <col width="29.8888888888889" customWidth="1" style="3" min="8" max="8"/>
-    <col width="15.2222222222222" customWidth="1" style="3" min="9" max="9"/>
-    <col width="9.33333333333333" customWidth="1" style="3" min="10" max="10"/>
-    <col width="18.5555555555556" customWidth="1" style="10" min="11" max="11"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="12" max="13"/>
-    <col width="23.1037037037037" customWidth="1" style="3" min="14" max="14"/>
-    <col width="14.7777777777778" customWidth="1" style="3" min="15" max="26"/>
-    <col width="25.7777777777778" customWidth="1" style="3" min="27" max="16384"/>
+    <col min="1" max="1" width="3.22222222222222" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.88888888888889" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="4" max="5" width="4.22222222222222" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.88888888888889" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.7777777777778" style="10" customWidth="1"/>
+    <col min="8" max="8" width="29.8888888888889" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.2222222222222" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.33333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5555555555556" style="10" customWidth="1"/>
+    <col min="12" max="13" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.1037037037037" style="3" customWidth="1"/>
+    <col min="15" max="26" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customFormat="1" customHeight="1" s="8">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Headers</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Headers Crypto</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Query Str</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>Request Data Type</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Setup Script</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data Crypto</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Extract Request Data</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Jsonpath</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Regex</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Regex Params List</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>Retrieve Value</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>Sql Params Dict</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>Teardown Script</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>Assertion</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>Error Log</t>
-        </is>
+    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" ht="26" customFormat="1" customHeight="1" s="3">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:27">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>清表</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>初始化查询sql</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="n"/>
-      <c r="J2" s="10" t="n"/>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="T2" s="12" t="inlineStr"/>
-      <c r="U2" s="12" t="inlineStr"/>
-      <c r="V2" s="12" t="inlineStr"/>
-      <c r="W2" s="12" t="inlineStr"/>
-      <c r="X2" s="12" t="inlineStr"/>
-      <c r="Y2" s="12" t="inlineStr"/>
-      <c r="Z2" s="12" t="inlineStr"/>
-      <c r="AA2" s="5" t="n"/>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="5"/>
     </row>
-    <row r="3" ht="26" customFormat="1" customHeight="1" s="9">
-      <c r="A3" s="3" t="n">
+    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:26">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>登录</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>非BIP用户登录</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>/login</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/json"}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>def setup(action):
-    action.vars = {"start": "start"}
-    print(action.vars)
-    action.set_variable({"end": "end"})
-    print(action.get_variable())
-setup(action)</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="inlineStr"/>
-      <c r="U3" s="3" t="inlineStr"/>
-      <c r="V3" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W3" s="12" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="X3" s="12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="Y3" s="12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Z3" s="12" t="inlineStr"/>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" ht="26" customHeight="1" s="1">
-      <c r="A4" s="3" t="n">
+    <row r="4" ht="26" customHeight="1" spans="1:27">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>安全大屏</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>大盘-隐患类型数据</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n"/>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
-      <c r="T4" s="10" t="inlineStr"/>
-      <c r="U4" s="10" t="inlineStr"/>
-      <c r="V4" s="10" t="inlineStr"/>
-      <c r="W4" s="10" t="inlineStr"/>
-      <c r="X4" s="10" t="inlineStr"/>
-      <c r="Y4" s="10" t="inlineStr"/>
-      <c r="Z4" s="12" t="inlineStr"/>
-      <c r="AA4" s="5" t="n"/>
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="5"/>
     </row>
-    <row r="5" ht="115.5" customHeight="1" s="1">
-      <c r="A5" s="3" t="n">
+    <row r="5" ht="115.5" customHeight="1" spans="1:27">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>绑定TV</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>/adnce?t={{get_timestamp()}}</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>def setup(action):
-    action.vars = {"start": "start"}
-    print(action.vars)
-    action.set_variable({"end": "end"})
-    print(action.get_variable())
-setup(action)</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>{"tvSequence": "$..tvSequence"}</t>
-        </is>
-      </c>
-      <c r="T5" s="12" t="inlineStr"/>
-      <c r="U5" s="3" t="inlineStr"/>
-      <c r="V5" s="0" t="inlineStr"/>
-      <c r="W5" s="12" t="inlineStr"/>
-      <c r="X5" s="12" t="inlineStr"/>
-      <c r="Y5" s="12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Z5" s="12" t="inlineStr"/>
-      <c r="AA5" s="5" t="n"/>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="5"/>
     </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" s="3" t="n">
+    <row r="6" ht="82.5" customHeight="1" spans="1:27">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>查询配置</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-        </is>
-      </c>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>def setup(action):
-    action.vars = {"start": "start"}
-    print(action.vars)
-    action.set_variable({"end": "end"})
-    print(action.get_variable())
-setup(action)</t>
-        </is>
-      </c>
-      <c r="T6" s="12" t="inlineStr"/>
-      <c r="U6" s="3" t="inlineStr"/>
-      <c r="V6" s="0" t="inlineStr"/>
-      <c r="W6" s="12" t="inlineStr"/>
-      <c r="X6" s="12" t="inlineStr"/>
-      <c r="Y6" s="12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Z6" s="12" t="inlineStr"/>
-      <c r="AA6" s="5" t="n"/>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="5"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1" s="1">
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>TIME</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="n">
+    <row r="7" ht="16.5" customHeight="1" spans="6:27">
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="T7" s="12" t="inlineStr"/>
-      <c r="U7" s="12" t="inlineStr"/>
-      <c r="V7" s="12" t="inlineStr"/>
-      <c r="W7" s="12" t="inlineStr"/>
-      <c r="X7" s="12" t="inlineStr"/>
-      <c r="Y7" s="12" t="inlineStr"/>
-      <c r="Z7" s="12" t="inlineStr"/>
-      <c r="AA7" s="5" t="n"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="3"/>
+      <c r="T7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" priority="1" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:Z1">
-    <cfRule type="containsBlanks" priority="6" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X7">
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y1048576">
-    <cfRule type="cellIs" priority="30" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Y7">
-    <cfRule type="containsBlanks" priority="14" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="14">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="15" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="16" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:Z1048576 Z2:Z7">
-    <cfRule type="containsBlanks" priority="26" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="29" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E1048576">
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation sqref="N8:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
       <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0"/>
-    <dataValidation sqref="F2 F3 F4 F5 F6 F7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation sqref="I2 L7 M7 I3:I7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
       <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation sqref="J2 K2 J3:J7 K3:K6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
       <formula1>"json,data,params"</formula1>
     </dataValidation>
-    <dataValidation sqref="I8:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
-    <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
-    <col width="34.5555555555556" customWidth="1" style="6" min="3" max="3"/>
-    <col width="24.5555555555556" customWidth="1" style="6" min="4" max="4"/>
-    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
-    <col width="20.1111111111111" customWidth="1" style="6" min="6" max="6"/>
-    <col width="52.8888888888889" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.1111111111111" customWidth="1" style="6" min="8" max="8"/>
-    <col width="7.36296296296296" customWidth="1" style="6" min="9" max="16384"/>
+    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>host</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>databases</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>sheets</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>initialize_data</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>run</t>
-        </is>
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" s="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="215.25" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>https://www.baidu.com</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>/test</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "mysql",
- "user":"root",
- "password":"root@3306"
-}</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>["安全纯净大屏"]</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-"{{account}}":"18127813600",
-     "{{passwd}}": "WD6Y0+",
-"{{projectId}}":"1066",
-"{{tenant}}":"2419"
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" s="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="47" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" priority="133" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="133">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -2898,16 +3046,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="135" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{35964d44-02fd-4592-b65e-588a4a96c51d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="135">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="136" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="136">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" priority="73" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="73">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -2916,16 +3069,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="75" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7bc9b213-9295-49c4-b656-cbf89df4d264}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="75">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="76" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="76">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" priority="85" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="85">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -2934,16 +3092,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="87" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ca0a91b2-b62d-47b4-90e6-ccfd44f84cb4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="87">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="88" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="88">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" priority="69" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="69">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -2952,19 +3115,24 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="71" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b22807d5-e2c3-4ff4-8d56-63718618f02a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="71">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="72" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="72">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="60" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="60">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="59" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="59">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -2973,16 +3141,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="57" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f904b503-9b74-4671-be91-b4a1dddb58b9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="57">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" priority="68" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="68">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="67" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="67">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -2991,16 +3164,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="65" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3e6af8a8-127c-413d-a45c-804a90a248b8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="65">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" priority="64" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="64">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="63" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="63">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3009,13 +3187,18 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="61" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{597d9163-b6ec-4c2e-9faa-f912524e53b0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="61">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" priority="1" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3024,11 +3207,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="3" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a642903d-cbe9-414d-981b-b22c9347897a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3039,10 +3227,15 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{35584c02-b9fe-4983-b044-a81736f525d4}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" priority="142" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="142">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3051,16 +3244,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="144" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f682f003-d696-4f63-960d-b240ccbcc0c3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="144">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="145" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="145">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" priority="77" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="77">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3069,269 +3267,281 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="79" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a74580df-39d5-4ca7-ad7c-3b0095a2649b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="80" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="80">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="https://www.baidu.com" display="https://www.baidu.com" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{35964d44-02fd-4592-b65e-588a4a96c51d}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7bc9b213-9295-49c4-b656-cbf89df4d264}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ca0a91b2-b62d-47b4-90e6-ccfd44f84cb4}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b22807d5-e2c3-4ff4-8d56-63718618f02a}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f904b503-9b74-4671-be91-b4a1dddb58b9}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3e6af8a8-127c-413d-a45c-804a90a248b8}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:F3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{597d9163-b6ec-4c2e-9faa-f912524e53b0}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a642903d-cbe9-414d-981b-b22c9347897a}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{35584c02-b9fe-4983-b044-a81736f525d4}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f682f003-d696-4f63-960d-b240ccbcc0c3}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a74580df-39d5-4ca7-ad7c-3b0095a2649b}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:D2 C3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col width="58" customWidth="1" style="1" min="1" max="1"/>
-    <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>
-    <col width="47.6148148148148" customWidth="1" style="1" min="3" max="3"/>
-    <col width="109.955555555556" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.8888888888889" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.7777777777778" customWidth="1" style="1" min="8" max="8"/>
+    <col min="1" max="1" width="58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>如何填写提取参数</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>断言的填写方式</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>内置的断言方法</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>sql 的填写方式及如何提取sql结果</t>
-        </is>
+    <row r="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" s="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-那么在excel中的sql params dict 中就可以写入：{"total": "$.select_sale[0].total", "total_1": "$..total"} 来提取所需要的参数了</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="6" t="n"/>
+    <row r="2" ht="346.5" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="18" customHeight="1" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>如何使用已提取的参数：</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>断言也可以使用变量替换</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>也可以像postman一样写前后置脚本代码段</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>sql 语句也可以使用变量替换</t>
-        </is>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" ht="231" customHeight="1" s="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>替换方式依然是 {{}}，{{fun()}}</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>比如:
-SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
-            }
-    }</t>
-        </is>
+    <row r="4" ht="231" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" s="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>后置脚本代码 与前置脚本的差不多</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-</t>
-        </is>
+    <row r="5" ht="66" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
+    <row r="6" ht="82.5" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
-    <row r="7" ht="198" customHeight="1" s="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储变量：["co","na"]</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+    <row r="7" ht="198" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="5" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="1" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
@@ -2415,25 +2415,27 @@
   <sheetPr/>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.88888888888889" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="4" max="5" width="4.22222222222222" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.88888888888889" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.6814814814815" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.2962962962963" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.037037037037" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.2296296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.2" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.5925925925926" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.7777777777778" style="10" customWidth="1"/>
-    <col min="8" max="8" width="29.8888888888889" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7703703703704" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.2222222222222" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.33333333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.3333333333333" style="3" customWidth="1"/>
     <col min="11" max="11" width="18.5555555555556" style="10" customWidth="1"/>
     <col min="12" max="13" width="14.7777777777778" style="3" customWidth="1"/>
     <col min="14" max="14" width="23.1037037037037" style="3" customWidth="1"/>
-    <col min="15" max="26" width="14.7777777777778" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20.3851851851852" style="3" customWidth="1"/>
+    <col min="16" max="26" width="14.7777777777778" style="3" customWidth="1"/>
     <col min="27" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3048,7 +3050,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35964d44-02fd-4592-b65e-588a4a96c51d}</x14:id>
+          <x14:id>{a588c52c-6e0f-40a3-a3f4-e992cbb1ecae}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3071,7 +3073,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7bc9b213-9295-49c4-b656-cbf89df4d264}</x14:id>
+          <x14:id>{9fac9ad6-1dce-4231-baa5-38250d2d8387}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3094,7 +3096,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ca0a91b2-b62d-47b4-90e6-ccfd44f84cb4}</x14:id>
+          <x14:id>{2fa59621-39a0-497d-829f-89c1bd6f89de}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3117,7 +3119,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b22807d5-e2c3-4ff4-8d56-63718618f02a}</x14:id>
+          <x14:id>{c9431d27-3bdb-4ab2-a6bb-c86623a4c59b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3143,7 +3145,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f904b503-9b74-4671-be91-b4a1dddb58b9}</x14:id>
+          <x14:id>{87d4d398-c0b0-436d-bbbb-82b5ff736490}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3166,7 +3168,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e6af8a8-127c-413d-a45c-804a90a248b8}</x14:id>
+          <x14:id>{3b2ead9f-e3e4-49aa-82c4-a4c390f96408}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3189,7 +3191,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{597d9163-b6ec-4c2e-9faa-f912524e53b0}</x14:id>
+          <x14:id>{a628d220-497b-4108-a852-3a1f79623021}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3209,7 +3211,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a642903d-cbe9-414d-981b-b22c9347897a}</x14:id>
+          <x14:id>{e505ea7d-f1d4-4bc0-b022-4a27f6f0308e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3229,7 +3231,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35584c02-b9fe-4983-b044-a81736f525d4}</x14:id>
+          <x14:id>{8b156908-2408-4bf5-b8c5-4c639f075dce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3246,7 +3248,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f682f003-d696-4f63-960d-b240ccbcc0c3}</x14:id>
+          <x14:id>{d5dec15c-0441-4bfe-8d87-d120634c84a9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3269,7 +3271,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a74580df-39d5-4ca7-ad7c-3b0095a2649b}</x14:id>
+          <x14:id>{0db2cf5e-5934-48ec-967a-1e54028719c3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3290,7 +3292,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{35964d44-02fd-4592-b65e-588a4a96c51d}">
+          <x14:cfRule type="dataBar" id="{a588c52c-6e0f-40a3-a3f4-e992cbb1ecae}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3300,7 +3302,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7bc9b213-9295-49c4-b656-cbf89df4d264}">
+          <x14:cfRule type="dataBar" id="{9fac9ad6-1dce-4231-baa5-38250d2d8387}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3310,7 +3312,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ca0a91b2-b62d-47b4-90e6-ccfd44f84cb4}">
+          <x14:cfRule type="dataBar" id="{2fa59621-39a0-497d-829f-89c1bd6f89de}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3320,7 +3322,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b22807d5-e2c3-4ff4-8d56-63718618f02a}">
+          <x14:cfRule type="dataBar" id="{c9431d27-3bdb-4ab2-a6bb-c86623a4c59b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3330,7 +3332,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f904b503-9b74-4671-be91-b4a1dddb58b9}">
+          <x14:cfRule type="dataBar" id="{87d4d398-c0b0-436d-bbbb-82b5ff736490}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3340,7 +3342,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3e6af8a8-127c-413d-a45c-804a90a248b8}">
+          <x14:cfRule type="dataBar" id="{3b2ead9f-e3e4-49aa-82c4-a4c390f96408}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3350,7 +3352,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{597d9163-b6ec-4c2e-9faa-f912524e53b0}">
+          <x14:cfRule type="dataBar" id="{a628d220-497b-4108-a852-3a1f79623021}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3360,7 +3362,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a642903d-cbe9-414d-981b-b22c9347897a}">
+          <x14:cfRule type="dataBar" id="{e505ea7d-f1d4-4bc0-b022-4a27f6f0308e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3370,7 +3372,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{35584c02-b9fe-4983-b044-a81736f525d4}">
+          <x14:cfRule type="dataBar" id="{8b156908-2408-4bf5-b8c5-4c639f075dce}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3380,7 +3382,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f682f003-d696-4f63-960d-b240ccbcc0c3}">
+          <x14:cfRule type="dataBar" id="{d5dec15c-0441-4bfe-8d87-d120634c84a9}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3390,7 +3392,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a74580df-39d5-4ca7-ad7c-3b0095a2649b}">
+          <x14:cfRule type="dataBar" id="{0db2cf5e-5934-48ec-967a-1e54028719c3}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3410,8 +3412,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="30048" windowHeight="14628"/>
   </bookViews>
   <sheets>
     <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
@@ -2415,31 +2415,42 @@
   <sheetPr/>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="25" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="11.6814814814815" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.2962962962963" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.037037037037" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.2296296296296" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.2" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.5925925925926" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.7777777777778" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.7703703703704" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.2222222222222" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.3333333333333" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.5555555555556" style="10" customWidth="1"/>
-    <col min="12" max="13" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="14" max="14" width="23.1037037037037" style="3" customWidth="1"/>
-    <col min="15" max="15" width="20.3851851851852" style="3" customWidth="1"/>
-    <col min="16" max="26" width="14.7777777777778" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.45454545454545" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.4545454545455" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8181818181818" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.27272727272727" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.27272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.90909090909091" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.9848484848485" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.1818181818182" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.7272727272727" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.18181818181818" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.7272727272727" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.6363636363636" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.5454545454545" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.5454545454545" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.8181818181818" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.2727272727273" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.36363636363636" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.7272727272727" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14" style="3" customWidth="1"/>
+    <col min="20" max="20" width="4.18181818181818" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.8181818181818" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.81818181818182" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8.90909090909091" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.45454545454546" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.27272727272727" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.90909090909091" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="54" customHeight="1" spans="1:26">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="26" customHeight="1" spans="1:27">
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2563,7 +2574,7 @@
       </c>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="26" customHeight="1" spans="1:26">
+    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:26">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2629,7 +2640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="26" customHeight="1" spans="1:27">
+    <row r="4" customHeight="1" spans="1:27">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2678,7 +2689,7 @@
       </c>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" ht="115.5" customHeight="1" spans="1:27">
+    <row r="5" customHeight="1" spans="1:27">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2739,7 +2750,7 @@
       </c>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:27">
+    <row r="6" customHeight="1" spans="1:27">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2794,7 +2805,7 @@
       </c>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1" spans="6:27">
+    <row r="7" customHeight="1" spans="6:27">
       <c r="F7" s="3" t="s">
         <v>53</v>
       </c>
@@ -2924,18 +2935,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
-      <formula1>"md5,sha1,sha256"</formula1>
-    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
-      <formula1>"MD5,sha1,sha256"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
+      <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
       <formula1>"json,data,params"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
+      <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
       <formula1>"md5,sha1"</formula1>
@@ -2955,20 +2966,20 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
     <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
@@ -3050,7 +3061,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a588c52c-6e0f-40a3-a3f4-e992cbb1ecae}</x14:id>
+          <x14:id>{64e8119a-e9bd-4e27-81c3-42906c9d03ad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3073,7 +3084,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9fac9ad6-1dce-4231-baa5-38250d2d8387}</x14:id>
+          <x14:id>{52d481c4-3cc7-4479-b383-918e2dc27d71}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3096,7 +3107,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2fa59621-39a0-497d-829f-89c1bd6f89de}</x14:id>
+          <x14:id>{854e16de-5d95-45a7-a0bd-34f182c92a8b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3119,7 +3130,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c9431d27-3bdb-4ab2-a6bb-c86623a4c59b}</x14:id>
+          <x14:id>{ce8939c2-36b6-4cdd-bc33-1ca6af724312}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3145,7 +3156,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87d4d398-c0b0-436d-bbbb-82b5ff736490}</x14:id>
+          <x14:id>{ef73df29-ea19-43b9-ac13-eb5c13e4c012}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3168,7 +3179,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3b2ead9f-e3e4-49aa-82c4-a4c390f96408}</x14:id>
+          <x14:id>{acb97438-5d22-4526-a6c6-ff37f7378157}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3191,7 +3202,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a628d220-497b-4108-a852-3a1f79623021}</x14:id>
+          <x14:id>{e785807f-6b92-4b1c-878e-9e3d6bc42be6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3211,7 +3222,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e505ea7d-f1d4-4bc0-b022-4a27f6f0308e}</x14:id>
+          <x14:id>{c9bd0831-c098-4ae6-8417-7faa716d46a9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3231,7 +3242,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8b156908-2408-4bf5-b8c5-4c639f075dce}</x14:id>
+          <x14:id>{6b93cdee-8b5a-42e9-83cd-7a7a0a404ba1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3248,7 +3259,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d5dec15c-0441-4bfe-8d87-d120634c84a9}</x14:id>
+          <x14:id>{37725cf8-43b2-4c58-9de6-e517da6b56aa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3271,7 +3282,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0db2cf5e-5934-48ec-967a-1e54028719c3}</x14:id>
+          <x14:id>{4032e737-a4bf-4f34-819b-8a6813cbe82c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3292,7 +3303,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a588c52c-6e0f-40a3-a3f4-e992cbb1ecae}">
+          <x14:cfRule type="dataBar" id="{64e8119a-e9bd-4e27-81c3-42906c9d03ad}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3302,7 +3313,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9fac9ad6-1dce-4231-baa5-38250d2d8387}">
+          <x14:cfRule type="dataBar" id="{52d481c4-3cc7-4479-b383-918e2dc27d71}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3312,7 +3323,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2fa59621-39a0-497d-829f-89c1bd6f89de}">
+          <x14:cfRule type="dataBar" id="{854e16de-5d95-45a7-a0bd-34f182c92a8b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3322,7 +3333,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c9431d27-3bdb-4ab2-a6bb-c86623a4c59b}">
+          <x14:cfRule type="dataBar" id="{ce8939c2-36b6-4cdd-bc33-1ca6af724312}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3332,7 +3343,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{87d4d398-c0b0-436d-bbbb-82b5ff736490}">
+          <x14:cfRule type="dataBar" id="{ef73df29-ea19-43b9-ac13-eb5c13e4c012}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3342,7 +3353,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3b2ead9f-e3e4-49aa-82c4-a4c390f96408}">
+          <x14:cfRule type="dataBar" id="{acb97438-5d22-4526-a6c6-ff37f7378157}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3352,7 +3363,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a628d220-497b-4108-a852-3a1f79623021}">
+          <x14:cfRule type="dataBar" id="{e785807f-6b92-4b1c-878e-9e3d6bc42be6}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3362,7 +3373,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e505ea7d-f1d4-4bc0-b022-4a27f6f0308e}">
+          <x14:cfRule type="dataBar" id="{c9bd0831-c098-4ae6-8417-7faa716d46a9}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3372,7 +3383,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8b156908-2408-4bf5-b8c5-4c639f075dce}">
+          <x14:cfRule type="dataBar" id="{6b93cdee-8b5a-42e9-83cd-7a7a0a404ba1}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3382,7 +3393,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d5dec15c-0441-4bfe-8d87-d120634c84a9}">
+          <x14:cfRule type="dataBar" id="{37725cf8-43b2-4c58-9de6-e517da6b56aa}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3392,7 +3403,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0db2cf5e-5934-48ec-967a-1e54028719c3}">
+          <x14:cfRule type="dataBar" id="{4032e737-a4bf-4f34-819b-8a6813cbe82c}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3412,18 +3423,18 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
@@ -3472,7 +3483,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" ht="231" customHeight="1" spans="1:4">
+    <row r="4" ht="209" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1,561 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="14628"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30048" windowHeight="14628" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
-    <sheet name="init" sheetId="2" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Headers</t>
-  </si>
-  <si>
-    <t>Headers Crypto</t>
-  </si>
-  <si>
-    <t>Query Str</t>
-  </si>
-  <si>
-    <t>Request Data Type</t>
-  </si>
-  <si>
-    <t>Request Data</t>
-  </si>
-  <si>
-    <t>Setup Script</t>
-  </si>
-  <si>
-    <t>Request Data Crypto</t>
-  </si>
-  <si>
-    <t>Extract Request Data</t>
-  </si>
-  <si>
-    <t>Jsonpath</t>
-  </si>
-  <si>
-    <t>Regex</t>
-  </si>
-  <si>
-    <t>Regex Params List</t>
-  </si>
-  <si>
-    <t>Retrieve Value</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>Sql Params Dict</t>
-  </si>
-  <si>
-    <t>Teardown Script</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Assertion</t>
-  </si>
-  <si>
-    <t>Error Log</t>
-  </si>
-  <si>
-    <t>清表</t>
-  </si>
-  <si>
-    <t>初始化查询sql</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>非BIP用户登录</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/login</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def setup(action):
-    print("action.get_vars(): ", action.get_vars())
-    action.update_vars("999", "99999")
-    print("action.get_variable: ", action.get_variable())
-setup(action)
-</t>
-  </si>
-  <si>
-    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>安全大屏</t>
-  </si>
-  <si>
-    <t>大盘-隐患类型数据</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>劳务基础配置</t>
-  </si>
-  <si>
-    <t>绑定TV</t>
-  </si>
-  <si>
-    <t>/adnce?t={{get_timestamp()}}</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-  </si>
-  <si>
-    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-  </si>
-  <si>
-    <t>{"tvSequence": "$..tvSequence"}</t>
-  </si>
-  <si>
-    <t>查询配置</t>
-  </si>
-  <si>
-    <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>databases</t>
-  </si>
-  <si>
-    <t>sheets</t>
-  </si>
-  <si>
-    <t>initialize_data</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
-  </si>
-  <si>
-    <t>/test</t>
-  </si>
-  <si>
-    <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "mysql",
- "user":"root",
- "password":"root@3306"
-}</t>
-  </si>
-  <si>
-    <t>["安全纯净大屏"]</t>
-  </si>
-  <si>
-    <t>{
-"{{account}}":"18127813600",
-     "{{passwd}}": "WD6Y0+",
-"{{projectId}}":"1066",
-"{{tenant}}":"2419"
-}</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>如何填写提取参数</t>
-  </si>
-  <si>
-    <t>断言的填写方式</t>
-  </si>
-  <si>
-    <t>内置的断言方法</t>
-  </si>
-  <si>
-    <t>sql 的填写方式及如何提取sql结果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-  </si>
-  <si>
-    <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-  </si>
-  <si>
-    <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-  </si>
-  <si>
-    <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-  </si>
-  <si>
-    <t>如何使用已提取的参数：</t>
-  </si>
-  <si>
-    <t>断言也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>也可以像postman一样写前后置脚本代码段</t>
-  </si>
-  <si>
-    <t>sql 语句也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-  </si>
-  <si>
-    <t>替换方式依然是 {{}}，{{fun()}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-  </si>
-  <si>
-    <t>比如:
-SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
-            }
-    }</t>
-  </si>
-  <si>
-    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-  </si>
-  <si>
-    <t>后置脚本代码 与前置脚本的差不多</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-</t>
-  </si>
-  <si>
-    <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
-  </si>
-  <si>
-    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储变量：["co","na"]</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1" tint="0.05"/>
+      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -900,200 +539,200 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1300,15 +939,14 @@
     <dxf>
       <font>
         <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
         <sz val="11"/>
-        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1320,6 +958,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1328,8 +967,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1341,6 +980,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1349,8 +989,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1370,6 +1010,7 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1380,8 +1021,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1393,6 +1034,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1411,19 +1053,19 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1439,6 +1081,7 @@
         <bottom style="medium">
           <color rgb="FF0F4C81"/>
         </bottom>
+        <diagonal/>
         <vertical/>
         <horizontal style="medium">
           <color rgb="FF0F4C81"/>
@@ -1447,8 +1090,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1460,6 +1103,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1471,7 +1115,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1485,6 +1129,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFF2F2F2"/>
         </vertical>
@@ -1499,7 +1144,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1515,6 +1160,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1525,7 +1171,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1541,6 +1187,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1551,7 +1198,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill degree="180">
+        <gradientFill type="linear" degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1567,6 +1214,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1574,8 +1222,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
     </dxf>
     <dxf>
@@ -1594,6 +1242,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1618,6 +1267,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1642,6 +1292,7 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1673,6 +1324,7 @@
         <bottom style="medium">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFD9D9D9"/>
         </vertical>
@@ -1718,8 +1370,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1739,6 +1391,7 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1749,8 +1402,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1770,6 +1423,7 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1780,8 +1434,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1801,6 +1455,7 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1881,7 +1536,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1893,8 +1548,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF8F8F8"/>
         <sz val="11"/>
-        <color rgb="FFF8F8F8"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1914,6 +1569,7 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1924,8 +1580,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1945,6 +1601,7 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1955,11 +1612,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
-        <gradientFill degree="270">
+        <gradientFill type="linear" degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -1973,6 +1630,7 @@
         <right/>
         <top/>
         <bottom/>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -2104,16 +1762,79 @@
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7" headerRowCount="1">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2411,646 +2132,810 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.45454545454545" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.4545454545455" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.8181818181818" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.27272727272727" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.27272727272727" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.90909090909091" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.9848484848485" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.1818181818182" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.7272727272727" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.18181818181818" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.7272727272727" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.6363636363636" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.5454545454545" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.5454545454545" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.8181818181818" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.2727272727273" style="3" customWidth="1"/>
-    <col min="17" max="17" width="6.36363636363636" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.7272727272727" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14" style="3" customWidth="1"/>
-    <col min="20" max="20" width="4.18181818181818" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.8181818181818" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.81818181818182" style="3" customWidth="1"/>
-    <col min="23" max="23" width="8.90909090909091" style="3" customWidth="1"/>
-    <col min="24" max="24" width="9.45454545454546" style="3" customWidth="1"/>
-    <col min="25" max="25" width="9.27272727272727" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.90909090909091" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
+    <col width="2.45454545454545" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.4545454545455" customWidth="1" style="3" min="2" max="2"/>
+    <col width="15.8181818181818" customWidth="1" style="3" min="3" max="3"/>
+    <col width="4.27272727272727" customWidth="1" style="3" min="4" max="4"/>
+    <col width="5.27272727272727" customWidth="1" style="3" min="5" max="5"/>
+    <col width="7.90909090909091" customWidth="1" style="3" min="6" max="6"/>
+    <col width="29.9848484848485" customWidth="1" style="10" min="7" max="7"/>
+    <col width="20.1818181818182" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.7272727272727" customWidth="1" style="3" min="9" max="9"/>
+    <col width="9.18181818181818" customWidth="1" style="3" min="10" max="10"/>
+    <col width="19.7272727272727" customWidth="1" style="10" min="11" max="11"/>
+    <col width="14.6363636363636" customWidth="1" style="3" min="12" max="12"/>
+    <col width="14.5454545454545" customWidth="1" style="3" min="13" max="13"/>
+    <col width="19.5454545454545" customWidth="1" style="3" min="14" max="14"/>
+    <col width="19.8181818181818" customWidth="1" style="3" min="15" max="15"/>
+    <col width="14.2727272727273" customWidth="1" style="3" min="16" max="16"/>
+    <col width="6.36363636363636" customWidth="1" style="3" min="17" max="17"/>
+    <col width="13.7272727272727" customWidth="1" style="3" min="18" max="18"/>
+    <col width="14" customWidth="1" style="3" min="19" max="19"/>
+    <col width="4.18181818181818" customWidth="1" style="3" min="20" max="20"/>
+    <col width="10.8181818181818" customWidth="1" style="3" min="21" max="21"/>
+    <col width="9.81818181818182" customWidth="1" style="3" min="22" max="22"/>
+    <col width="8.90909090909091" customWidth="1" style="3" min="23" max="23"/>
+    <col width="9.45454545454546" customWidth="1" style="3" min="24" max="24"/>
+    <col width="9.27272727272727" customWidth="1" style="3" min="25" max="25"/>
+    <col width="8.90909090909091" customWidth="1" style="3" min="26" max="26"/>
+    <col width="25.780303030303" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="1" s="8">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Headers</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Headers Crypto</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Query Str</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
+          <t>Request Data Type</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Setup Script</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data Crypto</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Extract Request Data</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Jsonpath</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Regex Params List</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Retrieve Value</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Sql Params Dict</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Teardown Script</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Assertion</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Error Log</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="3">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>清表</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>初始化查询sql</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="n"/>
+      <c r="J2" s="10" t="n"/>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="T2" s="12" t="inlineStr"/>
+      <c r="U2" s="12" t="inlineStr"/>
+      <c r="V2" s="12" t="inlineStr"/>
+      <c r="W2" s="12" t="inlineStr"/>
+      <c r="X2" s="12" t="inlineStr"/>
+      <c r="Y2" s="12" t="inlineStr"/>
+      <c r="Z2" s="12" t="inlineStr"/>
+      <c r="AA2" s="5" t="n"/>
+    </row>
+    <row r="3" customFormat="1" s="9">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>非BIP用户登录</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>/login</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/json"}</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="K3" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def setup(action):
+    print("action.get_vars(): ", action.get_vars())
+    action.update_vars("999", "99999")
+    print("action.get_variable: ", action.get_variable())
+setup(action)
+</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="inlineStr"/>
+      <c r="U3" s="3" t="inlineStr"/>
+      <c r="V3" s="3" t="inlineStr"/>
+      <c r="W3" s="12" t="inlineStr"/>
+      <c r="X3" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
+&lt;html&gt;&lt;head&gt;
+&lt;title&gt;404 Not Found&lt;/title&gt;
+&lt;/head&gt;&lt;body&gt;
+&lt;h1&gt;Not Found&lt;/h1&gt;
+&lt;p&gt;The requested URL /test/login was not found on this server.&lt;/p&gt;
+&lt;/body&gt;&lt;/html&gt;
+</t>
+        </is>
+      </c>
+      <c r="Y3" s="12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z3" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>安全大屏</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>大盘-隐患类型数据</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H4" s="10" t="n"/>
+      <c r="J4" s="10" t="n"/>
+      <c r="L4" s="10" t="n"/>
+      <c r="M4" s="10" t="n"/>
+      <c r="N4" s="10" t="n"/>
+      <c r="O4" s="10" t="n"/>
+      <c r="P4" s="10" t="n"/>
+      <c r="Q4" s="10" t="n"/>
+      <c r="R4" s="10" t="n"/>
+      <c r="S4" s="10" t="n"/>
+      <c r="T4" s="10" t="inlineStr"/>
+      <c r="U4" s="10" t="inlineStr"/>
+      <c r="V4" s="10" t="inlineStr"/>
+      <c r="W4" s="10" t="inlineStr"/>
+      <c r="X4" s="10" t="inlineStr"/>
+      <c r="Y4" s="10" t="inlineStr"/>
+      <c r="Z4" s="12" t="inlineStr"/>
+      <c r="AA4" s="5" t="n"/>
+    </row>
+    <row r="5" s="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>劳务基础配置</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>绑定TV</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>/adnce?t={{get_timestamp()}}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def setup(action):
+    print("action.get_vars(): ", action.get_vars())
+    action.update_vars("999", "99999")
+    print("action.get_variable: ", action.get_variable())
+setup(action)
+</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>{"tvSequence": "$..tvSequence"}</t>
+        </is>
+      </c>
+      <c r="T5" s="12" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="0" t="inlineStr"/>
+      <c r="W5" s="12" t="inlineStr"/>
+      <c r="X5" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
+&lt;html&gt;&lt;head&gt;
+&lt;title&gt;404 Not Found&lt;/title&gt;
+&lt;/head&gt;&lt;body&gt;
+&lt;h1&gt;Not Found&lt;/h1&gt;
+&lt;p&gt;The requested URL /test/adnce was not found on this server.&lt;/p&gt;
+&lt;/body&gt;&lt;/html&gt;
+</t>
+        </is>
+      </c>
+      <c r="Y5" s="12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z5" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AA5" s="5" t="n"/>
+    </row>
+    <row r="6" s="1">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>劳务基础配置</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>查询配置</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+        </is>
+      </c>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def setup(action):
+    print("action.get_vars(): ", action.get_vars())
+    action.update_vars("999", "99999")
+    print("action.get_variable: ", action.get_variable())
+setup(action)
+</t>
+        </is>
+      </c>
+      <c r="T6" s="12" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="0" t="inlineStr"/>
+      <c r="W6" s="12" t="inlineStr"/>
+      <c r="X6" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
+&lt;html&gt;&lt;head&gt;
+&lt;title&gt;404 Not Found&lt;/title&gt;
+&lt;/head&gt;&lt;body&gt;
+&lt;h1&gt;Not Found&lt;/h1&gt;
+&lt;p&gt;The requested URL /test/geo was not found on this server.&lt;/p&gt;
+&lt;/body&gt;&lt;/html&gt;
+</t>
+        </is>
+      </c>
+      <c r="Y6" s="12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z6" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="n"/>
     </row>
-    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="5"/>
-    </row>
-    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:27">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:27">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:27">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="6:27">
-      <c r="F7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="10">
+    <row r="7" s="1">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="3"/>
-      <c r="T7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="5"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="T7" s="12" t="inlineStr"/>
+      <c r="U7" s="12" t="inlineStr"/>
+      <c r="V7" s="12" t="inlineStr"/>
+      <c r="W7" s="12" t="inlineStr"/>
+      <c r="X7" s="12" t="inlineStr"/>
+      <c r="Y7" s="12" t="inlineStr"/>
+      <c r="Z7" s="12" t="inlineStr"/>
+      <c r="AA7" s="5" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:Z1">
-    <cfRule type="containsBlanks" dxfId="26" priority="6">
+    <cfRule type="containsBlanks" priority="6" dxfId="26">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" priority="7" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" priority="8" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X7">
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y1048576">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" priority="30" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Y7">
-    <cfRule type="containsBlanks" dxfId="26" priority="14">
+    <cfRule type="containsBlanks" priority="14" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" priority="15" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" priority="16" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:Z1048576 Z2:Z7">
-    <cfRule type="containsBlanks" dxfId="26" priority="26">
+    <cfRule type="containsBlanks" priority="26" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" priority="27" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" priority="28" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" priority="29" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E1048576">
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
+    <dataValidation sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0"/>
+    <dataValidation sqref="F2 F3 F4 F5 F6 F7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
+    <dataValidation sqref="N8:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
+    <dataValidation sqref="J2 K2 J3:J7 K3:K6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"json,data,params"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
+    <dataValidation sqref="I2 L7 M7 I3:I7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
+    <dataValidation sqref="I8:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
+    <col width="2.5530303030303" customWidth="1" style="6" min="1" max="1"/>
+    <col width="29.1136363636364" customWidth="1" style="6" min="2" max="2"/>
+    <col width="34.5530303030303" customWidth="1" style="6" min="3" max="3"/>
+    <col width="24.5530303030303" customWidth="1" style="6" min="4" max="4"/>
+    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
+    <col width="20.1136363636364" customWidth="1" style="6" min="6" max="6"/>
+    <col width="52.8863636363636" customWidth="1" style="6" min="7" max="7"/>
+    <col width="11.1136363636364" customWidth="1" style="6" min="8" max="8"/>
+    <col width="7.36363636363636" customWidth="1" style="6" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>61</v>
+    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>host</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>databases</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sheets</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>initialize_data</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
+    <row r="2" ht="215.25" customHeight="1" s="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/test</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "mysql",
+ "user":"root",
+ "password":"root@3306"
+}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>["安全纯净大屏"]</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{
+"{{account}}":"18127813600",
+     "{{passwd}}": "WD6Y0+",
+"{{projectId}}":"1066",
+"{{tenant}}":"2419"
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" spans="1:8">
-      <c r="A3" s="3">
+    <row r="3" ht="47" customHeight="1" s="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" dxfId="32" priority="133">
+    <cfRule type="containsBlanks" priority="133" dxfId="32">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -3059,21 +2944,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{64e8119a-e9bd-4e27-81c3-42906c9d03ad}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="135">
+    </cfRule>
+    <cfRule type="expression" priority="135" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="136">
+    <cfRule type="expression" priority="136" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" dxfId="32" priority="73">
+    <cfRule type="containsBlanks" priority="73" dxfId="32">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -3082,21 +2962,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52d481c4-3cc7-4479-b383-918e2dc27d71}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="75">
+    </cfRule>
+    <cfRule type="expression" priority="75" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="76">
+    <cfRule type="expression" priority="76" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="32" priority="85">
+    <cfRule type="containsBlanks" priority="85" dxfId="32">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -3105,21 +2980,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{854e16de-5d95-45a7-a0bd-34f182c92a8b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="87">
+    </cfRule>
+    <cfRule type="expression" priority="87" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="88">
+    <cfRule type="expression" priority="88" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" dxfId="32" priority="69">
+    <cfRule type="containsBlanks" priority="69" dxfId="32">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -3128,24 +2998,19 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce8939c2-36b6-4cdd-bc33-1ca6af724312}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="71">
+    </cfRule>
+    <cfRule type="expression" priority="71" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="72">
+    <cfRule type="expression" priority="72" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="34" priority="60">
+    <cfRule type="expression" priority="60" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="59">
+    <cfRule type="expression" priority="59" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3154,21 +3019,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ef73df29-ea19-43b9-ac13-eb5c13e4c012}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="57">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="57" dxfId="32">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="34" priority="68">
+    <cfRule type="expression" priority="68" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="67">
+    <cfRule type="expression" priority="67" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3177,21 +3037,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{acb97438-5d22-4526-a6c6-ff37f7378157}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="65">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="65" dxfId="32">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="34" priority="64">
+    <cfRule type="expression" priority="64" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="63">
+    <cfRule type="expression" priority="63" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3200,18 +3055,13 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e785807f-6b92-4b1c-878e-9e3d6bc42be6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="61">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="61" dxfId="32">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" dxfId="32" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="32">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3220,16 +3070,11 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c9bd0831-c098-4ae6-8417-7faa716d46a9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" priority="4" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3240,15 +3085,10 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b93cdee-8b5a-42e9-83cd-7a7a0a404ba1}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" dxfId="32" priority="142">
+    <cfRule type="containsBlanks" priority="142" dxfId="32">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3257,21 +3097,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{37725cf8-43b2-4c58-9de6-e517da6b56aa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="144">
+    </cfRule>
+    <cfRule type="expression" priority="144" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="145">
+    <cfRule type="expression" priority="145" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" dxfId="32" priority="77">
+    <cfRule type="containsBlanks" priority="77" dxfId="32">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3280,281 +3115,268 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4032e737-a4bf-4f34-819b-8a6813cbe82c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="79">
+    </cfRule>
+    <cfRule type="expression" priority="79" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="80">
+    <cfRule type="expression" priority="80" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="https://www.baidu.com" display="https://www.baidu.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{64e8119a-e9bd-4e27-81c3-42906c9d03ad}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{52d481c4-3cc7-4479-b383-918e2dc27d71}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{854e16de-5d95-45a7-a0bd-34f182c92a8b}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce8939c2-36b6-4cdd-bc33-1ca6af724312}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ef73df29-ea19-43b9-ac13-eb5c13e4c012}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{acb97438-5d22-4526-a6c6-ff37f7378157}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E3:F3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e785807f-6b92-4b1c-878e-9e3d6bc42be6}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c9bd0831-c098-4ae6-8417-7faa716d46a9}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6b93cdee-8b5a-42e9-83cd-7a7a0a404ba1}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:A3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{37725cf8-43b2-4c58-9de6-e517da6b56aa}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4032e737-a4bf-4f34-819b-8a6813cbe82c}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:D2 C3</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
+    <col width="58" customWidth="1" style="1" min="1" max="1"/>
+    <col width="45.8863636363636" customWidth="1" style="1" min="2" max="2"/>
+    <col width="47.6136363636364" customWidth="1" style="1" min="3" max="3"/>
+    <col width="109.954545454545" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.8863636363636" customWidth="1" style="1" min="7" max="7"/>
+    <col width="40.780303030303" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>72</v>
+    <row r="1" ht="18" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>如何填写提取参数</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>断言的填写方式</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>内置的断言方法</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>sql 的填写方式及如何提取sql结果</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+    <row r="2" ht="346.5" customHeight="1" s="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>80</v>
+    <row r="3" ht="18" customHeight="1" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>如何使用已提取的参数：</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>断言也可以使用变量替换</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>也可以像postman一样写前后置脚本代码段</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>sql 语句也可以使用变量替换</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="209" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>84</v>
+    <row r="4" ht="209" customHeight="1" s="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>替换方式依然是 {{}}，{{fun()}}</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>比如:
+SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
+            }
+    }</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>87</v>
+    <row r="5" ht="66" customHeight="1" s="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>后置脚本代码 与前置脚本的差不多</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
+</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" ht="82.5" customHeight="1" s="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
     </row>
-    <row r="7" ht="198" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" ht="198" customHeight="1" s="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储变量：["co","na"]</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" priority="7" dxfId="28">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" priority="6" dxfId="27">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="5">
+    <cfRule type="containsBlanks" priority="5" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1,200 +1,594 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30048" windowHeight="14628" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
+    <sheet name="init" sheetId="2" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Headers Crypto</t>
+  </si>
+  <si>
+    <t>Query Str</t>
+  </si>
+  <si>
+    <t>Request Data Type</t>
+  </si>
+  <si>
+    <t>Request Data</t>
+  </si>
+  <si>
+    <t>Setup Script</t>
+  </si>
+  <si>
+    <t>Request Data Crypto</t>
+  </si>
+  <si>
+    <t>Extract Request Data</t>
+  </si>
+  <si>
+    <t>Jsonpath</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Regex Params List</t>
+  </si>
+  <si>
+    <t>Retrieve Value</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Sql Params Dict</t>
+  </si>
+  <si>
+    <t>Teardown Script</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Error Log</t>
+  </si>
+  <si>
+    <t>清表</t>
+  </si>
+  <si>
+    <t>初始化查询sql</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>非BIP用户登录</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def setup(action):
+    print("action.get_vars(): ", action.get_vars())
+    action.update_vars("999", "99999")
+    print("action.get_variable: ", action.get_variable())
+setup(action)
+</t>
+  </si>
+  <si>
+    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
+&lt;html&gt;&lt;head&gt;
+&lt;title&gt;404 Not Found&lt;/title&gt;
+&lt;/head&gt;&lt;body&gt;
+&lt;h1&gt;Not Found&lt;/h1&gt;
+&lt;p&gt;The requested URL /test/login was not found on this server.&lt;/p&gt;
+&lt;/body&gt;&lt;/html&gt;
+</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>安全大屏</t>
+  </si>
+  <si>
+    <t>大盘-隐患类型数据</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>劳务基础配置</t>
+  </si>
+  <si>
+    <t>绑定TV</t>
+  </si>
+  <si>
+    <t>/adnce?t={{get_timestamp()}}</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+  </si>
+  <si>
+    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+  </si>
+  <si>
+    <t>{"tvSequence": "$..tvSequence"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
+&lt;html&gt;&lt;head&gt;
+&lt;title&gt;404 Not Found&lt;/title&gt;
+&lt;/head&gt;&lt;body&gt;
+&lt;h1&gt;Not Found&lt;/h1&gt;
+&lt;p&gt;The requested URL /test/adnce was not found on this server.&lt;/p&gt;
+&lt;/body&gt;&lt;/html&gt;
+</t>
+  </si>
+  <si>
+    <t>查询配置</t>
+  </si>
+  <si>
+    <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
+&lt;html&gt;&lt;head&gt;
+&lt;title&gt;404 Not Found&lt;/title&gt;
+&lt;/head&gt;&lt;body&gt;
+&lt;h1&gt;Not Found&lt;/h1&gt;
+&lt;p&gt;The requested URL /test/geo was not found on this server.&lt;/p&gt;
+&lt;/body&gt;&lt;/html&gt;
+</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>databases</t>
+  </si>
+  <si>
+    <t>sheets</t>
+  </si>
+  <si>
+    <t>initialize_data</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
+  </si>
+  <si>
+    <t>/test</t>
+  </si>
+  <si>
+    <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "mysql",
+ "user":"root",
+ "password":"root@3306"
+}</t>
+  </si>
+  <si>
+    <t>["安全纯净大屏"]</t>
+  </si>
+  <si>
+    <t>{
+"{{account}}":"18127813600",
+     "{{passwd}}": "WD6Y0+",
+"{{projectId}}":"1066",
+"{{tenant}}":"2419"
+}</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>如何填写提取参数</t>
+  </si>
+  <si>
+    <t>断言的填写方式</t>
+  </si>
+  <si>
+    <t>内置的断言方法</t>
+  </si>
+  <si>
+    <t>sql 的填写方式及如何提取sql结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+  </si>
+  <si>
+    <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+  </si>
+  <si>
+    <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+  </si>
+  <si>
+    <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+  </si>
+  <si>
+    <t>如何使用已提取的参数：</t>
+  </si>
+  <si>
+    <t>断言也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>也可以像postman一样写前后置脚本代码段</t>
+  </si>
+  <si>
+    <t>sql 语句也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+  </si>
+  <si>
+    <t>替换方式依然是 {{}}，{{fun()}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
+  </si>
+  <si>
+    <t>比如:
+SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
+            }
+    }</t>
+  </si>
+  <si>
+    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+  </si>
+  <si>
+    <t>后置脚本代码 与前置脚本的差不多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
+</t>
+  </si>
+  <si>
+    <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+  </si>
+  <si>
+    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储变量：["co","na"]</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1" tint="0.05"/>
-      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -539,200 +933,200 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="32" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,14 +1333,15 @@
     <dxf>
       <font>
         <name val="宋体"/>
+        <scheme val="none"/>
+        <sz val="11"/>
         <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -958,7 +1353,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -967,8 +1361,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -980,7 +1374,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -989,8 +1382,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1010,7 +1403,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1021,8 +1413,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1034,7 +1426,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1053,19 +1444,19 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1081,7 +1472,6 @@
         <bottom style="medium">
           <color rgb="FF0F4C81"/>
         </bottom>
-        <diagonal/>
         <vertical/>
         <horizontal style="medium">
           <color rgb="FF0F4C81"/>
@@ -1090,8 +1480,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1103,7 +1493,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal style="thin">
           <color rgb="FFFFFFFF"/>
@@ -1115,7 +1504,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1129,7 +1518,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFF2F2F2"/>
         </vertical>
@@ -1144,7 +1532,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1160,7 +1548,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1171,7 +1558,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1187,7 +1574,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1198,7 +1584,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="180">
+        <gradientFill degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1214,7 +1600,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1222,8 +1607,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
     </dxf>
     <dxf>
@@ -1242,7 +1627,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1267,7 +1651,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1292,7 +1675,6 @@
           <color rgb="FFFFFFFF"/>
         </top>
         <bottom/>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1324,7 +1706,6 @@
         <bottom style="medium">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFD9D9D9"/>
         </vertical>
@@ -1370,8 +1751,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1391,7 +1772,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1402,8 +1782,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1423,7 +1803,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1434,8 +1813,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1455,7 +1834,6 @@
         <bottom style="thick">
           <color rgb="FFFAFEFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thick">
           <color rgb="FFFAFEFF"/>
         </vertical>
@@ -1536,7 +1914,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1548,8 +1926,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFF8F8F8"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1569,7 +1947,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1580,8 +1957,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1601,7 +1978,6 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
-        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1612,11 +1988,11 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="270">
+        <gradientFill degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -1630,7 +2006,6 @@
         <right/>
         <top/>
         <bottom/>
-        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1762,79 +2137,16 @@
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2132,810 +2444,646 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col width="2.45454545454545" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.4545454545455" customWidth="1" style="3" min="2" max="2"/>
-    <col width="15.8181818181818" customWidth="1" style="3" min="3" max="3"/>
-    <col width="4.27272727272727" customWidth="1" style="3" min="4" max="4"/>
-    <col width="5.27272727272727" customWidth="1" style="3" min="5" max="5"/>
-    <col width="7.90909090909091" customWidth="1" style="3" min="6" max="6"/>
-    <col width="29.9848484848485" customWidth="1" style="10" min="7" max="7"/>
-    <col width="20.1818181818182" customWidth="1" style="3" min="8" max="8"/>
-    <col width="14.7272727272727" customWidth="1" style="3" min="9" max="9"/>
-    <col width="9.18181818181818" customWidth="1" style="3" min="10" max="10"/>
-    <col width="19.7272727272727" customWidth="1" style="10" min="11" max="11"/>
-    <col width="14.6363636363636" customWidth="1" style="3" min="12" max="12"/>
-    <col width="14.5454545454545" customWidth="1" style="3" min="13" max="13"/>
-    <col width="19.5454545454545" customWidth="1" style="3" min="14" max="14"/>
-    <col width="19.8181818181818" customWidth="1" style="3" min="15" max="15"/>
-    <col width="14.2727272727273" customWidth="1" style="3" min="16" max="16"/>
-    <col width="6.36363636363636" customWidth="1" style="3" min="17" max="17"/>
-    <col width="13.7272727272727" customWidth="1" style="3" min="18" max="18"/>
-    <col width="14" customWidth="1" style="3" min="19" max="19"/>
-    <col width="4.18181818181818" customWidth="1" style="3" min="20" max="20"/>
-    <col width="10.8181818181818" customWidth="1" style="3" min="21" max="21"/>
-    <col width="9.81818181818182" customWidth="1" style="3" min="22" max="22"/>
-    <col width="8.90909090909091" customWidth="1" style="3" min="23" max="23"/>
-    <col width="9.45454545454546" customWidth="1" style="3" min="24" max="24"/>
-    <col width="9.27272727272727" customWidth="1" style="3" min="25" max="25"/>
-    <col width="8.90909090909091" customWidth="1" style="3" min="26" max="26"/>
-    <col width="25.780303030303" customWidth="1" style="3" min="27" max="16384"/>
+    <col min="1" max="1" width="2.45185185185185" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.4518518518519" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8148148148148" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.27407407407407" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.27407407407407" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.91111111111111" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.9851851851852" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.1851851851852" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.7259259259259" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.18518518518519" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.7259259259259" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.637037037037" style="3" customWidth="1"/>
+    <col min="13" max="13" width="39.4296296296296" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.5481481481481" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.8148148148148" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.2740740740741" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.36296296296296" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.7259259259259" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14" style="3" customWidth="1"/>
+    <col min="20" max="20" width="4.18518518518519" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.8148148148148" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.81481481481481" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8.91111111111111" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.45185185185185" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.27407407407407" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.91111111111111" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="8">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Headers</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Headers Crypto</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Query Str</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>Request Data Type</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Setup Script</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data Crypto</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Extract Request Data</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Jsonpath</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Regex</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Regex Params List</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>Retrieve Value</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>Sql Params Dict</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>Teardown Script</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>Assertion</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>Error Log</t>
-        </is>
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="3">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>清表</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>初始化查询sql</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="n"/>
-      <c r="J2" s="10" t="n"/>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="T2" s="12" t="inlineStr"/>
-      <c r="U2" s="12" t="inlineStr"/>
-      <c r="V2" s="12" t="inlineStr"/>
-      <c r="W2" s="12" t="inlineStr"/>
-      <c r="X2" s="12" t="inlineStr"/>
-      <c r="Y2" s="12" t="inlineStr"/>
-      <c r="Z2" s="12" t="inlineStr"/>
-      <c r="AA2" s="5" t="n"/>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="5"/>
     </row>
-    <row r="3" customFormat="1" s="9">
-      <c r="A3" s="3" t="n">
+    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>登录</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>非BIP用户登录</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>/login</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/json"}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def setup(action):
-    print("action.get_vars(): ", action.get_vars())
-    action.update_vars("999", "99999")
-    print("action.get_variable: ", action.get_variable())
-setup(action)
-</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="inlineStr"/>
-      <c r="U3" s="3" t="inlineStr"/>
-      <c r="V3" s="3" t="inlineStr"/>
-      <c r="W3" s="12" t="inlineStr"/>
-      <c r="X3" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
-&lt;html&gt;&lt;head&gt;
-&lt;title&gt;404 Not Found&lt;/title&gt;
-&lt;/head&gt;&lt;body&gt;
-&lt;h1&gt;Not Found&lt;/h1&gt;
-&lt;p&gt;The requested URL /test/login was not found on this server.&lt;/p&gt;
-&lt;/body&gt;&lt;/html&gt;
-</t>
-        </is>
-      </c>
-      <c r="Y3" s="12" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z3" s="12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="4" s="1">
-      <c r="A4" s="3" t="n">
+    <row r="4" customHeight="1" spans="1:27">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>安全大屏</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>大盘-隐患类型数据</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n"/>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
-      <c r="T4" s="10" t="inlineStr"/>
-      <c r="U4" s="10" t="inlineStr"/>
-      <c r="V4" s="10" t="inlineStr"/>
-      <c r="W4" s="10" t="inlineStr"/>
-      <c r="X4" s="10" t="inlineStr"/>
-      <c r="Y4" s="10" t="inlineStr"/>
-      <c r="Z4" s="12" t="inlineStr"/>
-      <c r="AA4" s="5" t="n"/>
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="5"/>
     </row>
-    <row r="5" s="1">
-      <c r="A5" s="3" t="n">
+    <row r="5" customHeight="1" spans="1:27">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>绑定TV</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>/adnce?t={{get_timestamp()}}</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def setup(action):
-    print("action.get_vars(): ", action.get_vars())
-    action.update_vars("999", "99999")
-    print("action.get_variable: ", action.get_variable())
-setup(action)
-</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>{"tvSequence": "$..tvSequence"}</t>
-        </is>
-      </c>
-      <c r="T5" s="12" t="inlineStr"/>
-      <c r="U5" s="3" t="inlineStr"/>
-      <c r="V5" s="0" t="inlineStr"/>
-      <c r="W5" s="12" t="inlineStr"/>
-      <c r="X5" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
-&lt;html&gt;&lt;head&gt;
-&lt;title&gt;404 Not Found&lt;/title&gt;
-&lt;/head&gt;&lt;body&gt;
-&lt;h1&gt;Not Found&lt;/h1&gt;
-&lt;p&gt;The requested URL /test/adnce was not found on this server.&lt;/p&gt;
-&lt;/body&gt;&lt;/html&gt;
-</t>
-        </is>
-      </c>
-      <c r="Y5" s="12" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z5" s="12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AA5" s="5" t="n"/>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="5"/>
     </row>
-    <row r="6" s="1">
-      <c r="A6" s="3" t="n">
+    <row r="6" customHeight="1" spans="1:27">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>查询配置</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-        </is>
-      </c>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def setup(action):
-    print("action.get_vars(): ", action.get_vars())
-    action.update_vars("999", "99999")
-    print("action.get_variable: ", action.get_variable())
-setup(action)
-</t>
-        </is>
-      </c>
-      <c r="T6" s="12" t="inlineStr"/>
-      <c r="U6" s="3" t="inlineStr"/>
-      <c r="V6" s="0" t="inlineStr"/>
-      <c r="W6" s="12" t="inlineStr"/>
-      <c r="X6" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
-&lt;html&gt;&lt;head&gt;
-&lt;title&gt;404 Not Found&lt;/title&gt;
-&lt;/head&gt;&lt;body&gt;
-&lt;h1&gt;Not Found&lt;/h1&gt;
-&lt;p&gt;The requested URL /test/geo was not found on this server.&lt;/p&gt;
-&lt;/body&gt;&lt;/html&gt;
-</t>
-        </is>
-      </c>
-      <c r="Y6" s="12" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z6" s="12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AA6" s="5" t="n"/>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="5"/>
     </row>
-    <row r="7" s="1">
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>TIME</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="n">
+    <row r="7" customHeight="1" spans="6:27">
+      <c r="F7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="T7" s="12" t="inlineStr"/>
-      <c r="U7" s="12" t="inlineStr"/>
-      <c r="V7" s="12" t="inlineStr"/>
-      <c r="W7" s="12" t="inlineStr"/>
-      <c r="X7" s="12" t="inlineStr"/>
-      <c r="Y7" s="12" t="inlineStr"/>
-      <c r="Z7" s="12" t="inlineStr"/>
-      <c r="AA7" s="5" t="n"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="3"/>
+      <c r="T7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" priority="1" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:Z1">
-    <cfRule type="containsBlanks" priority="6" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X7">
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y1048576">
-    <cfRule type="cellIs" priority="30" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Y7">
-    <cfRule type="containsBlanks" priority="14" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="14">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="15" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="16" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:Z1048576 Z2:Z7">
-    <cfRule type="containsBlanks" priority="26" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="29" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E1048576">
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0"/>
-    <dataValidation sqref="F2 F3 F4 F5 F6 F7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
+      <formula1>"json,data,params"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation sqref="N8:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"md5,sha1,sha256"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2 K2 J3:J7 K3:K6" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"json,data,params"</formula1>
-    </dataValidation>
-    <dataValidation sqref="I2 L7 M7 I3:I7" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
       <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation sqref="I8:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
       <formula1>"md5,sha1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
+      <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col width="2.5530303030303" customWidth="1" style="6" min="1" max="1"/>
-    <col width="29.1136363636364" customWidth="1" style="6" min="2" max="2"/>
-    <col width="34.5530303030303" customWidth="1" style="6" min="3" max="3"/>
-    <col width="24.5530303030303" customWidth="1" style="6" min="4" max="4"/>
-    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
-    <col width="20.1136363636364" customWidth="1" style="6" min="6" max="6"/>
-    <col width="52.8863636363636" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.1136363636364" customWidth="1" style="6" min="8" max="8"/>
-    <col width="7.36363636363636" customWidth="1" style="6" min="9" max="16384"/>
+    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>host</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>databases</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>sheets</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>initialize_data</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>run</t>
-        </is>
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" s="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="215.25" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>https://www.baidu.com</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>/test</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "mysql",
- "user":"root",
- "password":"root@3306"
-}</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>["安全纯净大屏"]</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-"{{account}}":"18127813600",
-     "{{passwd}}": "WD6Y0+",
-"{{projectId}}":"1066",
-"{{tenant}}":"2419"
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" s="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="47" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" priority="133" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="133">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -2944,16 +3092,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="135" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1d18a8f1-e441-4803-a4b2-c7a51b569202}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="135">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="136" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="136">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" priority="73" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="73">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -2962,16 +3115,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="75" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b6cd7958-f14d-4f9c-9086-cd70eff4a04c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="75">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="76" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="76">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" priority="85" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="85">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -2980,16 +3138,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="87" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{78fb7ff8-7713-4c25-9601-f6827b70f72e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="87">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="88" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="88">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" priority="69" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="69">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -2998,19 +3161,24 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="71" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6793010b-e552-4115-94c5-1700bbbf5fdc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="71">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="72" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="72">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="60" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="60">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="59" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="59">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3019,16 +3187,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="57" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{dc3bbc86-6257-40a4-8c02-19bf2af0c795}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="57">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" priority="68" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="68">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="67" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="67">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3037,16 +3210,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="65" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8d143933-e3ae-4b68-acc1-c7a861ade4b2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="65">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" priority="64" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="64">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="63" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="63">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3055,13 +3233,18 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="61" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0cc22945-ceaa-4fb6-b24c-c45f8fc9a1b4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="61">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" priority="1" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3070,11 +3253,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="3" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cb76a802-23cb-4410-8301-75d75a5cc5f6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3085,10 +3273,15 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b7b23be0-9c42-49f1-ae63-b4ba59fe00f4}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" priority="142" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="142">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3097,16 +3290,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="144" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{12896611-6d6f-45ee-9abb-c8528f57b842}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="144">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="145" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="145">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" priority="77" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="77">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3115,268 +3313,281 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="79" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fc83ee0a-9fec-49e0-8e73-626576288ec7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="80" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="80">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" tooltip="https://www.baidu.com" display="https://www.baidu.com" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1d18a8f1-e441-4803-a4b2-c7a51b569202}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b6cd7958-f14d-4f9c-9086-cd70eff4a04c}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{78fb7ff8-7713-4c25-9601-f6827b70f72e}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6793010b-e552-4115-94c5-1700bbbf5fdc}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{dc3bbc86-6257-40a4-8c02-19bf2af0c795}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8d143933-e3ae-4b68-acc1-c7a861ade4b2}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:F3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0cc22945-ceaa-4fb6-b24c-c45f8fc9a1b4}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{cb76a802-23cb-4410-8301-75d75a5cc5f6}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b7b23be0-9c42-49f1-ae63-b4ba59fe00f4}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{12896611-6d6f-45ee-9abb-c8528f57b842}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{fc83ee0a-9fec-49e0-8e73-626576288ec7}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:D2 C3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col width="58" customWidth="1" style="1" min="1" max="1"/>
-    <col width="45.8863636363636" customWidth="1" style="1" min="2" max="2"/>
-    <col width="47.6136363636364" customWidth="1" style="1" min="3" max="3"/>
-    <col width="109.954545454545" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.8863636363636" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.780303030303" customWidth="1" style="1" min="8" max="8"/>
+    <col min="1" max="1" width="58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>如何填写提取参数</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>断言的填写方式</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>内置的断言方法</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>sql 的填写方式及如何提取sql结果</t>
-        </is>
+    <row r="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" s="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="6" t="n"/>
+    <row r="2" ht="346.5" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="18" customHeight="1" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>如何使用已提取的参数：</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>断言也可以使用变量替换</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>也可以像postman一样写前后置脚本代码段</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>sql 语句也可以使用变量替换</t>
-        </is>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="4" ht="209" customHeight="1" s="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>替换方式依然是 {{}}，{{fun()}}</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>比如:
-SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
-            }
-    }</t>
-        </is>
+    <row r="4" ht="209" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" s="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>后置脚本代码 与前置脚本的差不多</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-</t>
-        </is>
+    <row r="5" ht="66" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
+    <row r="6" ht="82.5" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
-    <row r="7" ht="198" customHeight="1" s="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储变量：["co","na"]</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+    <row r="7" ht="198" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="5" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="1" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29868" windowHeight="14628"/>
   </bookViews>
   <sheets>
     <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -132,11 +132,23 @@
     <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
   </si>
   <si>
-    <t xml:space="preserve">def setup(action):
-    print("action.get_vars(): ", action.get_vars())
-    action.update_vars("999", "99999")
-    print("action.get_variable: ", action.get_variable())
-setup(action)
+    <t xml:space="preserve">def setup(pm):
+ print("pm----------------&gt;", pm.get_variables())
+ # request_data = pm.get_variables()  # 获取得到请求数据
+ """
+ request_data 的值:  {'Url': '/login',
+  'Headers': '{"Content-Type": "application/json"}',
+   'Query Str': None,
+    'Request Data Type': 'params',
+    'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
+    'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
+    }
+ """
+ BSP_TOKEN = pm.get_environments("{{BSP_TOKEN}}")  # 获取环境变量
+ pm.update_environments("BSP_TOKEN_NEWS", "修改了环境变量")  # 设置环境变量
+ print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+ print("----&gt;pm.get_variables", pm.get_variables())
+setup(pm)
 </t>
   </si>
   <si>
@@ -181,6 +193,14 @@
   </si>
   <si>
     <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def setup(action):
+    print("action.get_vars(): ", action.get_vars())
+    action.update_vars("999", "99999")
+    print("action.get_variable: ", action.get_variable())
+setup(action)
+</t>
   </si>
   <si>
     <t>{"tvSequence": "$..tvSequence"}</t>
@@ -353,6 +373,26 @@
     <t>替换方式依然是 {{}}，{{fun()}}</t>
   </si>
   <si>
+    <t>SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}
+该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
+那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
+数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
+  </si>
+  <si>
+    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+  </si>
+  <si>
     <t xml:space="preserve">前后置代码段可以在该字段下填写：
 Setup Script 、Tear Down
 前置脚本固定格式：
@@ -368,29 +408,27 @@
   <si>
     <t>比如:
 SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = {{projectId}} and t1.delete_flag = {{delete_flag}} and t3.is_delete = {{is_delete}} group by t1.status order by orderStatus desc;"
-            }
-    }</t>
-  </si>
-  <si>
-    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-  </si>
-  <si>
-    <t>后置脚本代码 与前置脚本的差不多</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}
-</t>
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}</t>
   </si>
   <si>
     <t>以下为例子：
 请求入参body：{"hello":"world"}
 那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+  </si>
+  <si>
+    <t>后置脚本代码 与前置脚本的差不多</t>
+  </si>
+  <si>
+    <t>sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
   </si>
   <si>
     <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
@@ -405,7 +443,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -444,41 +482,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="微软雅黑"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="微软雅黑"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -491,14 +494,6 @@
       <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,6 +538,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
@@ -580,10 +590,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="34">
@@ -613,55 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,31 +675,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +705,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -733,7 +729,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +771,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +802,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,21 +884,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -889,6 +912,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,155 +974,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1111,7 +1149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="32" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="21" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,56 +1170,56 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="标题 5" xfId="9"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="注释 2" xfId="20"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
-    <cellStyle name="输出" xfId="26" builtinId="21"/>
-    <cellStyle name="计算" xfId="27" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
-    <cellStyle name="汇总" xfId="32" builtinId="25"/>
-    <cellStyle name="好" xfId="33" builtinId="26"/>
-    <cellStyle name="适中" xfId="34" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="标题 5" xfId="49"/>
+    <cellStyle name="注释 2" xfId="50"/>
     <cellStyle name="常规 2" xfId="51"/>
   </cellStyles>
   <dxfs count="76">
@@ -2013,127 +2051,127 @@
     <dxf/>
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="自定义" pivot="0" count="1">
+    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{4BE02A61-A445-478B-89EB-14669CF972AA}">
       <tableStyleElement type="secondColumnStripe" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="黄色镶边列表格样式" count="1">
+    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{614A0616-5182-4EBC-B9A8-4AFD0EB4BCBF}">
       <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="紫色镶边列表格样式" count="1">
+    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{748D6122-1194-4A03-8CC6-C1A22272AFEB}">
       <tableStyleElement type="secondColumnStripe" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="绿色标题行表格样式" count="1">
+    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{7C4D0D77-4EA9-441B-BFB5-1588D86897D4}">
       <tableStyleElement type="totalRow" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="红色镶边列表格样式" count="1">
+    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{7DFAEB34-783D-498D-9765-26B014B10B4D}">
       <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle name="商务绿标题行表格样式" count="1">
+    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{AD5D0256-2102-4577-B7AE-2FE998B16A5E}">
       <tableStyleElement type="firstHeaderCell" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="1">
+    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{0DAF5B0D-2D6D-4B38-8B22-5C51CE0D924E}">
       <tableStyleElement type="firstColumn" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="蓝色线条表格样式" count="1">
+    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{5B676913-26A4-4ABA-9814-5728909E2C75}">
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边列表格样式" count="1">
+    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{0A90578A-54CF-47AD-9536-41BF554DCB69}">
       <tableStyleElement type="secondColumnStripe" dxfId="43"/>
     </tableStyle>
-    <tableStyle name="单色渐变商务蓝表格样式" count="1">
+    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{601B4BC9-91E9-405A-9E3A-453284DC37C7}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="汇总蓝绿渐变表格样式" count="1">
+    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{BB2AFDA0-FF7A-4813-8212-5FE64F0A5747}">
       <tableStyleElement type="totalRow" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="汇总红蓝渐变表格样式" count="1">
+    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{035C97A7-8A0B-470B-A455-49B028204378}">
       <tableStyleElement type="totalRow" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="汇总红黄渐变表格样式" count="1">
+    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{AA0EB97F-4505-4762-9401-0411FB759520}">
       <tableStyleElement type="totalRow" dxfId="47"/>
     </tableStyle>
-    <tableStyle name="深浅交替4" count="1">
+    <tableStyle name="深浅交替4" count="1" xr9:uid="{6DCD5D17-1108-4964-B677-BF7C2390C614}">
       <tableStyleElement type="firstHeaderCell" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="商务深棕双色表格样式1" count="1">
+    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{B3B36842-D9BE-4A80-A38F-A60CC88081BD}">
       <tableStyleElement type="totalRow" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="商务深紫双色表格样式1" count="1">
+    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{3BB13848-BC37-47CE-BAE8-203A6F704A19}">
       <tableStyleElement type="totalRow" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="商务深灰双色表格样式1" count="1">
+    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{67D0F2B3-C44B-4E4C-923D-7FAAEA6CC5B8}">
       <tableStyleElement type="totalRow" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="商务深色系列12" count="1">
+    <tableStyle name="商务深色系列12" count="1" xr9:uid="{8AB3B6F5-9A08-4E7B-9496-4D91D8128C0D}">
       <tableStyleElement type="firstRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="商务深色系列1" count="1">
+    <tableStyle name="商务深色系列1" count="1" xr9:uid="{41C00415-2503-4DFC-A2CD-3D7CD7F8E6BF}">
       <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
-    <tableStyle name="商务首列填充05" count="1">
+    <tableStyle name="商务首列填充05" count="1" xr9:uid="{99A27AB5-2C64-4AC0-900A-D252DBDFA102}">
       <tableStyleElement type="firstColumn" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="商务首列填充04" count="1">
+    <tableStyle name="商务首列填充04" count="1" xr9:uid="{1CAD9D99-7531-4E2D-B993-300784BF74C4}">
       <tableStyleElement type="firstColumn" dxfId="55"/>
     </tableStyle>
-    <tableStyle name="商务首列填充03" count="1">
+    <tableStyle name="商务首列填充03" count="1" xr9:uid="{45069060-7EFA-4A87-8236-BC4EB1780609}">
       <tableStyleElement type="firstColumn" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="商务隔行填充03" count="1">
+    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{5531D02B-F69B-4D2B-8F7F-77D7041EC51D}">
       <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
-    <tableStyle name="商务首列填充汇总01" count="1">
+    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{41D1EEA3-A30A-4950-9068-4869013493E2}">
       <tableStyleElement type="firstColumn" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式67" count="1">
+    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{0513C7AB-068A-4EA6-979D-D5167F8C01D5}">
       <tableStyleElement type="firstColumn" dxfId="59"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式68" count="1">
+    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{8290A18A-5894-4062-B08D-EB450F3EE69B}">
       <tableStyleElement type="firstColumn" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式64" count="1">
+    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{FA2D0FC6-E178-4EA8-8C93-299EE014CEEA}">
       <tableStyleElement type="firstColumn" dxfId="61"/>
     </tableStyle>
-    <tableStyle name="首列填充系列2" count="1">
+    <tableStyle name="首列填充系列2" count="1" xr9:uid="{F5C08A17-2254-4A92-8127-D5CD5E4792BF}">
       <tableStyleElement type="firstColumn" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式3" count="1">
+    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{D1CFF63F-C9D3-4C33-8822-9C348DBC7E7C}">
       <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式6" count="1">
+    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{304981E6-0E21-4A9E-8CA0-63189CA91A4F}">
       <tableStyleElement type="firstColumnStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式10" count="1">
+    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{36810DB2-B8E9-48EC-9E19-5AE4389FEFEB}">
       <tableStyleElement type="firstColumnStripe" dxfId="65"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式10" count="1">
+    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{E2533A21-14AE-49AF-8C0A-0BD6C68B76E9}">
       <tableStyleElement type="secondColumnStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式1" count="1">
+    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{1EDCE366-E712-48F6-BFBC-524DAB389468}">
       <tableStyleElement type="secondColumnStripe" dxfId="67"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式5" count="1">
+    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{7BD7B9D8-6F33-43F4-BA72-C4C6FC762702}">
       <tableStyleElement type="secondColumnStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式8" count="1">
+    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{89B3CEAF-557D-4237-B0E1-98C91DD174BA}">
       <tableStyleElement type="firstColumnStripe" dxfId="69"/>
     </tableStyle>
-    <tableStyle name="水彩85.xlsx" count="1">
+    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{459BAFE2-DC31-4898-9B84-DB05B38C5603}">
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="黑灰渐变行" count="1">
+    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{BE599B56-983D-4184-A389-7E4EDD41E55E}">
       <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式9" count="1">
+    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{1A2A0DC3-2DFC-4EA6-9DFA-476C71BBCF00}">
       <tableStyleElement type="secondColumnStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式7" count="1">
+    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{48DCF2EB-7855-4E48-A385-79612F427300}">
       <tableStyleElement type="secondColumnStripe" dxfId="73"/>
     </tableStyle>
-    <tableStyle name="渐变色镶边列表格样式2" count="1">
+    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{D1142645-BCEF-4AF4-84CB-BE54AAB344F4}">
       <tableStyleElement type="secondColumnStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="表样式 1" pivot="0" count="1">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{0122C1D9-2E35-4E89-81A9-D16A8FDFE90C}">
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
@@ -2449,38 +2487,38 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="2.45185185185185" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.4518518518519" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.8148148148148" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.27407407407407" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.27407407407407" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.91111111111111" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.9851851851852" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.1851851851852" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.7259259259259" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.18518518518519" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.7259259259259" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.637037037037" style="3" customWidth="1"/>
-    <col min="13" max="13" width="39.4296296296296" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.5481481481481" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.8148148148148" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.2740740740741" style="3" customWidth="1"/>
-    <col min="17" max="17" width="6.36296296296296" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.7259259259259" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.45454545454545" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.4545454545455" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8181818181818" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.27272727272727" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.27272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.90909090909091" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.9848484848485" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.1818181818182" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.7272727272727" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.18181818181818" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.7272727272727" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.6363636363636" style="3" customWidth="1"/>
+    <col min="13" max="13" width="39.4318181818182" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.5454545454545" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.8181818181818" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.2727272727273" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.36363636363636" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.7272727272727" style="3" customWidth="1"/>
     <col min="19" max="19" width="14" style="3" customWidth="1"/>
-    <col min="20" max="20" width="4.18518518518519" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.8148148148148" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.81481481481481" style="3" customWidth="1"/>
-    <col min="23" max="23" width="8.91111111111111" style="3" customWidth="1"/>
-    <col min="24" max="24" width="9.45185185185185" style="3" customWidth="1"/>
-    <col min="25" max="25" width="9.27407407407407" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.91111111111111" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
+    <col min="20" max="20" width="4.18181818181818" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.8181818181818" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.81818181818182" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8.90909090909091" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.45454545454546" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.27272727272727" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.90909090909091" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
@@ -2755,10 +2793,10 @@
         <v>50</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>30</v>
@@ -2773,7 +2811,7 @@
         <v>30</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y5" s="12" t="s">
         <v>41</v>
@@ -2791,7 +2829,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>33</v>
@@ -2803,17 +2841,17 @@
         <v>45</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>30</v>
@@ -2828,7 +2866,7 @@
         <v>30</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y6" s="12" t="s">
         <v>41</v>
@@ -2840,7 +2878,7 @@
     </row>
     <row r="7" customHeight="1" spans="6:27">
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="10">
         <v>100</v>
@@ -2969,14 +3007,14 @@
   </conditionalFormatting>
   <dataValidations count="6">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
-      <formula1>"json,data,params"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
       <formula1>"MD5,sha1,sha256"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
+      <formula1>"json,data,params"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
       <formula1>"md5,sha1"</formula1>
@@ -2999,46 +3037,46 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
     <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="215.25" customHeight="1" spans="1:8">
@@ -3046,22 +3084,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>33</v>
@@ -3072,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3094,7 +3132,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1d18a8f1-e441-4803-a4b2-c7a51b569202}</x14:id>
+          <x14:id>{40d9a73a-cb04-4f2c-808b-5990f5fb3d2a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3117,7 +3155,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b6cd7958-f14d-4f9c-9086-cd70eff4a04c}</x14:id>
+          <x14:id>{7472fbf6-3e33-42d5-8c76-551210c78c78}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3140,7 +3178,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78fb7ff8-7713-4c25-9601-f6827b70f72e}</x14:id>
+          <x14:id>{8fc47679-f356-4539-97e6-58c92d7cc2d7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3163,7 +3201,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6793010b-e552-4115-94c5-1700bbbf5fdc}</x14:id>
+          <x14:id>{82756168-94d6-476c-bac9-689ca0b25fab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3189,7 +3227,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc3bbc86-6257-40a4-8c02-19bf2af0c795}</x14:id>
+          <x14:id>{fd18eeb2-6749-402b-aeca-9906ec2ae9c3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3212,7 +3250,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8d143933-e3ae-4b68-acc1-c7a861ade4b2}</x14:id>
+          <x14:id>{ffad5abf-0690-4366-87d4-0b77f3bf5c39}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3235,7 +3273,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0cc22945-ceaa-4fb6-b24c-c45f8fc9a1b4}</x14:id>
+          <x14:id>{b39a7618-8021-4e85-8d35-2859cc95d39d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3255,7 +3293,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb76a802-23cb-4410-8301-75d75a5cc5f6}</x14:id>
+          <x14:id>{8ad73420-c5cf-46e5-b7b7-a518fb336284}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3275,7 +3313,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7b23be0-9c42-49f1-ae63-b4ba59fe00f4}</x14:id>
+          <x14:id>{6ef0bd73-d858-4435-891c-bb4d02367203}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3292,7 +3330,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{12896611-6d6f-45ee-9abb-c8528f57b842}</x14:id>
+          <x14:id>{ba1d4dc6-abd6-41ac-bd74-564b7f6e3d6d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3315,7 +3353,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fc83ee0a-9fec-49e0-8e73-626576288ec7}</x14:id>
+          <x14:id>{4bcf1f2a-72da-482a-9ffd-674e186ac2f0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3336,7 +3374,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1d18a8f1-e441-4803-a4b2-c7a51b569202}">
+          <x14:cfRule type="dataBar" id="{40d9a73a-cb04-4f2c-808b-5990f5fb3d2a}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3346,7 +3384,7 @@
           <xm:sqref>G1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b6cd7958-f14d-4f9c-9086-cd70eff4a04c}">
+          <x14:cfRule type="dataBar" id="{7472fbf6-3e33-42d5-8c76-551210c78c78}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3356,7 +3394,7 @@
           <xm:sqref>H1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{78fb7ff8-7713-4c25-9601-f6827b70f72e}">
+          <x14:cfRule type="dataBar" id="{8fc47679-f356-4539-97e6-58c92d7cc2d7}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3366,7 +3404,7 @@
           <xm:sqref>G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6793010b-e552-4115-94c5-1700bbbf5fdc}">
+          <x14:cfRule type="dataBar" id="{82756168-94d6-476c-bac9-689ca0b25fab}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3376,7 +3414,7 @@
           <xm:sqref>H2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc3bbc86-6257-40a4-8c02-19bf2af0c795}">
+          <x14:cfRule type="dataBar" id="{fd18eeb2-6749-402b-aeca-9906ec2ae9c3}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3386,7 +3424,7 @@
           <xm:sqref>D3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8d143933-e3ae-4b68-acc1-c7a861ade4b2}">
+          <x14:cfRule type="dataBar" id="{ffad5abf-0690-4366-87d4-0b77f3bf5c39}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3396,7 +3434,7 @@
           <xm:sqref>E3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0cc22945-ceaa-4fb6-b24c-c45f8fc9a1b4}">
+          <x14:cfRule type="dataBar" id="{b39a7618-8021-4e85-8d35-2859cc95d39d}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3406,7 +3444,7 @@
           <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb76a802-23cb-4410-8301-75d75a5cc5f6}">
+          <x14:cfRule type="dataBar" id="{8ad73420-c5cf-46e5-b7b7-a518fb336284}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3416,7 +3454,7 @@
           <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7b23be0-9c42-49f1-ae63-b4ba59fe00f4}">
+          <x14:cfRule type="dataBar" id="{6ef0bd73-d858-4435-891c-bb4d02367203}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3426,7 +3464,7 @@
           <xm:sqref>A1:A3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{12896611-6d6f-45ee-9abb-c8528f57b842}">
+          <x14:cfRule type="dataBar" id="{ba1d4dc6-abd6-41ac-bd74-564b7f6e3d6d}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3436,7 +3474,7 @@
           <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fc83ee0a-9fec-49e0-8e73-626576288ec7}">
+          <x14:cfRule type="dataBar" id="{4bcf1f2a-72da-482a-9ffd-674e186ac2f0}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -3460,42 +3498,42 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" ht="346.5" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3504,27 +3542,27 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="209" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>88</v>
@@ -3547,12 +3585,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" ht="198" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1,632 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="14628"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="29868" windowHeight="14628" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="安全纯净大屏" sheetId="1" r:id="rId1"/>
-    <sheet name="init" sheetId="2" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
+    <sheet name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Headers</t>
-  </si>
-  <si>
-    <t>Headers Crypto</t>
-  </si>
-  <si>
-    <t>Query Str</t>
-  </si>
-  <si>
-    <t>Request Data Type</t>
-  </si>
-  <si>
-    <t>Request Data</t>
-  </si>
-  <si>
-    <t>Setup Script</t>
-  </si>
-  <si>
-    <t>Request Data Crypto</t>
-  </si>
-  <si>
-    <t>Extract Request Data</t>
-  </si>
-  <si>
-    <t>Jsonpath</t>
-  </si>
-  <si>
-    <t>Regex</t>
-  </si>
-  <si>
-    <t>Regex Params List</t>
-  </si>
-  <si>
-    <t>Retrieve Value</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>Sql Params Dict</t>
-  </si>
-  <si>
-    <t>Teardown Script</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Assertion</t>
-  </si>
-  <si>
-    <t>Error Log</t>
-  </si>
-  <si>
-    <t>清表</t>
-  </si>
-  <si>
-    <t>初始化查询sql</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>非BIP用户登录</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/login</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def setup(pm):
- print("pm----------------&gt;", pm.get_variables())
- # request_data = pm.get_variables()  # 获取得到请求数据
- """
- request_data 的值:  {'Url': '/login',
-  'Headers': '{"Content-Type": "application/json"}',
-   'Query Str': None,
-    'Request Data Type': 'params',
-    'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
-    'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
-    }
- """
- BSP_TOKEN = pm.get_environments("{{BSP_TOKEN}}")  # 获取环境变量
- pm.update_environments("BSP_TOKEN_NEWS", "修改了环境变量")  # 设置环境变量
- print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
- print("----&gt;pm.get_variables", pm.get_variables())
-setup(pm)
-</t>
-  </si>
-  <si>
-    <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
-&lt;html&gt;&lt;head&gt;
-&lt;title&gt;404 Not Found&lt;/title&gt;
-&lt;/head&gt;&lt;body&gt;
-&lt;h1&gt;Not Found&lt;/h1&gt;
-&lt;p&gt;The requested URL /test/login was not found on this server.&lt;/p&gt;
-&lt;/body&gt;&lt;/html&gt;
-</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>安全大屏</t>
-  </si>
-  <si>
-    <t>大盘-隐患类型数据</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>劳务基础配置</t>
-  </si>
-  <si>
-    <t>绑定TV</t>
-  </si>
-  <si>
-    <t>/adnce?t={{get_timestamp()}}</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-  </si>
-  <si>
-    <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def setup(action):
-    print("action.get_vars(): ", action.get_vars())
-    action.update_vars("999", "99999")
-    print("action.get_variable: ", action.get_variable())
-setup(action)
-</t>
-  </si>
-  <si>
-    <t>{"tvSequence": "$..tvSequence"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
-&lt;html&gt;&lt;head&gt;
-&lt;title&gt;404 Not Found&lt;/title&gt;
-&lt;/head&gt;&lt;body&gt;
-&lt;h1&gt;Not Found&lt;/h1&gt;
-&lt;p&gt;The requested URL /test/adnce was not found on this server.&lt;/p&gt;
-&lt;/body&gt;&lt;/html&gt;
-</t>
-  </si>
-  <si>
-    <t>查询配置</t>
-  </si>
-  <si>
-    <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
-&lt;html&gt;&lt;head&gt;
-&lt;title&gt;404 Not Found&lt;/title&gt;
-&lt;/head&gt;&lt;body&gt;
-&lt;h1&gt;Not Found&lt;/h1&gt;
-&lt;p&gt;The requested URL /test/geo was not found on this server.&lt;/p&gt;
-&lt;/body&gt;&lt;/html&gt;
-</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>databases</t>
-  </si>
-  <si>
-    <t>sheets</t>
-  </si>
-  <si>
-    <t>initialize_data</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
-  </si>
-  <si>
-    <t>/test</t>
-  </si>
-  <si>
-    <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "mysql",
- "user":"root",
- "password":"root@3306"
-}</t>
-  </si>
-  <si>
-    <t>["安全纯净大屏"]</t>
-  </si>
-  <si>
-    <t>{
-"{{account}}":"18127813600",
-     "{{passwd}}": "WD6Y0+",
-"{{projectId}}":"1066",
-"{{tenant}}":"2419"
-}</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>如何填写提取参数</t>
-  </si>
-  <si>
-    <t>断言的填写方式</t>
-  </si>
-  <si>
-    <t>内置的断言方法</t>
-  </si>
-  <si>
-    <t>sql 的填写方式及如何提取sql结果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-  </si>
-  <si>
-    <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-  </si>
-  <si>
-    <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-  </si>
-  <si>
-    <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-  </si>
-  <si>
-    <t>如何使用已提取的参数：</t>
-  </si>
-  <si>
-    <t>断言也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>也可以像postman一样写前后置脚本代码段</t>
-  </si>
-  <si>
-    <t>sql 语句也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-  </si>
-  <si>
-    <t>替换方式依然是 {{}}，{{fun()}}</t>
-  </si>
-  <si>
-    <t>SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}
-该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
-那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
-数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
-  </si>
-  <si>
-    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-  </si>
-  <si>
-    <t>比如:
-SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}</t>
-  </si>
-  <si>
-    <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
-  </si>
-  <si>
-    <t>后置脚本代码 与前置脚本的差不多</t>
-  </si>
-  <si>
-    <t>sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
-  </si>
-  <si>
-    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储变量：["co","na"]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1" tint="0.05"/>
+      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="major"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -971,200 +539,200 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="21" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1371,15 +939,14 @@
     <dxf>
       <font>
         <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
         <sz val="11"/>
-        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1399,8 +966,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1420,8 +987,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1451,8 +1018,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1482,19 +1049,19 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1518,8 +1085,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1542,7 +1109,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1570,7 +1137,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1596,7 +1163,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1622,7 +1189,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill degree="180">
+        <gradientFill type="linear" degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1645,8 +1212,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
     </dxf>
     <dxf>
@@ -1789,8 +1356,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1820,8 +1387,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1851,8 +1418,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1952,7 +1519,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1964,8 +1531,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF8F8F8"/>
         <sz val="11"/>
-        <color rgb="FFF8F8F8"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1995,8 +1562,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2026,11 +1593,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
-        <gradientFill degree="270">
+        <gradientFill type="linear" degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -2051,140 +1618,203 @@
     <dxf/>
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{4BE02A61-A445-478B-89EB-14669CF972AA}">
+    <tableStyle name="自定义" pivot="0" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{614A0616-5182-4EBC-B9A8-4AFD0EB4BCBF}">
+    <tableStyle name="黄色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{748D6122-1194-4A03-8CC6-C1A22272AFEB}">
+    <tableStyle name="紫色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{7C4D0D77-4EA9-441B-BFB5-1588D86897D4}">
+    <tableStyle name="绿色标题行表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{7DFAEB34-783D-498D-9765-26B014B10B4D}">
+    <tableStyle name="红色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{AD5D0256-2102-4577-B7AE-2FE998B16A5E}">
+    <tableStyle name="商务绿标题行表格样式" count="1">
       <tableStyleElement type="firstHeaderCell" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{0DAF5B0D-2D6D-4B38-8B22-5C51CE0D924E}">
+    <tableStyle name="藤萝紫线条表格样式" count="1">
       <tableStyleElement type="firstColumn" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{5B676913-26A4-4ABA-9814-5728909E2C75}">
+    <tableStyle name="蓝色线条表格样式" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{0A90578A-54CF-47AD-9536-41BF554DCB69}">
+    <tableStyle name="蓝色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="43"/>
     </tableStyle>
-    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{601B4BC9-91E9-405A-9E3A-453284DC37C7}">
+    <tableStyle name="单色渐变商务蓝表格样式" count="1">
       <tableStyleElement type="wholeTable" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{BB2AFDA0-FF7A-4813-8212-5FE64F0A5747}">
+    <tableStyle name="汇总蓝绿渐变表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{035C97A7-8A0B-470B-A455-49B028204378}">
+    <tableStyle name="汇总红蓝渐变表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{AA0EB97F-4505-4762-9401-0411FB759520}">
+    <tableStyle name="汇总红黄渐变表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="47"/>
     </tableStyle>
-    <tableStyle name="深浅交替4" count="1" xr9:uid="{6DCD5D17-1108-4964-B677-BF7C2390C614}">
+    <tableStyle name="深浅交替4" count="1">
       <tableStyleElement type="firstHeaderCell" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{B3B36842-D9BE-4A80-A38F-A60CC88081BD}">
+    <tableStyle name="商务深棕双色表格样式1" count="1">
       <tableStyleElement type="totalRow" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{3BB13848-BC37-47CE-BAE8-203A6F704A19}">
+    <tableStyle name="商务深紫双色表格样式1" count="1">
       <tableStyleElement type="totalRow" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{67D0F2B3-C44B-4E4C-923D-7FAAEA6CC5B8}">
+    <tableStyle name="商务深灰双色表格样式1" count="1">
       <tableStyleElement type="totalRow" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="商务深色系列12" count="1" xr9:uid="{8AB3B6F5-9A08-4E7B-9496-4D91D8128C0D}">
+    <tableStyle name="商务深色系列12" count="1">
       <tableStyleElement type="firstRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="商务深色系列1" count="1" xr9:uid="{41C00415-2503-4DFC-A2CD-3D7CD7F8E6BF}">
+    <tableStyle name="商务深色系列1" count="1">
       <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
-    <tableStyle name="商务首列填充05" count="1" xr9:uid="{99A27AB5-2C64-4AC0-900A-D252DBDFA102}">
+    <tableStyle name="商务首列填充05" count="1">
       <tableStyleElement type="firstColumn" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="商务首列填充04" count="1" xr9:uid="{1CAD9D99-7531-4E2D-B993-300784BF74C4}">
+    <tableStyle name="商务首列填充04" count="1">
       <tableStyleElement type="firstColumn" dxfId="55"/>
     </tableStyle>
-    <tableStyle name="商务首列填充03" count="1" xr9:uid="{45069060-7EFA-4A87-8236-BC4EB1780609}">
+    <tableStyle name="商务首列填充03" count="1">
       <tableStyleElement type="firstColumn" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{5531D02B-F69B-4D2B-8F7F-77D7041EC51D}">
+    <tableStyle name="商务隔行填充03" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
-    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{41D1EEA3-A30A-4950-9068-4869013493E2}">
+    <tableStyle name="商务首列填充汇总01" count="1">
       <tableStyleElement type="firstColumn" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{0513C7AB-068A-4EA6-979D-D5167F8C01D5}">
+    <tableStyle name="首行首列填充表格样式67" count="1">
       <tableStyleElement type="firstColumn" dxfId="59"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{8290A18A-5894-4062-B08D-EB450F3EE69B}">
+    <tableStyle name="首行首列填充表格样式68" count="1">
       <tableStyleElement type="firstColumn" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{FA2D0FC6-E178-4EA8-8C93-299EE014CEEA}">
+    <tableStyle name="首行首列填充表格样式64" count="1">
       <tableStyleElement type="firstColumn" dxfId="61"/>
     </tableStyle>
-    <tableStyle name="首列填充系列2" count="1" xr9:uid="{F5C08A17-2254-4A92-8127-D5CD5E4792BF}">
+    <tableStyle name="首列填充系列2" count="1">
       <tableStyleElement type="firstColumn" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{D1CFF63F-C9D3-4C33-8822-9C348DBC7E7C}">
+    <tableStyle name="首行首列填充表格样式3" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{304981E6-0E21-4A9E-8CA0-63189CA91A4F}">
+    <tableStyle name="首行首列填充表格样式6" count="1">
       <tableStyleElement type="firstColumnStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{36810DB2-B8E9-48EC-9E19-5AE4389FEFEB}">
+    <tableStyle name="首行首列填充表格样式10" count="1">
       <tableStyleElement type="firstColumnStripe" dxfId="65"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{E2533A21-14AE-49AF-8C0A-0BD6C68B76E9}">
+    <tableStyle name="镶边列表格样式10" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{1EDCE366-E712-48F6-BFBC-524DAB389468}">
+    <tableStyle name="首行首列填充表格样式1" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="67"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{7BD7B9D8-6F33-43F4-BA72-C4C6FC762702}">
+    <tableStyle name="首行首列填充表格样式5" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{89B3CEAF-557D-4237-B0E1-98C91DD174BA}">
+    <tableStyle name="首行首列填充表格样式8" count="1">
       <tableStyleElement type="firstColumnStripe" dxfId="69"/>
     </tableStyle>
-    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{459BAFE2-DC31-4898-9B84-DB05B38C5603}">
+    <tableStyle name="水彩85.xlsx" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{BE599B56-983D-4184-A389-7E4EDD41E55E}">
+    <tableStyle name="黑灰渐变行" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{1A2A0DC3-2DFC-4EA6-9DFA-476C71BBCF00}">
+    <tableStyle name="镶边列表格样式9" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{48DCF2EB-7855-4E48-A385-79612F427300}">
+    <tableStyle name="镶边列表格样式7" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="73"/>
     </tableStyle>
-    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{D1142645-BCEF-4AF4-84CB-BE54AAB344F4}">
+    <tableStyle name="渐变色镶边列表格样式2" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{0122C1D9-2E35-4E89-81A9-D16A8FDFE90C}">
+    <tableStyle name="表样式 1" pivot="0" count="1">
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7" headerRowCount="1">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2482,549 +2112,679 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.45454545454545" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.4545454545455" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.8181818181818" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.27272727272727" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.27272727272727" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.90909090909091" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.9848484848485" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.1818181818182" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.7272727272727" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.18181818181818" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.7272727272727" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.6363636363636" style="3" customWidth="1"/>
-    <col min="13" max="13" width="39.4318181818182" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.5454545454545" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.8181818181818" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.2727272727273" style="3" customWidth="1"/>
-    <col min="17" max="17" width="6.36363636363636" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.7272727272727" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14" style="3" customWidth="1"/>
-    <col min="20" max="20" width="4.18181818181818" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.8181818181818" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.81818181818182" style="3" customWidth="1"/>
-    <col min="23" max="23" width="8.90909090909091" style="3" customWidth="1"/>
-    <col min="24" max="24" width="9.45454545454546" style="3" customWidth="1"/>
-    <col min="25" max="25" width="9.27272727272727" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.90909090909091" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="25.780303030303" style="3" customWidth="1"/>
+    <col width="2.45454545454545" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.4545454545455" customWidth="1" style="3" min="2" max="2"/>
+    <col width="15.8181818181818" customWidth="1" style="3" min="3" max="3"/>
+    <col width="4.27272727272727" customWidth="1" style="3" min="4" max="4"/>
+    <col width="5.27272727272727" customWidth="1" style="3" min="5" max="5"/>
+    <col width="7.90909090909091" customWidth="1" style="3" min="6" max="6"/>
+    <col width="29.9848484848485" customWidth="1" style="10" min="7" max="7"/>
+    <col width="20.1818181818182" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.7272727272727" customWidth="1" style="3" min="9" max="9"/>
+    <col width="9.18181818181818" customWidth="1" style="3" min="10" max="10"/>
+    <col width="19.7272727272727" customWidth="1" style="10" min="11" max="11"/>
+    <col width="14.6363636363636" customWidth="1" style="3" min="12" max="12"/>
+    <col width="39.4318181818182" customWidth="1" style="3" min="13" max="13"/>
+    <col width="19.5454545454545" customWidth="1" style="3" min="14" max="14"/>
+    <col width="19.8181818181818" customWidth="1" style="3" min="15" max="15"/>
+    <col width="14.2727272727273" customWidth="1" style="3" min="16" max="16"/>
+    <col width="6.36363636363636" customWidth="1" style="3" min="17" max="17"/>
+    <col width="13.7272727272727" customWidth="1" style="3" min="18" max="18"/>
+    <col width="14" customWidth="1" style="3" min="19" max="19"/>
+    <col width="4.18181818181818" customWidth="1" style="3" min="20" max="20"/>
+    <col width="10.8181818181818" customWidth="1" style="3" min="21" max="21"/>
+    <col width="9.81818181818182" customWidth="1" style="3" min="22" max="22"/>
+    <col width="8.90909090909091" customWidth="1" style="3" min="23" max="23"/>
+    <col width="9.45454545454546" customWidth="1" style="3" min="24" max="24"/>
+    <col width="9.27272727272727" customWidth="1" style="3" min="25" max="25"/>
+    <col width="8.90909090909091" customWidth="1" style="3" min="26" max="26"/>
+    <col width="25.780303030303" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="1" s="8">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Headers</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Headers Crypto</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Query Str</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
+          <t>Request Data Type</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Setup Script</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data Crypto</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Extract Request Data</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Jsonpath</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Regex Params List</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Retrieve Value</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Sql Params Dict</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Teardown Script</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Assertion</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Error Log</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="3">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>清表</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>初始化查询sql</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="n"/>
+      <c r="J2" s="10" t="n"/>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="T2" s="12" t="inlineStr"/>
+      <c r="U2" s="12" t="inlineStr"/>
+      <c r="V2" s="12" t="inlineStr"/>
+      <c r="W2" s="12" t="inlineStr"/>
+      <c r="X2" s="12" t="inlineStr"/>
+      <c r="Y2" s="12" t="inlineStr"/>
+      <c r="Z2" s="12" t="inlineStr"/>
+      <c r="AA2" s="5" t="n"/>
+    </row>
+    <row r="3" customFormat="1" s="9">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>非BIP用户登录</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>/login</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/json"}</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="K3" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def setup(pm):
+ print("pm----------------&gt;", pm.get_variables())
+ # request_data = pm.get_variables()  # 获取得到请求数据
+ """
+ request_data 的值:  {'Url': '/login',
+  'Headers': '{"Content-Type": "application/json"}',
+   'Query Str': None,
+    'Request Data Type': 'params',
+    'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
+    'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
+    }
+ """
+ BSP_TOKEN = pm.get_environments("{{BSP_TOKEN}}")  # 获取环境变量
+ pm.update_environments("BSP_TOKEN_NEWS", "修改了环境变量")  # 设置环境变量
+ print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+ print("----&gt;pm.get_variables", pm.get_variables())
+setup(pm)
+</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="inlineStr"/>
+      <c r="U3" s="3" t="inlineStr"/>
+      <c r="V3" s="3" t="inlineStr"/>
+      <c r="W3" s="12" t="inlineStr"/>
+      <c r="X3" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
+&lt;html&gt;&lt;head&gt;
+&lt;title&gt;404 Not Found&lt;/title&gt;
+&lt;/head&gt;&lt;body&gt;
+&lt;h1&gt;Not Found&lt;/h1&gt;
+&lt;p&gt;The requested URL /test/login was not found on this server.&lt;/p&gt;
+&lt;/body&gt;&lt;/html&gt;
+</t>
+        </is>
+      </c>
+      <c r="Y3" s="12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z3" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>安全大屏</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>大盘-隐患类型数据</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H4" s="10" t="n"/>
+      <c r="J4" s="10" t="n"/>
+      <c r="L4" s="10" t="n"/>
+      <c r="M4" s="10" t="n"/>
+      <c r="N4" s="10" t="n"/>
+      <c r="O4" s="10" t="n"/>
+      <c r="P4" s="10" t="n"/>
+      <c r="Q4" s="10" t="n"/>
+      <c r="R4" s="10" t="n"/>
+      <c r="S4" s="10" t="n"/>
+      <c r="T4" s="10" t="inlineStr"/>
+      <c r="U4" s="10" t="inlineStr"/>
+      <c r="V4" s="10" t="inlineStr"/>
+      <c r="W4" s="10" t="inlineStr"/>
+      <c r="X4" s="10" t="inlineStr"/>
+      <c r="Y4" s="10" t="inlineStr"/>
+      <c r="Z4" s="12" t="inlineStr"/>
+      <c r="AA4" s="5" t="n"/>
+    </row>
+    <row r="5" s="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>劳务基础配置</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>绑定TV</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>/adnce?t={{get_timestamp()}}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def setup(action):
+    print("action.get_vars(): ", action.get_vars())
+    action.update_vars("999", "99999")
+    print("action.get_variable: ", action.get_variable())
+setup(action)
+</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>{"tvSequence": "$..tvSequence"}</t>
+        </is>
+      </c>
+      <c r="T5" s="12" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="0" t="inlineStr"/>
+      <c r="W5" s="12" t="inlineStr"/>
+      <c r="X5" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
+&lt;html&gt;&lt;head&gt;
+&lt;title&gt;404 Not Found&lt;/title&gt;
+&lt;/head&gt;&lt;body&gt;
+&lt;h1&gt;Not Found&lt;/h1&gt;
+&lt;p&gt;The requested URL /test/adnce was not found on this server.&lt;/p&gt;
+&lt;/body&gt;&lt;/html&gt;
+</t>
+        </is>
+      </c>
+      <c r="Y5" s="12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z5" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AA5" s="5" t="n"/>
+    </row>
+    <row r="6" s="1">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>劳务基础配置</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>查询配置</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
+        </is>
+      </c>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">def setup(action):
+    print("action.get_vars(): ", action.get_vars())
+    action.update_vars("999", "99999")
+    print("action.get_variable: ", action.get_variable())
+setup(action)
+</t>
+        </is>
+      </c>
+      <c r="T6" s="12" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="0" t="inlineStr"/>
+      <c r="W6" s="12" t="inlineStr"/>
+      <c r="X6" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
+&lt;html&gt;&lt;head&gt;
+&lt;title&gt;404 Not Found&lt;/title&gt;
+&lt;/head&gt;&lt;body&gt;
+&lt;h1&gt;Not Found&lt;/h1&gt;
+&lt;p&gt;The requested URL /test/geo was not found on this server.&lt;/p&gt;
+&lt;/body&gt;&lt;/html&gt;
+</t>
+        </is>
+      </c>
+      <c r="Y6" s="12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z6" s="12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="n"/>
     </row>
-    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="5"/>
-    </row>
-    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:27">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:27">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:27">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="6:27">
-      <c r="F7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="10">
+    <row r="7" s="1">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="3"/>
-      <c r="T7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="5"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="T7" s="12" t="inlineStr"/>
+      <c r="U7" s="12" t="inlineStr"/>
+      <c r="V7" s="12" t="inlineStr"/>
+      <c r="W7" s="12" t="inlineStr"/>
+      <c r="X7" s="12" t="inlineStr"/>
+      <c r="Y7" s="12" t="inlineStr"/>
+      <c r="Z7" s="12" t="inlineStr"/>
+      <c r="AA7" s="5" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:Z1">
-    <cfRule type="containsBlanks" dxfId="26" priority="6">
+    <cfRule type="containsBlanks" priority="6" dxfId="26">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" priority="7" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" priority="8" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X7">
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y1048576">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" priority="30" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Y7">
-    <cfRule type="containsBlanks" dxfId="26" priority="14">
+    <cfRule type="containsBlanks" priority="14" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" priority="15" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" priority="16" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:Z1048576 Z2:Z7">
-    <cfRule type="containsBlanks" dxfId="26" priority="26">
+    <cfRule type="containsBlanks" priority="26" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" priority="27" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" priority="28" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" priority="29" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E1048576">
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
+    <dataValidation sqref="D2 D3 D4 D5 D6 D7 E1 E2 E3 E4 E5 E6 E7 E8:E1048576 I1 J1 J8:J1048576 K1 K8:K1048576 N1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
+    <dataValidation sqref="F2 F3 F4 F5 F6 F7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
+    <dataValidation sqref="I2 I3:I7 L7 M7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
+    <dataValidation sqref="J2 J3:J7 K2 K3:K6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"json,data,params"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
+    <dataValidation sqref="I8:I1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
+    <dataValidation sqref="N8:N1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3032,96 +2792,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.5530303030303" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1136363636364" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5530303030303" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5530303030303" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1136363636364" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8863636363636" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1136363636364" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36363636363636" style="6" customWidth="1"/>
+    <col width="2.5530303030303" customWidth="1" style="6" min="1" max="1"/>
+    <col width="29.1136363636364" customWidth="1" style="6" min="2" max="2"/>
+    <col width="34.5530303030303" customWidth="1" style="6" min="3" max="3"/>
+    <col width="24.5530303030303" customWidth="1" style="6" min="4" max="4"/>
+    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
+    <col width="20.1136363636364" customWidth="1" style="6" min="6" max="6"/>
+    <col width="52.8863636363636" customWidth="1" style="6" min="7" max="7"/>
+    <col width="11.1136363636364" customWidth="1" style="6" min="8" max="8"/>
+    <col width="7.36363636363636" customWidth="1" style="6" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>66</v>
+    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>host</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>databases</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sheets</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>initialize_data</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
+    <row r="2" ht="215.25" customHeight="1" s="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>/test</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "mysql",
+ "user":"root",
+ "password":"root@3306"
+}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>["安全纯净大屏"]</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{
+"{{account}}":"18127813600",
+     "{{passwd}}": "WD6Y0+",
+"{{projectId}}":"1066",
+"{{tenant}}":"2419"
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" spans="1:8">
-      <c r="A3" s="3">
+    <row r="3" ht="47" customHeight="1" s="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" dxfId="32" priority="133">
+    <cfRule type="containsBlanks" priority="133" dxfId="32">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -3130,21 +2936,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40d9a73a-cb04-4f2c-808b-5990f5fb3d2a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="135">
+    </cfRule>
+    <cfRule type="expression" priority="135" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="136">
+    <cfRule type="expression" priority="136" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" dxfId="32" priority="73">
+    <cfRule type="containsBlanks" priority="73" dxfId="32">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -3153,21 +2954,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7472fbf6-3e33-42d5-8c76-551210c78c78}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="75">
+    </cfRule>
+    <cfRule type="expression" priority="75" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="76">
+    <cfRule type="expression" priority="76" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="32" priority="85">
+    <cfRule type="containsBlanks" priority="85" dxfId="32">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -3176,21 +2972,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8fc47679-f356-4539-97e6-58c92d7cc2d7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="87">
+    </cfRule>
+    <cfRule type="expression" priority="87" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="88">
+    <cfRule type="expression" priority="88" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" dxfId="32" priority="69">
+    <cfRule type="containsBlanks" priority="69" dxfId="32">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -3199,24 +2990,19 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82756168-94d6-476c-bac9-689ca0b25fab}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="71">
+    </cfRule>
+    <cfRule type="expression" priority="71" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="72">
+    <cfRule type="expression" priority="72" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="34" priority="60">
+    <cfRule type="expression" priority="60" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="59">
+    <cfRule type="expression" priority="59" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3225,21 +3011,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fd18eeb2-6749-402b-aeca-9906ec2ae9c3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="57">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="57" dxfId="32">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="34" priority="68">
+    <cfRule type="expression" priority="68" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="67">
+    <cfRule type="expression" priority="67" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3248,21 +3029,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ffad5abf-0690-4366-87d4-0b77f3bf5c39}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="65">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="65" dxfId="32">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="34" priority="64">
+    <cfRule type="expression" priority="64" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="63">
+    <cfRule type="expression" priority="63" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3271,18 +3047,13 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b39a7618-8021-4e85-8d35-2859cc95d39d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="61">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="61" dxfId="32">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" dxfId="32" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="32">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3291,16 +3062,11 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8ad73420-c5cf-46e5-b7b7-a518fb336284}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" priority="4" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3311,15 +3077,10 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ef0bd73-d858-4435-891c-bb4d02367203}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" dxfId="32" priority="142">
+    <cfRule type="containsBlanks" priority="142" dxfId="32">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3328,21 +3089,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ba1d4dc6-abd6-41ac-bd74-564b7f6e3d6d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="144">
+    </cfRule>
+    <cfRule type="expression" priority="144" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="145">
+    <cfRule type="expression" priority="145" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" dxfId="32" priority="77">
+    <cfRule type="containsBlanks" priority="77" dxfId="32">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3351,285 +3107,311 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4bcf1f2a-72da-482a-9ffd-674e186ac2f0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="79">
+    </cfRule>
+    <cfRule type="expression" priority="79" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="80">
+    <cfRule type="expression" priority="80" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
+    <hyperlink ref="C2" tooltip="https://www.baidu.com" display="https://www.baidu.com" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{40d9a73a-cb04-4f2c-808b-5990f5fb3d2a}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7472fbf6-3e33-42d5-8c76-551210c78c78}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8fc47679-f356-4539-97e6-58c92d7cc2d7}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82756168-94d6-476c-bac9-689ca0b25fab}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fd18eeb2-6749-402b-aeca-9906ec2ae9c3}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ffad5abf-0690-4366-87d4-0b77f3bf5c39}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E3:F3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b39a7618-8021-4e85-8d35-2859cc95d39d}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8ad73420-c5cf-46e5-b7b7-a518fb336284}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ef0bd73-d858-4435-891c-bb4d02367203}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:A3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ba1d4dc6-abd6-41ac-bd74-564b7f6e3d6d}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4bcf1f2a-72da-482a-9ffd-674e186ac2f0}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:D2 C3</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8863636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6136363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.954545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8863636363636" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.780303030303" style="1" customWidth="1"/>
+    <col width="58" customWidth="1" style="1" min="1" max="1"/>
+    <col width="45.8863636363636" customWidth="1" style="1" min="2" max="2"/>
+    <col width="47.6136363636364" customWidth="1" style="1" min="3" max="3"/>
+    <col width="109.954545454545" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.8863636363636" customWidth="1" style="1" min="7" max="7"/>
+    <col width="40.780303030303" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>77</v>
+    <row r="1" ht="18" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>如何填写提取参数</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>断言的填写方式</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>内置的断言方法</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>sql 的填写方式及如何提取sql结果</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+    <row r="2" ht="346.5" customHeight="1" s="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>85</v>
+    <row r="3" ht="18" customHeight="1" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>如何使用已提取的参数：</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>断言也可以使用变量替换</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>也可以像postman一样写前后置脚本代码段</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>sql 语句也可以使用变量替换</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="209" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>88</v>
+    <row r="4" ht="209" customHeight="1" s="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>替换方式依然是 {{}}，{{fun()}}</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}
+该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
+那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
+数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>91</v>
+    <row r="5" ht="66" customHeight="1" s="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>比如:
+SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>94</v>
+    <row r="6" ht="82.5" customHeight="1" s="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>后置脚本代码 与前置脚本的差不多</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
+        </is>
       </c>
     </row>
-    <row r="7" ht="198" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" ht="198" customHeight="1" s="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储变量：["co","na"]</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" priority="7" dxfId="28">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" priority="6" dxfId="27">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="5">
+    <cfRule type="containsBlanks" priority="5" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1,200 +1,611 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="29868" windowHeight="14628" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="27945" windowHeight="12195"/>
   </bookViews>
   <sheets>
-    <sheet name="安全纯净大屏" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="try" sheetId="1" r:id="rId1"/>
+    <sheet name="init" sheetId="2" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Headers Crypto</t>
+  </si>
+  <si>
+    <t>Query Str</t>
+  </si>
+  <si>
+    <t>Request Data Type</t>
+  </si>
+  <si>
+    <t>Request Data</t>
+  </si>
+  <si>
+    <t>Setup Script</t>
+  </si>
+  <si>
+    <t>Request Data Crypto</t>
+  </si>
+  <si>
+    <t>Extract Request Data</t>
+  </si>
+  <si>
+    <t>Jsonpath</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Regex Params List</t>
+  </si>
+  <si>
+    <t>Retrieve Value</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Sql Params Dict</t>
+  </si>
+  <si>
+    <t>Teardown Script</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Error Log</t>
+  </si>
+  <si>
+    <t>清表</t>
+  </si>
+  <si>
+    <t>初始化查询sql</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>正确的随机邮箱注册成功</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/api/register</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"email": "{{email}}", "password": "{{password}}"}</t>
+  </si>
+  <si>
+    <t># 前置脚本代码
+import json
+def setup(pm):
+    print("pm----------------&gt;", pm.variables)
+    # request_data = pm.variables  # 获取得到请求数据
+    """
+    request_data 的值:  {'Url': '/login',
+     'Headers': '{"Content-Type": "application/json"}',
+      'Query Str': None,
+       'Request Data Type': 'params',
+       'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
+       'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
+       }
+    """
+    # request = pm.variables()
+    # email = json.loads(request.get("Request Data")).get("email")
+    # pm.update_environments("email", email)  # 设置环境变量
+    # print("----&gt;pm.get_environments", pm.get_environments("{{email}}"))
+setup(pm)</t>
+  </si>
+  <si>
+    <t>{"email":"$..email"}</t>
+  </si>
+  <si>
+    <t>{"token": "$.token", "userId": "$.id"}</t>
+  </si>
+  <si>
+    <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>注册成功的账号可以登录成功</t>
+  </si>
+  <si>
+    <t>/api/login</t>
+  </si>
+  <si>
+    <t># 后置脚本代码
+def tear_down(pm):
+    # vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
+    response = pm.variables  # 获取得到响应结果对象
+    response.json()
+    print(f"请求地址 --&gt; {response.request.url}")
+    print(f"请求头 --&gt; {response.request.headers}")
+    print(f"请求 body --&gt; {response.request.body}")
+    print(f"接口状态--&gt; {response.status_code}")
+    print(f"接口耗时--&gt; {response.elapsed}")
+    print(f"接口响应--&gt; {response.text}")
+    token = response.json()['token']
+    pm.update_environments("token", token)  # 重新设置环境变量
+    # print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+    # print("----&gt;pm.get_variables", pm.get_variables())
+tear_down(pm)</t>
+  </si>
+  <si>
+    <t>用户列表</t>
+  </si>
+  <si>
+    <t>查询用户列表</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/api/users</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>{"page":1}</t>
+  </si>
+  <si>
+    <t>获取指定用户的信息</t>
+  </si>
+  <si>
+    <t>/api/users/{{userId}}</t>
+  </si>
+  <si>
+    <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>databases</t>
+  </si>
+  <si>
+    <t>sheets</t>
+  </si>
+  <si>
+    <t>initialize_data</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>https://reqres.in</t>
+  </si>
+  <si>
+    <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "mysql",
+ "user":"root",
+ "password":"root@3306"
+}</t>
+  </si>
+  <si>
+    <t>["try"]</t>
+  </si>
+  <si>
+    <t>{
+"{{email}}":"eve.holt@reqres.in",
+     "{{password}}": "pistol"
+}</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>如何填写提取参数</t>
+  </si>
+  <si>
+    <t>断言的填写方式</t>
+  </si>
+  <si>
+    <t>内置的断言方法</t>
+  </si>
+  <si>
+    <t>sql 的填写方式及如何提取sql结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+  </si>
+  <si>
+    <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+  </si>
+  <si>
+    <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+  </si>
+  <si>
+    <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+  </si>
+  <si>
+    <t>如何使用已提取的参数：</t>
+  </si>
+  <si>
+    <t>断言也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>也可以像postman一样写前后置脚本代码段</t>
+  </si>
+  <si>
+    <t>sql 语句也可以使用变量替换</t>
+  </si>
+  <si>
+    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+  </si>
+  <si>
+    <t>替换方式依然是 {{}}，{{fun()}}</t>
+  </si>
+  <si>
+    <t>SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}
+该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
+那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
+数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
+  </si>
+  <si>
+    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
+  </si>
+  <si>
+    <t>比如:
+SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}</t>
+  </si>
+  <si>
+    <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+  </si>
+  <si>
+    <t>后置脚本代码 与前置脚本的差不多</t>
+  </si>
+  <si>
+    <t>sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
+  </si>
+  <si>
+    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储变量：["co","na"]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1" tint="0.05"/>
-      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="major"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -539,200 +950,200 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="21" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,14 +1350,15 @@
     <dxf>
       <font>
         <name val="宋体"/>
+        <scheme val="none"/>
+        <sz val="11"/>
         <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -966,8 +1378,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -987,8 +1399,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1018,8 +1430,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1049,19 +1461,19 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1085,8 +1497,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1109,7 +1521,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1137,7 +1549,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1163,7 +1575,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1189,7 +1601,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="180">
+        <gradientFill degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1212,8 +1624,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <sz val="11"/>
         <color rgb="FFFFFFFF"/>
-        <sz val="11"/>
       </font>
     </dxf>
     <dxf>
@@ -1356,8 +1768,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1387,8 +1799,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1418,8 +1830,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFFAFEFF"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1519,7 +1931,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill type="linear">
+        <gradientFill>
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1531,8 +1943,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FFF8F8F8"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1562,8 +1974,8 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1593,11 +2005,11 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11"/>
       </font>
       <fill>
-        <gradientFill type="linear" degree="270">
+        <gradientFill degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -1618,203 +2030,140 @@
     <dxf/>
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="自定义" pivot="0" count="1">
+    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{8E0B8712-6E0D-42CD-80CE-E7A6F23EFC29}">
       <tableStyleElement type="secondColumnStripe" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="黄色镶边列表格样式" count="1">
+    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{4E0405CE-5D50-44E6-A01F-E0F80AE6FE5E}">
       <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="紫色镶边列表格样式" count="1">
+    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{AED336A4-A9F9-4DB9-8FE1-C88EFC505D58}">
       <tableStyleElement type="secondColumnStripe" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="绿色标题行表格样式" count="1">
+    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{3590229F-BB20-4ACC-8596-7F168060850D}">
       <tableStyleElement type="totalRow" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="红色镶边列表格样式" count="1">
+    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{210F7B25-8BFA-4E14-8599-1166C406451E}">
       <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle name="商务绿标题行表格样式" count="1">
+    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{E5141A6A-B40B-44D7-91FF-B78B3D6AA52D}">
       <tableStyleElement type="firstHeaderCell" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="1">
+    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{332361F2-1F11-42BD-A6FB-C89B2347E113}">
       <tableStyleElement type="firstColumn" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="蓝色线条表格样式" count="1">
+    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{4E2BE8C3-7CB3-4DBA-A761-95CEB328A431}">
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边列表格样式" count="1">
+    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{7F758548-74CF-486D-96FA-295233535EB6}">
       <tableStyleElement type="secondColumnStripe" dxfId="43"/>
     </tableStyle>
-    <tableStyle name="单色渐变商务蓝表格样式" count="1">
+    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{53EB6AE3-2834-44C3-A0A5-AE26CCF86AD7}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="汇总蓝绿渐变表格样式" count="1">
+    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{E84FB561-4D41-4B73-B15E-8C8F69739039}">
       <tableStyleElement type="totalRow" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="汇总红蓝渐变表格样式" count="1">
+    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{2637B818-5FB4-4F7E-A072-BF84C5159825}">
       <tableStyleElement type="totalRow" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="汇总红黄渐变表格样式" count="1">
+    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{849B9657-8CC4-42D6-A9A0-47723EDB2B78}">
       <tableStyleElement type="totalRow" dxfId="47"/>
     </tableStyle>
-    <tableStyle name="深浅交替4" count="1">
+    <tableStyle name="深浅交替4" count="1" xr9:uid="{EA23436A-A26E-4EC0-ABB4-FFC52625E7DF}">
       <tableStyleElement type="firstHeaderCell" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="商务深棕双色表格样式1" count="1">
+    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{A31E4C43-16BD-4744-9125-B337F3D843B6}">
       <tableStyleElement type="totalRow" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="商务深紫双色表格样式1" count="1">
+    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{85683698-89CB-44F1-B988-94EBE1F8A6C8}">
       <tableStyleElement type="totalRow" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="商务深灰双色表格样式1" count="1">
+    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{98D0749C-322E-42B8-9792-0CF8925B8E2C}">
       <tableStyleElement type="totalRow" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="商务深色系列12" count="1">
+    <tableStyle name="商务深色系列12" count="1" xr9:uid="{D8CEC232-065A-4B5C-876C-6F937FF0FB13}">
       <tableStyleElement type="firstRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="商务深色系列1" count="1">
+    <tableStyle name="商务深色系列1" count="1" xr9:uid="{1D60F6CB-2CEE-4A17-82C5-A71981DE94F2}">
       <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
-    <tableStyle name="商务首列填充05" count="1">
+    <tableStyle name="商务首列填充05" count="1" xr9:uid="{65A411D5-615F-41CA-AFBE-F02AD094497D}">
       <tableStyleElement type="firstColumn" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="商务首列填充04" count="1">
+    <tableStyle name="商务首列填充04" count="1" xr9:uid="{C9A37230-B8D9-4F6D-A3B4-BEDDE5204C13}">
       <tableStyleElement type="firstColumn" dxfId="55"/>
     </tableStyle>
-    <tableStyle name="商务首列填充03" count="1">
+    <tableStyle name="商务首列填充03" count="1" xr9:uid="{D1459009-AE04-46BB-A233-321557C21935}">
       <tableStyleElement type="firstColumn" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="商务隔行填充03" count="1">
+    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{3185F9BD-BD24-4713-A7A1-BBCEB7A42D04}">
       <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
-    <tableStyle name="商务首列填充汇总01" count="1">
+    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{BC58212B-E5D5-4E8E-8DDB-2668AB139AB8}">
       <tableStyleElement type="firstColumn" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式67" count="1">
+    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{90A24885-9E62-4E0C-8245-ADB9507DE11C}">
       <tableStyleElement type="firstColumn" dxfId="59"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式68" count="1">
+    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{F54AD293-2F22-427B-9209-D479AFB47D71}">
       <tableStyleElement type="firstColumn" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式64" count="1">
+    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{D020171C-55F3-4FC0-92D9-6E7DAEE2D61B}">
       <tableStyleElement type="firstColumn" dxfId="61"/>
     </tableStyle>
-    <tableStyle name="首列填充系列2" count="1">
+    <tableStyle name="首列填充系列2" count="1" xr9:uid="{D751AFD1-6D18-42C4-96AA-AF005FC6C59C}">
       <tableStyleElement type="firstColumn" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式3" count="1">
+    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{577DED2D-BD6E-40A4-B11C-0832A10A60D7}">
       <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式6" count="1">
+    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{9493AFED-2539-4AC9-B86F-64882A4E0E64}">
       <tableStyleElement type="firstColumnStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式10" count="1">
+    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{BD200C14-7550-41E0-BDC1-305E8456C021}">
       <tableStyleElement type="firstColumnStripe" dxfId="65"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式10" count="1">
+    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{6CF210CF-9ECB-400B-8315-859F95D3EA0A}">
       <tableStyleElement type="secondColumnStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式1" count="1">
+    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{29905F42-A7C6-44A3-B27B-885A995B309D}">
       <tableStyleElement type="secondColumnStripe" dxfId="67"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式5" count="1">
+    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{BB1630FE-F679-481E-861F-3AFCBFA14041}">
       <tableStyleElement type="secondColumnStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式8" count="1">
+    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{4174BBD2-4BBB-475B-8A28-F53E26ECB188}">
       <tableStyleElement type="firstColumnStripe" dxfId="69"/>
     </tableStyle>
-    <tableStyle name="水彩85.xlsx" count="1">
+    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{9AC6050B-8E3B-40CE-890A-F76E7C9E0128}">
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="黑灰渐变行" count="1">
+    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{98BF0AD5-535B-4C47-B4F5-E3280D448BEF}">
       <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式9" count="1">
+    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{A33FC1EF-CD19-4F7F-BCDB-C77F30F01CEE}">
       <tableStyleElement type="secondColumnStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式7" count="1">
+    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{EB2E2016-492E-4821-94DB-3151C2FFE212}">
       <tableStyleElement type="secondColumnStripe" dxfId="73"/>
     </tableStyle>
-    <tableStyle name="渐变色镶边列表格样式2" count="1">
+    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{97E6DBFB-DFFA-422B-BEE4-302AEBB94666}">
       <tableStyleElement type="secondColumnStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="表样式 1" pivot="0" count="1">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{1469A084-AB62-4078-B905-0E716D182A98}">
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2112,679 +2461,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.780303030303" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col width="2.45454545454545" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10.4545454545455" customWidth="1" style="3" min="2" max="2"/>
-    <col width="15.8181818181818" customWidth="1" style="3" min="3" max="3"/>
-    <col width="4.27272727272727" customWidth="1" style="3" min="4" max="4"/>
-    <col width="5.27272727272727" customWidth="1" style="3" min="5" max="5"/>
-    <col width="7.90909090909091" customWidth="1" style="3" min="6" max="6"/>
-    <col width="29.9848484848485" customWidth="1" style="10" min="7" max="7"/>
-    <col width="20.1818181818182" customWidth="1" style="3" min="8" max="8"/>
-    <col width="14.7272727272727" customWidth="1" style="3" min="9" max="9"/>
-    <col width="9.18181818181818" customWidth="1" style="3" min="10" max="10"/>
-    <col width="19.7272727272727" customWidth="1" style="10" min="11" max="11"/>
-    <col width="14.6363636363636" customWidth="1" style="3" min="12" max="12"/>
-    <col width="39.4318181818182" customWidth="1" style="3" min="13" max="13"/>
-    <col width="19.5454545454545" customWidth="1" style="3" min="14" max="14"/>
-    <col width="19.8181818181818" customWidth="1" style="3" min="15" max="15"/>
-    <col width="14.2727272727273" customWidth="1" style="3" min="16" max="16"/>
-    <col width="6.36363636363636" customWidth="1" style="3" min="17" max="17"/>
-    <col width="13.7272727272727" customWidth="1" style="3" min="18" max="18"/>
-    <col width="14" customWidth="1" style="3" min="19" max="19"/>
-    <col width="4.18181818181818" customWidth="1" style="3" min="20" max="20"/>
-    <col width="10.8181818181818" customWidth="1" style="3" min="21" max="21"/>
-    <col width="9.81818181818182" customWidth="1" style="3" min="22" max="22"/>
-    <col width="8.90909090909091" customWidth="1" style="3" min="23" max="23"/>
-    <col width="9.45454545454546" customWidth="1" style="3" min="24" max="24"/>
-    <col width="9.27272727272727" customWidth="1" style="3" min="25" max="25"/>
-    <col width="8.90909090909091" customWidth="1" style="3" min="26" max="26"/>
-    <col width="25.780303030303" customWidth="1" style="3" min="27" max="16384"/>
+    <col min="1" max="1" width="2.45185185185185" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.4518518518519" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.8148148148148" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.27407407407407" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.27407407407407" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.91111111111111" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.9851851851852" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.1851851851852" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.7259259259259" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.18518518518519" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.7259259259259" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.637037037037" style="3" customWidth="1"/>
+    <col min="13" max="13" width="39.4296296296296" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.5481481481481" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.8148148148148" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.2740740740741" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.36296296296296" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.7259259259259" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14" style="3" customWidth="1"/>
+    <col min="20" max="20" width="4.18518518518519" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.8148148148148" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.81481481481481" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8.91111111111111" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.45185185185185" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.27407407407407" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.91111111111111" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="8">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Run</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Headers</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Headers Crypto</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Query Str</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>Request Data Type</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>Setup Script</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data Crypto</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Extract Request Data</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Jsonpath</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Regex</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Regex Params List</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>Retrieve Value</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>Sql Params Dict</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>Teardown Script</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>Expected</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>Response</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>Assertion</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>Error Log</t>
-        </is>
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="1" s="3">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>清表</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>初始化查询sql</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="n"/>
-      <c r="J2" s="10" t="n"/>
-      <c r="K2" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="T2" s="12" t="inlineStr"/>
-      <c r="U2" s="12" t="inlineStr"/>
-      <c r="V2" s="12" t="inlineStr"/>
-      <c r="W2" s="12" t="inlineStr"/>
-      <c r="X2" s="12" t="inlineStr"/>
-      <c r="Y2" s="12" t="inlineStr"/>
-      <c r="Z2" s="12" t="inlineStr"/>
-      <c r="AA2" s="5" t="n"/>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="5"/>
     </row>
-    <row r="3" customFormat="1" s="9">
-      <c r="A3" s="3" t="n">
+    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:26">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>登录</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>非BIP用户登录</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>/login</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type": "application/json"}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="10" t="n"/>
-      <c r="K3" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>{"account": "{{account}}", "password": "{{passwd}}"}</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def setup(pm):
- print("pm----------------&gt;", pm.get_variables())
- # request_data = pm.get_variables()  # 获取得到请求数据
- """
- request_data 的值:  {'Url': '/login',
-  'Headers': '{"Content-Type": "application/json"}',
-   'Query Str': None,
-    'Request Data Type': 'params',
-    'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
-    'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
-    }
- """
- BSP_TOKEN = pm.get_environments("{{BSP_TOKEN}}")  # 获取环境变量
- pm.update_environments("BSP_TOKEN_NEWS", "修改了环境变量")  # 设置环境变量
- print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
- print("----&gt;pm.get_variables", pm.get_variables())
-setup(pm)
-</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>{"BSP_TOKEN": "$.data.bspToken", "BSP_USER_TENANT": "$.data.currentTenantId"}</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="inlineStr"/>
-      <c r="U3" s="3" t="inlineStr"/>
-      <c r="V3" s="3" t="inlineStr"/>
-      <c r="W3" s="12" t="inlineStr"/>
-      <c r="X3" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
-&lt;html&gt;&lt;head&gt;
-&lt;title&gt;404 Not Found&lt;/title&gt;
-&lt;/head&gt;&lt;body&gt;
-&lt;h1&gt;Not Found&lt;/h1&gt;
-&lt;p&gt;The requested URL /test/login was not found on this server.&lt;/p&gt;
-&lt;/body&gt;&lt;/html&gt;
-</t>
-        </is>
-      </c>
-      <c r="Y3" s="12" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z3" s="12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" s="1">
-      <c r="A4" s="3" t="n">
+    <row r="4" customHeight="1" spans="1:27">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>安全大屏</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>大盘-隐患类型数据</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="n"/>
-      <c r="J4" s="10" t="n"/>
-      <c r="L4" s="10" t="n"/>
-      <c r="M4" s="10" t="n"/>
-      <c r="N4" s="10" t="n"/>
-      <c r="O4" s="10" t="n"/>
-      <c r="P4" s="10" t="n"/>
-      <c r="Q4" s="10" t="n"/>
-      <c r="R4" s="10" t="n"/>
-      <c r="S4" s="10" t="n"/>
-      <c r="T4" s="10" t="inlineStr"/>
-      <c r="U4" s="10" t="inlineStr"/>
-      <c r="V4" s="10" t="inlineStr"/>
-      <c r="W4" s="10" t="inlineStr"/>
-      <c r="X4" s="10" t="inlineStr"/>
-      <c r="Y4" s="10" t="inlineStr"/>
-      <c r="Z4" s="12" t="inlineStr"/>
-      <c r="AA4" s="5" t="n"/>
+      <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="5"/>
     </row>
-    <row r="5" s="1">
-      <c r="A5" s="3" t="n">
+    <row r="5" customHeight="1" spans="1:27">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>绑定TV</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>/adnce?t={{get_timestamp()}}</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-        </is>
-      </c>
-      <c r="J5" s="10" t="n"/>
-      <c r="K5" s="10" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>{"projectId":"{{projectId}}","tvSequence":"{{random_string()}}"}</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def setup(action):
-    print("action.get_vars(): ", action.get_vars())
-    action.update_vars("999", "99999")
-    print("action.get_variable: ", action.get_variable())
-setup(action)
-</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>{"tvSequence": "$..tvSequence"}</t>
-        </is>
-      </c>
-      <c r="T5" s="12" t="inlineStr"/>
-      <c r="U5" s="3" t="inlineStr"/>
-      <c r="V5" s="0" t="inlineStr"/>
-      <c r="W5" s="12" t="inlineStr"/>
-      <c r="X5" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
-&lt;html&gt;&lt;head&gt;
-&lt;title&gt;404 Not Found&lt;/title&gt;
-&lt;/head&gt;&lt;body&gt;
-&lt;h1&gt;Not Found&lt;/h1&gt;
-&lt;p&gt;The requested URL /test/adnce was not found on this server.&lt;/p&gt;
-&lt;/body&gt;&lt;/html&gt;
-</t>
-        </is>
-      </c>
-      <c r="Y5" s="12" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z5" s="12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AA5" s="5" t="n"/>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="5"/>
     </row>
-    <row r="6" s="1">
-      <c r="A6" s="3" t="n">
+    <row r="6" customHeight="1" spans="1:27">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>劳务基础配置</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>查询配置</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>/geo?t={{get_timestamp()}}&amp;projectId={{projectId}}</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>{"Content-Type":"application/json;charset=utf-8","BSP_TOKEN":"{{BSP_TOKEN}}","BSP_USER_TENANT":"{{BSP_USER_TENANT}}"}</t>
-        </is>
-      </c>
-      <c r="J6" s="10" t="n"/>
-      <c r="K6" s="10" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def setup(action):
-    print("action.get_vars(): ", action.get_vars())
-    action.update_vars("999", "99999")
-    print("action.get_variable: ", action.get_variable())
-setup(action)
-</t>
-        </is>
-      </c>
-      <c r="T6" s="12" t="inlineStr"/>
-      <c r="U6" s="3" t="inlineStr"/>
-      <c r="V6" s="0" t="inlineStr"/>
-      <c r="W6" s="12" t="inlineStr"/>
-      <c r="X6" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;!DOCTYPE HTML PUBLIC "-//IETF//DTD HTML 2.0//EN"&gt;
-&lt;html&gt;&lt;head&gt;
-&lt;title&gt;404 Not Found&lt;/title&gt;
-&lt;/head&gt;&lt;body&gt;
-&lt;h1&gt;Not Found&lt;/h1&gt;
-&lt;p&gt;The requested URL /test/geo was not found on this server.&lt;/p&gt;
-&lt;/body&gt;&lt;/html&gt;
-</t>
-        </is>
-      </c>
-      <c r="Y6" s="12" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z6" s="12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AA6" s="5" t="n"/>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="5"/>
     </row>
-    <row r="7" s="1">
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>TIME</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="n">
+    <row r="7" customHeight="1" spans="6:27">
+      <c r="F7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="10">
         <v>100</v>
       </c>
-      <c r="J7" s="10" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="T7" s="12" t="inlineStr"/>
-      <c r="U7" s="12" t="inlineStr"/>
-      <c r="V7" s="12" t="inlineStr"/>
-      <c r="W7" s="12" t="inlineStr"/>
-      <c r="X7" s="12" t="inlineStr"/>
-      <c r="Y7" s="12" t="inlineStr"/>
-      <c r="Z7" s="12" t="inlineStr"/>
-      <c r="AA7" s="5" t="n"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="3"/>
+      <c r="T7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" priority="1" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:Z1">
-    <cfRule type="containsBlanks" priority="6" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="6">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X7">
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y1048576">
-    <cfRule type="cellIs" priority="30" operator="equal" dxfId="31">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
       <formula>"通过"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:Z1048576 Z2:Z7">
+    <cfRule type="containsBlanks" dxfId="26" priority="26">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>IF(FIND("SQL",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>IF(FIND("TIME",$F2),1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Y7">
-    <cfRule type="containsBlanks" priority="14" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="14">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="15" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="16" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="29">
-      <formula>"不通过"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:Z1048576 Z2:Z7">
-    <cfRule type="containsBlanks" priority="26" dxfId="26">
-      <formula>LEN(TRIM(A2))=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="27">
-      <formula>IF(FIND("SQL",$F2),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="28" dxfId="28">
-      <formula>IF(FIND("TIME",$F2),1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="29" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E1048576">
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="30">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation sqref="D2 D3 D4 D5 D6 D7 E1 E2 E3 E4 E5 E6 E7 E8:E1048576 I1 J1 J8:J1048576 K1 K8:K1048576 N1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
-    <dataValidation sqref="F2 F3 F4 F5 F6 F7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation sqref="I2 I3:I7 L7 M7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
       <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation sqref="J2 J3:J7 K2 K3:K6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
       <formula1>"json,data,params"</formula1>
     </dataValidation>
-    <dataValidation sqref="I8:I1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
-    <dataValidation sqref="N8:N1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
       <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2792,142 +3011,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36363636363636" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col width="2.5530303030303" customWidth="1" style="6" min="1" max="1"/>
-    <col width="29.1136363636364" customWidth="1" style="6" min="2" max="2"/>
-    <col width="34.5530303030303" customWidth="1" style="6" min="3" max="3"/>
-    <col width="24.5530303030303" customWidth="1" style="6" min="4" max="4"/>
-    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
-    <col width="20.1136363636364" customWidth="1" style="6" min="6" max="6"/>
-    <col width="52.8863636363636" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.1136363636364" customWidth="1" style="6" min="8" max="8"/>
-    <col width="7.36363636363636" customWidth="1" style="6" min="9" max="16384"/>
+    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
+    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>host</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>databases</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>sheets</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>initialize_data</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>run</t>
-        </is>
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" s="1">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="215.25" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>https://www.baidu.com</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>/test</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "mysql",
- "user":"root",
- "password":"root@3306"
-}</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>["安全纯净大屏"]</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{
-"{{account}}":"18127813600",
-     "{{passwd}}": "WD6Y0+",
-"{{projectId}}":"1066",
-"{{tenant}}":"2419"
-}</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" s="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="47" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>UAT</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" priority="133" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="133">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -2936,16 +3107,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="135" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1d1a8c57-f936-4aa9-aee7-3c2a6a2e6fdc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="135">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="136" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="136">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" priority="73" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="73">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -2954,16 +3130,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="75" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{16a4f02e-2674-4c3d-88ea-78594e9e84d3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="75">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="76" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="76">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" priority="85" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="85">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -2972,16 +3153,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="87" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8bcccc59-d779-423e-8a91-b1476851a5cf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="87">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="88" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="88">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" priority="69" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="69">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -2990,19 +3176,24 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="71" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{db2040c2-856f-4cd4-a635-de522eff6c98}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="71">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="72" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="72">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="60" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="60">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="59" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="59">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3011,16 +3202,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="57" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c7f90066-44ff-4da3-9111-666e6aa56814}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="57">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" priority="68" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="68">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="67" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="67">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3029,16 +3225,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="65" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3a0b8c51-9a73-4e16-9d29-26b9cdf4ffdb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="65">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" priority="64" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="64">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="63" dxfId="33">
+    <cfRule type="expression" dxfId="33" priority="63">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3047,13 +3248,18 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="containsBlanks" priority="61" dxfId="32">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{749d2943-bce1-4a07-bca8-37b4489fd5e2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="32" priority="61">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" priority="1" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="1">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3062,11 +3268,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="3" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b24d67b0-4bd1-4e51-a1f9-19f60a65a3e4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3077,10 +3288,15 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{af163944-97ad-463f-8d65-0dee5de6b014}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" priority="142" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="142">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3089,16 +3305,21 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="144" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{eed95255-77b7-4631-bc2c-33e10379ecf7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="144">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="145" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="145">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" priority="77" dxfId="32">
+    <cfRule type="containsBlanks" dxfId="32" priority="77">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3107,311 +3328,285 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-    <cfRule type="expression" priority="79" dxfId="33">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c297cbb6-a358-42f6-bfa8-59b0804d1387}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="80" dxfId="34">
+    <cfRule type="expression" dxfId="34" priority="80">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" tooltip="https://www.baidu.com" display="https://www.baidu.com" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://reqres.in" tooltip="https://reqres.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1d1a8c57-f936-4aa9-aee7-3c2a6a2e6fdc}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{16a4f02e-2674-4c3d-88ea-78594e9e84d3}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8bcccc59-d779-423e-8a91-b1476851a5cf}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{db2040c2-856f-4cd4-a635-de522eff6c98}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c7f90066-44ff-4da3-9111-666e6aa56814}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3a0b8c51-9a73-4e16-9d29-26b9cdf4ffdb}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:F3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{749d2943-bce1-4a07-bca8-37b4489fd5e2}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b24d67b0-4bd1-4e51-a1f9-19f60a65a3e4}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{af163944-97ad-463f-8d65-0dee5de6b014}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{eed95255-77b7-4631-bc2c-33e10379ecf7}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c297cbb6-a358-42f6-bfa8-59b0804d1387}">
+            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:D2 C3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88636363636364" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col width="58" customWidth="1" style="1" min="1" max="1"/>
-    <col width="45.8863636363636" customWidth="1" style="1" min="2" max="2"/>
-    <col width="47.6136363636364" customWidth="1" style="1" min="3" max="3"/>
-    <col width="109.954545454545" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.8863636363636" customWidth="1" style="1" min="7" max="7"/>
-    <col width="40.780303030303" customWidth="1" style="1" min="8" max="8"/>
+    <col min="1" max="1" width="58" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>如何填写提取参数</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>断言的填写方式</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>内置的断言方法</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>sql 的填写方式及如何提取sql结果</t>
-        </is>
+    <row r="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" s="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="6" t="n"/>
+    <row r="2" ht="346.5" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" ht="18" customHeight="1" s="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>如何使用已提取的参数：</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>断言也可以使用变量替换</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>也可以像postman一样写前后置脚本代码段</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>sql 语句也可以使用变量替换</t>
-        </is>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="4" ht="209" customHeight="1" s="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>替换方式依然是 {{}}，{{fun()}}</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}
-该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
-那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
-数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
-        </is>
+    <row r="4" ht="209" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" s="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>比如:
-SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}</t>
-        </is>
+    <row r="5" ht="66" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" s="1">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>后置脚本代码 与前置脚本的差不多</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
-        </is>
+    <row r="6" ht="82.5" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="7" ht="198" customHeight="1" s="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储变量：["co","na"]</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
+    <row r="7" ht="198" customHeight="1" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="5" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="5">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" dxfId="28">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="27">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="1" dxfId="26">
+    <cfRule type="containsBlanks" dxfId="26" priority="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1,611 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12195"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12195" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="try" sheetId="1" r:id="rId1"/>
-    <sheet name="init" sheetId="2" r:id="rId2"/>
-    <sheet name="关联参数填写示例" sheetId="3" r:id="rId3"/>
+    <sheet name="try" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="init" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="关联参数填写示例" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Headers</t>
-  </si>
-  <si>
-    <t>Headers Crypto</t>
-  </si>
-  <si>
-    <t>Query Str</t>
-  </si>
-  <si>
-    <t>Request Data Type</t>
-  </si>
-  <si>
-    <t>Request Data</t>
-  </si>
-  <si>
-    <t>Setup Script</t>
-  </si>
-  <si>
-    <t>Request Data Crypto</t>
-  </si>
-  <si>
-    <t>Extract Request Data</t>
-  </si>
-  <si>
-    <t>Jsonpath</t>
-  </si>
-  <si>
-    <t>Regex</t>
-  </si>
-  <si>
-    <t>Regex Params List</t>
-  </si>
-  <si>
-    <t>Retrieve Value</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>Sql Params Dict</t>
-  </si>
-  <si>
-    <t>Teardown Script</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Assertion</t>
-  </si>
-  <si>
-    <t>Error Log</t>
-  </si>
-  <si>
-    <t>清表</t>
-  </si>
-  <si>
-    <t>初始化查询sql</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>正确的随机邮箱注册成功</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/api/register</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{"email": "{{email}}", "password": "{{password}}"}</t>
-  </si>
-  <si>
-    <t># 前置脚本代码
-import json
-def setup(pm):
-    print("pm----------------&gt;", pm.variables)
-    # request_data = pm.variables  # 获取得到请求数据
-    """
-    request_data 的值:  {'Url': '/login',
-     'Headers': '{"Content-Type": "application/json"}',
-      'Query Str': None,
-       'Request Data Type': 'params',
-       'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
-       'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
-       }
-    """
-    # request = pm.variables()
-    # email = json.loads(request.get("Request Data")).get("email")
-    # pm.update_environments("email", email)  # 设置环境变量
-    # print("----&gt;pm.get_environments", pm.get_environments("{{email}}"))
-setup(pm)</t>
-  </si>
-  <si>
-    <t>{"email":"$..email"}</t>
-  </si>
-  <si>
-    <t>{"token": "$.token", "userId": "$.id"}</t>
-  </si>
-  <si>
-    <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>注册成功的账号可以登录成功</t>
-  </si>
-  <si>
-    <t>/api/login</t>
-  </si>
-  <si>
-    <t># 后置脚本代码
-def tear_down(pm):
-    # vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
-    response = pm.variables  # 获取得到响应结果对象
-    response.json()
-    print(f"请求地址 --&gt; {response.request.url}")
-    print(f"请求头 --&gt; {response.request.headers}")
-    print(f"请求 body --&gt; {response.request.body}")
-    print(f"接口状态--&gt; {response.status_code}")
-    print(f"接口耗时--&gt; {response.elapsed}")
-    print(f"接口响应--&gt; {response.text}")
-    token = response.json()['token']
-    pm.update_environments("token", token)  # 重新设置环境变量
-    # print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
-    # print("----&gt;pm.get_variables", pm.get_variables())
-tear_down(pm)</t>
-  </si>
-  <si>
-    <t>用户列表</t>
-  </si>
-  <si>
-    <t>查询用户列表</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>/api/users</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>{"page":1}</t>
-  </si>
-  <si>
-    <t>获取指定用户的信息</t>
-  </si>
-  <si>
-    <t>/api/users/{{userId}}</t>
-  </si>
-  <si>
-    <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>databases</t>
-  </si>
-  <si>
-    <t>sheets</t>
-  </si>
-  <si>
-    <t>initialize_data</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>https://reqres.in</t>
-  </si>
-  <si>
-    <t>{
- "host": "127.0.0.1",
- "port": 3306,
- "database": "mysql",
- "user":"root",
- "password":"root@3306"
-}</t>
-  </si>
-  <si>
-    <t>["try"]</t>
-  </si>
-  <si>
-    <t>{
-"{{email}}":"eve.holt@reqres.in",
-     "{{password}}": "pistol"
-}</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>如何填写提取参数</t>
-  </si>
-  <si>
-    <t>断言的填写方式</t>
-  </si>
-  <si>
-    <t>内置的断言方法</t>
-  </si>
-  <si>
-    <t>sql 的填写方式及如何提取sql结果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">示例：
-提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
-正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
-正则变量:  接收正则表达式返回结果的key： ["a", "b"]
-绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
-jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
-Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
-</t>
-  </si>
-  <si>
-    <t>预期结果填写示例：
-参数格式 list、dict
-                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
-                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
-  </si>
-  <si>
-    <t>comparator_dict = {
-    'eq': 'eq:实际值与期望值相等',
-    'lt': 'lt:实际值小于期望值',
-    'lte': 'lte:实际值小于或等于期望值',
-    'gt': 'gt:实际值大于期望值',
-    'gte': 'gte:实际值大于或等于期望值',
-    'neq': 'neq:实际值与期望值不相等',
-    'str_eq': 'str_eq:字符串实际值与期望值相同',
-    'length_eq': 'length_eq:实际值的长度等于期望长度',
-    'length_gt': 'length_gt:实际值的长度大于期望长度',
-    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
-    'length_lt': 'length_lt:实际值的长度小于期望长度',
-    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
-    'contains': 'contains:期望值包含在实际值中',
-    'contained_by': 'contained_by:实际值被包含在期望值中',
-    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
-    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
-    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
-    'startswith': 'startswith:实际值是以期望值开始',
-    'endswith': 'endswith:实际值是以期望值结束',
-}</t>
-  </si>
-  <si>
-    <t>SQL:{
-        "select": 
-            {
-                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
-            }
-    }
-该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
-  </si>
-  <si>
-    <t>如何使用已提取的参数：</t>
-  </si>
-  <si>
-    <t>断言也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>也可以像postman一样写前后置脚本代码段</t>
-  </si>
-  <si>
-    <t>sql 语句也可以使用变量替换</t>
-  </si>
-  <si>
-    <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
-如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
-  </si>
-  <si>
-    <t>替换方式依然是 {{}}，{{fun()}}</t>
-  </si>
-  <si>
-    <t>SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}
-该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
-那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
-数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
-  </si>
-  <si>
-    <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
-如果需要往内置函数或者自定义函数中传参数，则使用：
-{{函数名(*args,**kwargs)}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前后置代码段可以在该字段下填写：
-Setup Script 、Tear Down
-前置脚本固定格式：
-def setup(action):
-"""  
-这里写你的代码逻辑    
- # action.vars 可以获取到当前预发送的请求参数：url...
-      使用action.get_variables(key) 可以获取到临时变量
-      使用action.update_variables(key,value) 可以设置临时变量
- """
-    </t>
-  </si>
-  <si>
-    <t>比如:
-SQL:{
-    "select": {
-        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
-    },
-    "write": {
-        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
-        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
-        "delete_one": "DELETE FROM table_name WHERE condition"
-    }
-}</t>
-  </si>
-  <si>
-    <t>以下为例子：
-请求入参body：{"hello":"world"}
-那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
-  </si>
-  <si>
-    <t>后置脚本代码 与前置脚本的差不多</t>
-  </si>
-  <si>
-    <t>sql 语句执行后的返回结果如下：
-{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
-  </si>
-  <si>
-    <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
-那么提取响应的code,第一个name可以这样写：
-jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
-绝对路径表达式则：name=data[0].name;code=code
-正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
-表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
-存储变量：["co","na"]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.05"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1" tint="0.05"/>
+      <sz val="14"/>
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="major"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -950,200 +539,203 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="21" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,15 +942,14 @@
     <dxf>
       <font>
         <name val="宋体"/>
-        <scheme val="none"/>
+        <color theme="1"/>
         <sz val="11"/>
-        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1378,8 +969,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1399,8 +990,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1430,8 +1021,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1461,19 +1052,19 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1497,8 +1088,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1521,7 +1112,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF84A6DC"/>
           </stop>
@@ -1549,7 +1140,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF007FFE"/>
           </stop>
@@ -1575,7 +1166,7 @@
         <color rgb="FFFFFFFB"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF501FE1"/>
           </stop>
@@ -1601,7 +1192,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill degree="180">
+        <gradientFill type="linear" degree="180">
           <stop position="0">
             <color rgb="FFF9D423"/>
           </stop>
@@ -1624,8 +1215,8 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color rgb="FFFFFFFF"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
       </font>
     </dxf>
     <dxf>
@@ -1768,8 +1359,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1799,8 +1390,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1830,8 +1421,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFAFEFF"/>
         <sz val="11"/>
-        <color rgb="FFFAFEFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1931,7 +1522,7 @@
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
-        <gradientFill>
+        <gradientFill type="linear">
           <stop position="0">
             <color rgb="FF1D1D1D"/>
           </stop>
@@ -1943,8 +1534,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF8F8F8"/>
         <sz val="11"/>
-        <color rgb="FFF8F8F8"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1974,8 +1565,8 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2005,11 +1596,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
       </font>
       <fill>
-        <gradientFill degree="270">
+        <gradientFill type="linear" degree="270">
           <stop position="0">
             <color rgb="FF69B4DB"/>
           </stop>
@@ -2030,140 +1621,203 @@
     <dxf/>
   </dxfs>
   <tableStyles count="41" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="自定义" pivot="0" count="1" xr9:uid="{8E0B8712-6E0D-42CD-80CE-E7A6F23EFC29}">
+    <tableStyle name="自定义" pivot="0" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="黄色镶边列表格样式" count="1" xr9:uid="{4E0405CE-5D50-44E6-A01F-E0F80AE6FE5E}">
+    <tableStyle name="黄色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="紫色镶边列表格样式" count="1" xr9:uid="{AED336A4-A9F9-4DB9-8FE1-C88EFC505D58}">
+    <tableStyle name="紫色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="37"/>
     </tableStyle>
-    <tableStyle name="绿色标题行表格样式" count="1" xr9:uid="{3590229F-BB20-4ACC-8596-7F168060850D}">
+    <tableStyle name="绿色标题行表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="红色镶边列表格样式" count="1" xr9:uid="{210F7B25-8BFA-4E14-8599-1166C406451E}">
+    <tableStyle name="红色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="39"/>
     </tableStyle>
-    <tableStyle name="商务绿标题行表格样式" count="1" xr9:uid="{E5141A6A-B40B-44D7-91FF-B78B3D6AA52D}">
+    <tableStyle name="商务绿标题行表格样式" count="1">
       <tableStyleElement type="firstHeaderCell" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="藤萝紫线条表格样式" count="1" xr9:uid="{332361F2-1F11-42BD-A6FB-C89B2347E113}">
+    <tableStyle name="藤萝紫线条表格样式" count="1">
       <tableStyleElement type="firstColumn" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="蓝色线条表格样式" count="1" xr9:uid="{4E2BE8C3-7CB3-4DBA-A761-95CEB328A431}">
+    <tableStyle name="蓝色线条表格样式" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边列表格样式" count="1" xr9:uid="{7F758548-74CF-486D-96FA-295233535EB6}">
+    <tableStyle name="蓝色镶边列表格样式" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="43"/>
     </tableStyle>
-    <tableStyle name="单色渐变商务蓝表格样式" count="1" xr9:uid="{53EB6AE3-2834-44C3-A0A5-AE26CCF86AD7}">
+    <tableStyle name="单色渐变商务蓝表格样式" count="1">
       <tableStyleElement type="wholeTable" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="汇总蓝绿渐变表格样式" count="1" xr9:uid="{E84FB561-4D41-4B73-B15E-8C8F69739039}">
+    <tableStyle name="汇总蓝绿渐变表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="汇总红蓝渐变表格样式" count="1" xr9:uid="{2637B818-5FB4-4F7E-A072-BF84C5159825}">
+    <tableStyle name="汇总红蓝渐变表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="汇总红黄渐变表格样式" count="1" xr9:uid="{849B9657-8CC4-42D6-A9A0-47723EDB2B78}">
+    <tableStyle name="汇总红黄渐变表格样式" count="1">
       <tableStyleElement type="totalRow" dxfId="47"/>
     </tableStyle>
-    <tableStyle name="深浅交替4" count="1" xr9:uid="{EA23436A-A26E-4EC0-ABB4-FFC52625E7DF}">
+    <tableStyle name="深浅交替4" count="1">
       <tableStyleElement type="firstHeaderCell" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="商务深棕双色表格样式1" count="1" xr9:uid="{A31E4C43-16BD-4744-9125-B337F3D843B6}">
+    <tableStyle name="商务深棕双色表格样式1" count="1">
       <tableStyleElement type="totalRow" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="商务深紫双色表格样式1" count="1" xr9:uid="{85683698-89CB-44F1-B988-94EBE1F8A6C8}">
+    <tableStyle name="商务深紫双色表格样式1" count="1">
       <tableStyleElement type="totalRow" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="商务深灰双色表格样式1" count="1" xr9:uid="{98D0749C-322E-42B8-9792-0CF8925B8E2C}">
+    <tableStyle name="商务深灰双色表格样式1" count="1">
       <tableStyleElement type="totalRow" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="商务深色系列12" count="1" xr9:uid="{D8CEC232-065A-4B5C-876C-6F937FF0FB13}">
+    <tableStyle name="商务深色系列12" count="1">
       <tableStyleElement type="firstRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="商务深色系列1" count="1" xr9:uid="{1D60F6CB-2CEE-4A17-82C5-A71981DE94F2}">
+    <tableStyle name="商务深色系列1" count="1">
       <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
-    <tableStyle name="商务首列填充05" count="1" xr9:uid="{65A411D5-615F-41CA-AFBE-F02AD094497D}">
+    <tableStyle name="商务首列填充05" count="1">
       <tableStyleElement type="firstColumn" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="商务首列填充04" count="1" xr9:uid="{C9A37230-B8D9-4F6D-A3B4-BEDDE5204C13}">
+    <tableStyle name="商务首列填充04" count="1">
       <tableStyleElement type="firstColumn" dxfId="55"/>
     </tableStyle>
-    <tableStyle name="商务首列填充03" count="1" xr9:uid="{D1459009-AE04-46BB-A233-321557C21935}">
+    <tableStyle name="商务首列填充03" count="1">
       <tableStyleElement type="firstColumn" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="商务隔行填充03" count="1" xr9:uid="{3185F9BD-BD24-4713-A7A1-BBCEB7A42D04}">
+    <tableStyle name="商务隔行填充03" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
-    <tableStyle name="商务首列填充汇总01" count="1" xr9:uid="{BC58212B-E5D5-4E8E-8DDB-2668AB139AB8}">
+    <tableStyle name="商务首列填充汇总01" count="1">
       <tableStyleElement type="firstColumn" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式67" count="1" xr9:uid="{90A24885-9E62-4E0C-8245-ADB9507DE11C}">
+    <tableStyle name="首行首列填充表格样式67" count="1">
       <tableStyleElement type="firstColumn" dxfId="59"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式68" count="1" xr9:uid="{F54AD293-2F22-427B-9209-D479AFB47D71}">
+    <tableStyle name="首行首列填充表格样式68" count="1">
       <tableStyleElement type="firstColumn" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式64" count="1" xr9:uid="{D020171C-55F3-4FC0-92D9-6E7DAEE2D61B}">
+    <tableStyle name="首行首列填充表格样式64" count="1">
       <tableStyleElement type="firstColumn" dxfId="61"/>
     </tableStyle>
-    <tableStyle name="首列填充系列2" count="1" xr9:uid="{D751AFD1-6D18-42C4-96AA-AF005FC6C59C}">
+    <tableStyle name="首列填充系列2" count="1">
       <tableStyleElement type="firstColumn" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式3" count="1" xr9:uid="{577DED2D-BD6E-40A4-B11C-0832A10A60D7}">
+    <tableStyle name="首行首列填充表格样式3" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式6" count="1" xr9:uid="{9493AFED-2539-4AC9-B86F-64882A4E0E64}">
+    <tableStyle name="首行首列填充表格样式6" count="1">
       <tableStyleElement type="firstColumnStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式10" count="1" xr9:uid="{BD200C14-7550-41E0-BDC1-305E8456C021}">
+    <tableStyle name="首行首列填充表格样式10" count="1">
       <tableStyleElement type="firstColumnStripe" dxfId="65"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式10" count="1" xr9:uid="{6CF210CF-9ECB-400B-8315-859F95D3EA0A}">
+    <tableStyle name="镶边列表格样式10" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式1" count="1" xr9:uid="{29905F42-A7C6-44A3-B27B-885A995B309D}">
+    <tableStyle name="首行首列填充表格样式1" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="67"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式5" count="1" xr9:uid="{BB1630FE-F679-481E-861F-3AFCBFA14041}">
+    <tableStyle name="首行首列填充表格样式5" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="首行首列填充表格样式8" count="1" xr9:uid="{4174BBD2-4BBB-475B-8A28-F53E26ECB188}">
+    <tableStyle name="首行首列填充表格样式8" count="1">
       <tableStyleElement type="firstColumnStripe" dxfId="69"/>
     </tableStyle>
-    <tableStyle name="水彩85.xlsx" count="1" xr9:uid="{9AC6050B-8E3B-40CE-890A-F76E7C9E0128}">
+    <tableStyle name="水彩85.xlsx" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="黑灰渐变行" count="1" xr9:uid="{98BF0AD5-535B-4C47-B4F5-E3280D448BEF}">
+    <tableStyle name="黑灰渐变行" count="1">
       <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式9" count="1" xr9:uid="{A33FC1EF-CD19-4F7F-BCDB-C77F30F01CEE}">
+    <tableStyle name="镶边列表格样式9" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="镶边列表格样式7" count="1" xr9:uid="{EB2E2016-492E-4821-94DB-3151C2FFE212}">
+    <tableStyle name="镶边列表格样式7" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="73"/>
     </tableStyle>
-    <tableStyle name="渐变色镶边列表格样式2" count="1" xr9:uid="{97E6DBFB-DFFA-422B-BEE4-302AEBB94666}">
+    <tableStyle name="渐变色镶边列表格样式2" count="1">
       <tableStyleElement type="secondColumnStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{1469A084-AB62-4078-B905-0E716D182A98}">
+    <tableStyle name="表样式 1" pivot="0" count="1">
       <tableStyleElement type="firstColumnStripe" size="2" dxfId="75"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_34" displayName="表1_34" ref="A1:Z7" headerRowCount="1">
   <tableColumns count="26">
     <tableColumn id="1" name="Id" totalsRowLabel="汇总" dataDxfId="0"/>
     <tableColumn id="2" name="Name" dataDxfId="1"/>
@@ -2461,549 +2115,726 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.45185185185185" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.4518518518519" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.8148148148148" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.27407407407407" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.27407407407407" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.91111111111111" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.9851851851852" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.1851851851852" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.7259259259259" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.18518518518519" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.7259259259259" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.637037037037" style="3" customWidth="1"/>
-    <col min="13" max="13" width="39.4296296296296" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.5481481481481" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.8148148148148" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.2740740740741" style="3" customWidth="1"/>
-    <col min="17" max="17" width="6.36296296296296" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.7259259259259" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14" style="3" customWidth="1"/>
-    <col min="20" max="20" width="4.18518518518519" style="3" customWidth="1"/>
-    <col min="21" max="21" width="10.8148148148148" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.81481481481481" style="3" customWidth="1"/>
-    <col min="23" max="23" width="8.91111111111111" style="3" customWidth="1"/>
-    <col min="24" max="24" width="9.45185185185185" style="3" customWidth="1"/>
-    <col min="25" max="25" width="9.27407407407407" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.91111111111111" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="25.7777777777778" style="3" customWidth="1"/>
+    <col width="2.45185185185185" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.4518518518519" customWidth="1" style="3" min="2" max="2"/>
+    <col width="15.8148148148148" customWidth="1" style="3" min="3" max="3"/>
+    <col width="4.27407407407407" customWidth="1" style="3" min="4" max="4"/>
+    <col width="5.27407407407407" customWidth="1" style="3" min="5" max="5"/>
+    <col width="7.91111111111111" customWidth="1" style="3" min="6" max="6"/>
+    <col width="29.9851851851852" customWidth="1" style="10" min="7" max="7"/>
+    <col width="20.1851851851852" customWidth="1" style="3" min="8" max="8"/>
+    <col width="14.7259259259259" customWidth="1" style="3" min="9" max="9"/>
+    <col width="9.18518518518519" customWidth="1" style="3" min="10" max="10"/>
+    <col width="19.7259259259259" customWidth="1" style="10" min="11" max="11"/>
+    <col width="14.637037037037" customWidth="1" style="3" min="12" max="12"/>
+    <col width="39.4296296296296" customWidth="1" style="3" min="13" max="13"/>
+    <col width="19.5481481481481" customWidth="1" style="3" min="14" max="14"/>
+    <col width="19.8148148148148" customWidth="1" style="3" min="15" max="15"/>
+    <col width="14.2740740740741" customWidth="1" style="3" min="16" max="16"/>
+    <col width="6.36296296296296" customWidth="1" style="3" min="17" max="17"/>
+    <col width="13.7259259259259" customWidth="1" style="3" min="18" max="18"/>
+    <col width="14" customWidth="1" style="3" min="19" max="19"/>
+    <col width="4.18518518518519" customWidth="1" style="3" min="20" max="20"/>
+    <col width="10.8148148148148" customWidth="1" style="3" min="21" max="21"/>
+    <col width="9.81481481481481" customWidth="1" style="3" min="22" max="22"/>
+    <col width="8.91111111111111" customWidth="1" style="3" min="23" max="23"/>
+    <col width="9.451851851851851" customWidth="1" style="3" min="24" max="24"/>
+    <col width="9.27407407407407" customWidth="1" style="3" min="25" max="25"/>
+    <col width="8.91111111111111" customWidth="1" style="3" min="26" max="26"/>
+    <col width="25.7777777777778" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="1" s="8">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Headers</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Headers Crypto</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Query Str</t>
+        </is>
+      </c>
+      <c r="K1" s="11" t="inlineStr">
+        <is>
+          <t>Request Data Type</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Setup Script</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Request Data Crypto</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Extract Request Data</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Jsonpath</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Regex Params List</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Retrieve Value</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Sql Params Dict</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Teardown Script</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Assertion</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Error Log</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="3">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>清表</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>初始化查询sql</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="n"/>
+      <c r="J2" s="10" t="n"/>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="T2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> {
+        "select":
+            {
+                # "select_one": "select username,password as pwd  from lea.user where username ='luoshunwen003';"
+            }
+    }</t>
+        </is>
+      </c>
+      <c r="U2" s="13" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="V2" s="13" t="inlineStr"/>
+      <c r="W2" s="13" t="inlineStr"/>
+      <c r="X2" s="13" t="inlineStr"/>
+      <c r="Y2" s="13" t="inlineStr"/>
+      <c r="Z2" s="13" t="inlineStr"/>
+      <c r="AA2" s="5" t="n"/>
+    </row>
+    <row r="3" customFormat="1" s="9">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>注册</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>正确的随机邮箱注册成功</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>/api/register</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/json"}</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="10" t="n"/>
+      <c r="K3" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>{"email": "{{email}}", "password": "{{password}}"}</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t># 前置脚本代码
+import json
+def setup(pm):
+    print("pm----------------&gt;", pm.variables)
+    # request_data = pm.variables  # 获取得到请求数据
+    """
+    request_data 的值:  {'Url': '/login',
+     'Headers': '{"Content-Type": "application/json"}',
+      'Query Str': None,
+       'Request Data Type': 'params',
+       'Request Data': '{"account": "{{account}}", "password": "{{passwd}}"}',
+       'Expected': None, 'Response': '', 'Assertion': '', 'Error Log': ''
+       }
+    """
+    # request = pm.variables()
+    # email = json.loads(request.get("Request Data")).get("email")
+    # pm.update_environments("email", email)  # 设置环境变量
+    # print("----&gt;pm.get_environments", pm.get_environments("{{email}}"))
+setup(pm)</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>{"email":"$..email"}</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>{"token": "$.token", "userId": "$.id"}</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>{
+        "select":
+            {
+                "select_one": "select e.employee_name e_name,e.employee_salary e_salary,e.department e_dep from do_mysql.employee as e where e.employee_id ='a004';"
+            }
+    }</t>
+        </is>
+      </c>
+      <c r="U3" s="3" t="inlineStr">
+        <is>
+          <t>{"e_name":"$..e_name","e_salary":"$.select.select_one.e_salary","e_dep":"$..e_dep"}</t>
+        </is>
+      </c>
+      <c r="V3" s="3" t="inlineStr"/>
+      <c r="W3" s="13" t="inlineStr">
+        <is>
+          <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
+        </is>
+      </c>
+      <c r="X3" s="13" t="inlineStr">
+        <is>
+          <t>{"id":4,"token":"QpwL5tke4Pnpja7X4"}</t>
+        </is>
+      </c>
+      <c r="Y3" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z3" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>注册成功的账号可以登录成功</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>/api/login</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/json"}</t>
+        </is>
+      </c>
+      <c r="J4" s="10" t="n"/>
+      <c r="K4" s="10" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>{"email": "{{email}}", "password": "{{password}}"}</t>
+        </is>
+      </c>
+      <c r="M4" s="10" t="n"/>
+      <c r="N4" s="10" t="n"/>
+      <c r="O4" s="10" t="n"/>
+      <c r="P4" s="10" t="n"/>
+      <c r="Q4" s="10" t="n"/>
+      <c r="R4" s="10" t="n"/>
+      <c r="S4" s="10" t="n"/>
+      <c r="T4" s="10" t="inlineStr"/>
+      <c r="U4" s="10" t="inlineStr"/>
+      <c r="V4" s="3" t="inlineStr">
+        <is>
+          <t># 后置脚本代码
+def tear_down(pm):
+    # vars_data = pm.get_environments("{{变量名称}}")  # 获取环境变量
+    response = pm.variables  # 获取得到响应结果对象
+    response.json()
+    print(f"请求地址 --&gt; {response.request.url}")
+    print(f"请求头 --&gt; {response.request.headers}")
+    print(f"请求 body --&gt; {response.request.body}")
+    print(f"接口状态--&gt; {response.status_code}")
+    print(f"接口耗时--&gt; {response.elapsed}")
+    print(f"接口响应--&gt; {response.text}")
+    token = response.json()['token']
+    pm.update_environments("token", token)  # 重新设置环境变量
+    # print("----&gt;pm.get_environments", pm.get_environments("{{BSP_TOKEN_NEWS}}"))
+    # print("----&gt;pm.get_variables", pm.get_variables())
+tear_down(pm)</t>
+        </is>
+      </c>
+      <c r="W4" s="13" t="inlineStr">
+        <is>
+          <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
+        </is>
+      </c>
+      <c r="X4" s="10" t="inlineStr">
+        <is>
+          <t>{"token":"QpwL5tke4Pnpja7X4"}</t>
+        </is>
+      </c>
+      <c r="Y4" s="10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z4" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+        </is>
+      </c>
+      <c r="AA4" s="5" t="n"/>
+    </row>
+    <row r="5" s="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>用户列表</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>查询用户列表</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="inlineStr">
+        <is>
+          <t>/api/users</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="10" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>{"page":1}</t>
+        </is>
+      </c>
+      <c r="T5" s="13" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="0" t="inlineStr"/>
+      <c r="W5" s="13" t="inlineStr">
+        <is>
+          <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}</t>
+        </is>
+      </c>
+      <c r="X5" s="13" t="inlineStr">
+        <is>
+          <t>{"page":1,"per_page":6,"total":12,"total_pages":2,"data":[{"id":1,"email":"george.bluth@reqres.in","first_name":"George","last_name":"Bluth","avatar":"https://reqres.in/img/faces/1-image.jpg"},{"id":2,"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","avatar":"https://reqres.in/img/faces/2-image.jpg"},{"id":3,"email":"emma.wong@reqres.in","first_name":"Emma","last_name":"Wong","avatar":"https://reqres.in/img/faces/3-image.jpg"},{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},{"id":5,"email":"charles.morris@reqres.in","first_name":"Charles","last_name":"Morris","avatar":"https://reqres.in/img/faces/5-image.jpg"},{"id":6,"email":"tracey.ramos@reqres.in","first_name":"Tracey","last_name":"Ramos","avatar":"https://reqres.in/img/faces/6-image.jpg"}],"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
+        </is>
+      </c>
+      <c r="Y5" s="13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z5" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '200', '期望值': 200, '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '失败'}]</t>
+        </is>
+      </c>
+      <c r="AA5" s="5" t="n"/>
+    </row>
+    <row r="6" s="1">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>用户列表</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>获取指定用户的信息</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>/api/users/{{userId}}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>{"Content-Type":"application/json;charset=utf-8","token":"{{token}}"}</t>
+        </is>
+      </c>
+      <c r="J6" s="10" t="n"/>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="T6" s="13" t="inlineStr"/>
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="0" t="inlineStr"/>
+      <c r="W6" s="13" t="inlineStr">
+        <is>
+          <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
+        </is>
+      </c>
+      <c r="X6" s="13" t="inlineStr">
+        <is>
+          <t>{"data":{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
+        </is>
+      </c>
+      <c r="Y6" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z6" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '$.data.id', '期望值': 4, '实际值': 4, '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '$.data.email', '期望值': 'eve.holt@reqres.in', '实际值': 'eve.holt@reqres.in', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="n"/>
     </row>
-    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="5"/>
-    </row>
-    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:26">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:27">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:27">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:27">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="6:27">
-      <c r="F7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="10">
+    <row r="7" s="1">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="G7" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="3"/>
-      <c r="T7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="5"/>
+      <c r="J7" s="10" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="T7" s="13" t="inlineStr"/>
+      <c r="U7" s="13" t="inlineStr"/>
+      <c r="V7" s="13" t="inlineStr"/>
+      <c r="W7" s="13" t="inlineStr"/>
+      <c r="X7" s="13" t="inlineStr"/>
+      <c r="Y7" s="13" t="inlineStr"/>
+      <c r="Z7" s="13" t="inlineStr"/>
+      <c r="AA7" s="5" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:Z1">
-    <cfRule type="containsBlanks" dxfId="26" priority="6">
+    <cfRule type="containsBlanks" priority="6" dxfId="26">
       <formula>LEN(TRIM(B1))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7">
+    <cfRule type="expression" priority="7" dxfId="27">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" priority="8" dxfId="28">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:E7">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X7">
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y1048576">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" priority="30" operator="equal" dxfId="31">
       <formula>"通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:Z1048576 Z2:Z7">
-    <cfRule type="containsBlanks" dxfId="26" priority="26">
+    <cfRule type="containsBlanks" priority="26" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" priority="27" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" priority="28" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" priority="29" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:Y7">
-    <cfRule type="containsBlanks" dxfId="26" priority="14">
+    <cfRule type="containsBlanks" priority="14" dxfId="26">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" priority="15" dxfId="27">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" priority="16" dxfId="28">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E5">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E1048576">
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="30">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E1 I1 J1 K1 N1 D2 E2 D3 E3 D4 E4 D5 E5 D6 E6 D7 E7 E8:E1048576 J8:J1048576 K8:K1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7">
+    <dataValidation sqref="D2 D3 D4 D5 D6 D7 E1 E2 E3 E4 E5 E6 E7 E8:E1048576 I1 J1 J8:J1048576 K1 K8:K1048576 N1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0"/>
+    <dataValidation sqref="F2 F3 F4 F5 F6 F7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,put,patch,delete,SQL,TIME,Insert_data"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2 L7 M7 I3:I7">
+    <dataValidation sqref="I2 I3:I7 L7 M7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"MD5,sha1,sha256"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 J3:J7 K3:K6">
+    <dataValidation sqref="J2 J3:J7 K2 K3:K6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"json,data,params"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I8:I1048576">
+    <dataValidation sqref="I8:I1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"md5,sha1"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576">
+    <dataValidation sqref="N8:N1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"md5,sha1,sha256"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3011,94 +2842,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.55555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="29.1111111111111" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.5555555555556" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.5555555555556" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="6" customWidth="1"/>
-    <col min="7" max="7" width="52.8888888888889" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.1111111111111" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="7.36296296296296" style="6" customWidth="1"/>
+    <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
+    <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
+    <col width="34.5555555555556" customWidth="1" style="6" min="3" max="3"/>
+    <col width="24.5555555555556" customWidth="1" style="6" min="4" max="4"/>
+    <col width="27.3333333333333" customWidth="1" style="6" min="5" max="5"/>
+    <col width="20.1111111111111" customWidth="1" style="6" min="6" max="6"/>
+    <col width="52.8888888888889" customWidth="1" style="6" min="7" max="7"/>
+    <col width="11.1111111111111" customWidth="1" style="6" min="8" max="8"/>
+    <col width="7.36296296296296" customWidth="1" style="6" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>64</v>
+    <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>host</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>databases</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sheets</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>initialize_data</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="215.25" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
+    <row r="2" ht="215.25" customHeight="1" s="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://reqres.in</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{
+ "host": "127.0.0.1",
+ "port": 3306,
+ "database": "do_mysql",
+ "user":"root",
+ "password":"admin"
+}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>["try"]</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{
+"{{email}}":"eve.holt@reqres.in",
+     "{{password}}": "pistol"
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="47" customHeight="1" spans="1:8">
-      <c r="A3" s="3">
+    <row r="3" ht="47" customHeight="1" s="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsBlanks" dxfId="32" priority="133">
+    <cfRule type="containsBlanks" priority="133" dxfId="32">
       <formula>LEN(TRIM(G1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="134">
@@ -3107,21 +2980,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1d1a8c57-f936-4aa9-aee7-3c2a6a2e6fdc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="135">
+    </cfRule>
+    <cfRule type="expression" priority="135" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="136">
+    <cfRule type="expression" priority="136" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="containsBlanks" dxfId="32" priority="73">
+    <cfRule type="containsBlanks" priority="73" dxfId="32">
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="74">
@@ -3130,21 +2998,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{16a4f02e-2674-4c3d-88ea-78594e9e84d3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="75">
+    </cfRule>
+    <cfRule type="expression" priority="75" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="76">
+    <cfRule type="expression" priority="76" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsBlanks" dxfId="32" priority="85">
+    <cfRule type="containsBlanks" priority="85" dxfId="32">
       <formula>LEN(TRIM(G2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="86">
@@ -3153,21 +3016,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcccc59-d779-423e-8a91-b1476851a5cf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="87">
+    </cfRule>
+    <cfRule type="expression" priority="87" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="88">
+    <cfRule type="expression" priority="88" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsBlanks" dxfId="32" priority="69">
+    <cfRule type="containsBlanks" priority="69" dxfId="32">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="70">
@@ -3176,24 +3034,19 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db2040c2-856f-4cd4-a635-de522eff6c98}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="71">
+    </cfRule>
+    <cfRule type="expression" priority="71" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="72">
+    <cfRule type="expression" priority="72" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="34" priority="60">
+    <cfRule type="expression" priority="60" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="59">
+    <cfRule type="expression" priority="59" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="58">
@@ -3202,21 +3055,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c7f90066-44ff-4da3-9111-666e6aa56814}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="57">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="57" dxfId="32">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F3">
-    <cfRule type="expression" dxfId="34" priority="68">
+    <cfRule type="expression" priority="68" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="67">
+    <cfRule type="expression" priority="67" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="66">
@@ -3225,21 +3073,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3a0b8c51-9a73-4e16-9d29-26b9cdf4ffdb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="65">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="65" dxfId="32">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="34" priority="64">
+    <cfRule type="expression" priority="64" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="63">
+    <cfRule type="expression" priority="63" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="62">
@@ -3248,18 +3091,13 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{749d2943-bce1-4a07-bca8-37b4489fd5e2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="32" priority="61">
+    </cfRule>
+    <cfRule type="containsBlanks" priority="61" dxfId="32">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsBlanks" dxfId="32" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="32">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="2">
@@ -3268,16 +3106,11 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b24d67b0-4bd1-4e51-a1f9-19f60a65a3e4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3">
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="33">
       <formula>IF(FIND("SQL",$F3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" priority="4" dxfId="34">
       <formula>IF(FIND("TIME",$F3),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3288,15 +3121,10 @@
         <cfvo type="max"/>
         <color rgb="FF008AEF"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{af163944-97ad-463f-8d65-0dee5de6b014}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B3 E1:F2">
-    <cfRule type="containsBlanks" dxfId="32" priority="142">
+    <cfRule type="containsBlanks" priority="142" dxfId="32">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="143">
@@ -3305,21 +3133,16 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eed95255-77b7-4631-bc2c-33e10379ecf7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="144">
+    </cfRule>
+    <cfRule type="expression" priority="144" dxfId="33">
       <formula>IF(FIND("SQL",$F1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="145">
+    <cfRule type="expression" priority="145" dxfId="34">
       <formula>IF(FIND("TIME",$F1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D2 C3">
-    <cfRule type="containsBlanks" dxfId="32" priority="77">
+    <cfRule type="containsBlanks" priority="77" dxfId="32">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
     <cfRule type="dataBar" priority="78">
@@ -3328,285 +3151,311 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c297cbb6-a358-42f6-bfa8-59b0804d1387}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="79">
+    </cfRule>
+    <cfRule type="expression" priority="79" dxfId="33">
       <formula>IF(FIND("SQL",$F2),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="80">
+    <cfRule type="expression" priority="80" dxfId="34">
       <formula>IF(FIND("TIME",$F2),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://reqres.in" tooltip="https://reqres.in"/>
+    <hyperlink ref="C2" tooltip="https://reqres.in" display="https://reqres.in" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1d1a8c57-f936-4aa9-aee7-3c2a6a2e6fdc}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{16a4f02e-2674-4c3d-88ea-78594e9e84d3}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H1</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcccc59-d779-423e-8a91-b1476851a5cf}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db2040c2-856f-4cd4-a635-de522eff6c98}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c7f90066-44ff-4da3-9111-666e6aa56814}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3a0b8c51-9a73-4e16-9d29-26b9cdf4ffdb}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E3:F3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{749d2943-bce1-4a07-bca8-37b4489fd5e2}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b24d67b0-4bd1-4e51-a1f9-19f60a65a3e4}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{af163944-97ad-463f-8d65-0dee5de6b014}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:A3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eed95255-77b7-4631-bc2c-33e10379ecf7}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>A1:D1 A2:B3 E1:F2</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c297cbb6-a358-42f6-bfa8-59b0804d1387}">
-            <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
-              <x14:cfvo type="min"/>
-              <x14:cfvo type="max"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C2:D2 C3</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="58" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.6148148148148" style="1" customWidth="1"/>
-    <col min="4" max="4" width="109.955555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.7777777777778" style="1" customWidth="1"/>
+    <col width="58" customWidth="1" style="1" min="1" max="1"/>
+    <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>
+    <col width="47.6148148148148" customWidth="1" style="1" min="3" max="3"/>
+    <col width="109.955555555556" customWidth="1" style="1" min="4" max="4"/>
+    <col width="17.8888888888889" customWidth="1" style="1" min="7" max="7"/>
+    <col width="40.7777777777778" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>74</v>
+    <row r="1" ht="18" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>如何填写提取参数</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>断言的填写方式</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>内置的断言方法</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>sql 的填写方式及如何提取sql结果</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="346.5" customHeight="1" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+    <row r="2" ht="346.5" customHeight="1" s="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">示例：
+提取请求参数：  {"k": "$.data", "x": "$.data[0].age[3].a"}
+正则表达式:  正则表达式： r'"id": (\d+), "name": "(\w+)",'
+正则变量:  接收正则表达式返回结果的key： ["a", "b"]
+绝对路径表达式: "name=data[0].name;ok=data[0].id;an=data[0].age[3].a"
+jsonpath 表达式，默认情况下若表达式结果只有一个值那么就存为字符串，如果表达式执行结果有多个值，那么就存为列表，表达式填写方式如下：
+Jsonpath: {"k": "$.data", "x": "$.data[0].age[3].a"}
+</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>预期结果填写示例：
+参数格式 list、dict
+                示例：      [{"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}]
+                    or {"check":"result.user.name","comparator":"eq","expect":"chenyongzhi"}</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>SQL:{
+        "select": 
+            {
+                "select_sale": "select count(1) total, (case when t1.status = 1 then '待整改' when t1.status = 2 then '待复查' when t1.status = 3 then '整改完成' else '未知类型' end) orderStatus from ibs_ai_iot.ai_rectification_main t1 left join ibs_ai_iot.work_order t3 on t1.id = t3.rectification_id where t1.project_id = 103672 and t1.delete_flag = 0 and t3.is_delete = 0 group by t1.status order by orderStatus desc;"
+            }
+    }
+该sql执行后返回的结果如下：{'select_sale': [{'total': 30, 'orderStatus': '整改</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="6" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>82</v>
+    <row r="3" ht="18" customHeight="1" s="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>如何使用已提取的参数：</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>断言也可以使用变量替换</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>也可以像postman一样写前后置脚本代码段</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>sql 语句也可以使用变量替换</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="209" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>85</v>
+    <row r="4" ht="209" customHeight="1" s="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>如果提取结果是单个值，那么使用 {{变量名}} 包裹变量即可；
+如果提取结果是一个list，那么使用{{变量名[index]}}既可以获取到所需要的指定值</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>替换方式依然是 {{}}，{{fun()}}</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>comparator_dict = {
+    'eq': 'eq:实际值与期望值相等',
+    'lt': 'lt:实际值小于期望值',
+    'lte': 'lte:实际值小于或等于期望值',
+    'gt': 'gt:实际值大于期望值',
+    'gte': 'gte:实际值大于或等于期望值',
+    'neq': 'neq:实际值与期望值不相等',
+    'str_eq': 'str_eq:字符串实际值与期望值相同',
+    'length_eq': 'length_eq:实际值的长度等于期望长度',
+    'length_gt': 'length_gt:实际值的长度大于期望长度',
+    'length_gte': 'length_gte:实际值的长度大于或等于期望长度',
+    'length_lt': 'length_lt:实际值的长度小于期望长度',
+    'length_lte': 'length_lte:实际值的长度小于或等于期望长度',
+    'contains': 'contains:期望值包含在实际值中',
+    'contained_by': 'contained_by:实际值被包含在期望值中',
+    'type_match': 'type_match:实际值的类型与期望值的类型相匹配',
+    'regex_match': 'type_match:正则匹配(从字符串的起始位置匹配)',
+    'regex_search': 'regex_search:正则匹配(从字符串的任意位置匹配)',
+    'startswith': 'startswith:实际值是以期望值开始',
+    'endswith': 'endswith:实际值是以期望值结束',
+}</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE id &lt;200 limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1=value1 WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES (value1, value2)",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}
+该sql执行后返回的结果如下：{'select_name': [{'username': 'kira', 'pwd': '123456'}, {'username': 'yonger', 'pwd': '123456'}]}
+那么Sql Params Dict可以这么写来提取参数:{"username": "$.select_sale[0].username", "pwd": "$..pwd"}
+数据格式中，如果是查询语句，则必须要指明是【select】，如果是update\delect\insert 则需要指明是【write】</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="66" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>88</v>
+    <row r="5" ht="66" customHeight="1" s="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>如果是使用内置函数或者自定义函数，则使用：{{函数名()}} 
+如果需要往内置函数或者自定义函数中传参数，则使用：
+{{函数名(*args,**kwargs)}}</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">前后置代码段可以在该字段下填写：
+Setup Script 、Tear Down
+前置脚本固定格式：
+def setup(action):
+"""  
+这里写你的代码逻辑    
+ # action.vars 可以获取到当前预发送的请求参数：url...
+      使用action.get_variables(key) 可以获取到临时变量
+      使用action.update_variables(key,value) 可以设置临时变量
+ """
+    </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>比如:
+SQL:{
+    "select": {
+        "select_name": "SELECT username, password AS pwd FROM lea.user WHERE {{username}} like '%kir%' limit 2;"
+    },
+    "write": {
+        "update_one": "UPDATE table_name SET column1={{value1}} WHERE condition",
+        "insert_one": "INSERT INTO table_name (column1, column2) VALUES ({{value1}}, {{value2}})",
+        "delete_one": "DELETE FROM table_name WHERE condition"
+    }
+}</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="82.5" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>91</v>
+    <row r="6" ht="82.5" customHeight="1" s="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>以下为例子：
+请求入参body：{"hello":"world"}
+那么提取请求参数在excel的Extract Request Data 中就可以这样写来提取请求参数了：{"hello":"$.hello"}</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>后置脚本代码 与前置脚本的差不多</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>sql 语句执行后的返回结果如下：
+{'select_sale': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}], 'select_sale_1': [{'total': 30, 'orderStatus': '整改完成'}, {'total': 5, 'orderStatus': '待整改'}]}</t>
+        </is>
       </c>
     </row>
-    <row r="7" ht="198" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" ht="198" customHeight="1" s="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>又如response响应返回：{"code":200,"msg":"success","data":[{"name":"kira"},{"name":"hello"}]}
+那么提取响应的code,第一个name可以这样写：
+jsonpath的方式: {"name":"$.data[0].name","code":"$.code"}
+绝对路径表达式则：name=data[0].name;code=code
+正则提取的方式必须填写2个字段，分别是正则表达式，及需要存储的变量 列表[],写法如下：
+表达式：r'"code":(\d+),"msg":"success","data":[{"name":(.+?)'\},'
+存储变量：["co","na"]</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" priority="7" dxfId="28">
       <formula>IF(FIND("TIME",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" priority="6" dxfId="27">
       <formula>IF(FIND("SQL",$E1),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="5">
+    <cfRule type="containsBlanks" priority="5" dxfId="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="29">
       <formula>"不通过"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" priority="3" dxfId="28">
       <formula>IF(FIND("TIME",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" priority="2" dxfId="27">
       <formula>IF(FIND("SQL",$E3),1,0)</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="26" priority="1">
+    <cfRule type="containsBlanks" priority="1" dxfId="26">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -1827,24 +1827,24 @@
     <tableColumn id="5" name="Method" dataDxfId="5"/>
     <tableColumn id="6" name="Url" dataDxfId="6"/>
     <tableColumn id="7" name="Headers" dataDxfId="7"/>
-    <tableColumn id="17" name="Headers Crypto" dataDxfId="8"/>
-    <tableColumn id="23" name="Query Str" dataDxfId="9"/>
-    <tableColumn id="16" name="Request Data Type" dataDxfId="10"/>
-    <tableColumn id="8" name="Request Data" dataDxfId="11"/>
-    <tableColumn id="25" name="Setup Script" dataDxfId="12"/>
-    <tableColumn id="9" name="Request Data Crypto" dataDxfId="13"/>
-    <tableColumn id="22" name="Extract Request Data" dataDxfId="14"/>
+    <tableColumn id="17" name="HeadersCrypto" dataDxfId="8"/>
+    <tableColumn id="23" name="QueryString" dataDxfId="9"/>
+    <tableColumn id="16" name="RequestDataType" dataDxfId="10"/>
+    <tableColumn id="8" name="RequestData" dataDxfId="11"/>
+    <tableColumn id="25" name="SetupScript" dataDxfId="12"/>
+    <tableColumn id="9" name="RequestDataCrypto" dataDxfId="13"/>
+    <tableColumn id="22" name="ExtractRequestData" dataDxfId="14"/>
     <tableColumn id="10" name="Jsonpath" dataDxfId="15"/>
     <tableColumn id="11" name="Regex" dataDxfId="16"/>
-    <tableColumn id="12" name="Regex Params List" dataDxfId="17"/>
-    <tableColumn id="13" name="Retrieve Value" dataDxfId="18"/>
+    <tableColumn id="12" name="RegexParamsList" dataDxfId="17"/>
+    <tableColumn id="13" name="RetrieveValue" dataDxfId="18"/>
     <tableColumn id="14" name="SQL" dataDxfId="19"/>
-    <tableColumn id="15" name="Sql Params Dict" dataDxfId="20"/>
-    <tableColumn id="26" name="Teardown Script" dataDxfId="21"/>
+    <tableColumn id="15" name="SqlParamsDict" dataDxfId="20"/>
+    <tableColumn id="26" name="TeardownScript" dataDxfId="21"/>
     <tableColumn id="18" name="Expected" dataDxfId="22"/>
     <tableColumn id="19" name="Response" dataDxfId="23"/>
     <tableColumn id="20" name="Assertion" totalsRowFunction="count" dataDxfId="24"/>
-    <tableColumn id="21" name="Error Log" dataDxfId="25"/>
+    <tableColumn id="21" name="ErrorLog" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2123,7 +2123,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
@@ -2200,37 +2200,37 @@
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Headers Crypto</t>
+          <t>HeadersCrypto</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>Query Str</t>
+          <t>QueryString</t>
         </is>
       </c>
       <c r="K1" s="11" t="inlineStr">
         <is>
-          <t>Request Data Type</t>
+          <t>RequestDataType</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>Request Data</t>
+          <t>RequestData</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>Setup Script</t>
+          <t>SetupScript</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>Request Data Crypto</t>
+          <t>RequestDataCrypto</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>Extract Request Data</t>
+          <t>ExtractRequestData</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>Regex Params List</t>
+          <t>RegexParamsList</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>Retrieve Value</t>
+          <t>RetrieveValue</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
@@ -2260,12 +2260,12 @@
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>Sql Params Dict</t>
+          <t>SqlParamsDict</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>Teardown Script</t>
+          <t>TeardownScript</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t>Error Log</t>
+          <t>ErrorLog</t>
         </is>
       </c>
     </row>
@@ -2330,11 +2330,7 @@
     }</t>
         </is>
       </c>
-      <c r="U2" s="13" t="inlineStr">
-        <is>
-          <t>"</t>
-        </is>
-      </c>
+      <c r="U2" s="13" t="n"/>
       <c r="V2" s="13" t="inlineStr"/>
       <c r="W2" s="13" t="inlineStr"/>
       <c r="X2" s="13" t="inlineStr"/>
@@ -2850,7 +2846,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
@@ -2869,42 +2865,42 @@
     <row r="1" ht="36.75" customFormat="1" customHeight="1" s="7">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>Id</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>host</t>
+          <t>Host</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>path</t>
+          <t>Path</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>databases</t>
+          <t>Databases</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>sheets</t>
+          <t>Sheets</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>initialize_data</t>
+          <t>InitializeData</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>run</t>
+          <t>Run</t>
         </is>
       </c>
     </row>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -2126,7 +2126,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col width="2.45185185185185" customWidth="1" style="3" min="1" max="1"/>
     <col width="10.4518518518519" customWidth="1" style="3" min="2" max="2"/>
@@ -2445,21 +2445,9 @@
           <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
         </is>
       </c>
-      <c r="X3" s="13" t="inlineStr">
-        <is>
-          <t>{"id":4,"token":"QpwL5tke4Pnpja7X4"}</t>
-        </is>
-      </c>
-      <c r="Y3" s="13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Z3" s="13" t="inlineStr">
-        <is>
-          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
-        </is>
-      </c>
+      <c r="X3" s="13" t="inlineStr"/>
+      <c r="Y3" s="13" t="inlineStr"/>
+      <c r="Z3" s="13" t="inlineStr"/>
     </row>
     <row r="4" s="1">
       <c r="A4" s="3" t="n">
@@ -2543,21 +2531,9 @@
           <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
         </is>
       </c>
-      <c r="X4" s="10" t="inlineStr">
-        <is>
-          <t>{"token":"QpwL5tke4Pnpja7X4"}</t>
-        </is>
-      </c>
-      <c r="Y4" s="10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Z4" s="13" t="inlineStr">
-        <is>
-          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
-        </is>
-      </c>
+      <c r="X4" s="10" t="inlineStr"/>
+      <c r="Y4" s="10" t="inlineStr"/>
+      <c r="Z4" s="13" t="inlineStr"/>
       <c r="AA4" s="5" t="n"/>
     </row>
     <row r="5" s="1">
@@ -2613,21 +2589,9 @@
           <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}</t>
         </is>
       </c>
-      <c r="X5" s="13" t="inlineStr">
-        <is>
-          <t>{"page":1,"per_page":6,"total":12,"total_pages":2,"data":[{"id":1,"email":"george.bluth@reqres.in","first_name":"George","last_name":"Bluth","avatar":"https://reqres.in/img/faces/1-image.jpg"},{"id":2,"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","avatar":"https://reqres.in/img/faces/2-image.jpg"},{"id":3,"email":"emma.wong@reqres.in","first_name":"Emma","last_name":"Wong","avatar":"https://reqres.in/img/faces/3-image.jpg"},{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},{"id":5,"email":"charles.morris@reqres.in","first_name":"Charles","last_name":"Morris","avatar":"https://reqres.in/img/faces/5-image.jpg"},{"id":6,"email":"tracey.ramos@reqres.in","first_name":"Tracey","last_name":"Ramos","avatar":"https://reqres.in/img/faces/6-image.jpg"}],"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
-        </is>
-      </c>
-      <c r="Y5" s="13" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="Z5" s="13" t="inlineStr">
-        <is>
-          <t>[{'检查项': '200', '期望值': 200, '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '失败'}]</t>
-        </is>
-      </c>
+      <c r="X5" s="13" t="inlineStr"/>
+      <c r="Y5" s="13" t="inlineStr"/>
+      <c r="Z5" s="13" t="inlineStr"/>
       <c r="AA5" s="5" t="n"/>
     </row>
     <row r="6" s="1">
@@ -2678,21 +2642,9 @@
           <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
         </is>
       </c>
-      <c r="X6" s="13" t="inlineStr">
-        <is>
-          <t>{"data":{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
-        </is>
-      </c>
-      <c r="Y6" s="13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="Z6" s="13" t="inlineStr">
-        <is>
-          <t>[{'检查项': '$.data.id', '期望值': 4, '实际值': 4, '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '$.data.email', '期望值': 'eve.holt@reqres.in', '实际值': 'eve.holt@reqres.in', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
-        </is>
-      </c>
+      <c r="X6" s="13" t="inlineStr"/>
+      <c r="Y6" s="13" t="inlineStr"/>
+      <c r="Z6" s="13" t="inlineStr"/>
       <c r="AA6" s="5" t="n"/>
     </row>
     <row r="7" s="1">
@@ -2849,7 +2801,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
     <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
@@ -3175,7 +3127,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col width="58" customWidth="1" style="1" min="1" max="1"/>
     <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -2126,7 +2126,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
     <col width="2.45185185185185" customWidth="1" style="3" min="1" max="1"/>
     <col width="10.4518518518519" customWidth="1" style="3" min="2" max="2"/>
@@ -2445,9 +2445,21 @@
           <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
         </is>
       </c>
-      <c r="X3" s="13" t="inlineStr"/>
-      <c r="Y3" s="13" t="inlineStr"/>
-      <c r="Z3" s="13" t="inlineStr"/>
+      <c r="X3" s="13" t="inlineStr">
+        <is>
+          <t>{"id":4,"token":"QpwL5tke4Pnpja7X4"}</t>
+        </is>
+      </c>
+      <c r="Y3" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z3" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+        </is>
+      </c>
     </row>
     <row r="4" s="1">
       <c r="A4" s="3" t="n">
@@ -2531,9 +2543,21 @@
           <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
         </is>
       </c>
-      <c r="X4" s="10" t="inlineStr"/>
-      <c r="Y4" s="10" t="inlineStr"/>
-      <c r="Z4" s="13" t="inlineStr"/>
+      <c r="X4" s="10" t="inlineStr">
+        <is>
+          <t>{"token":"QpwL5tke4Pnpja7X4"}</t>
+        </is>
+      </c>
+      <c r="Y4" s="10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z4" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+        </is>
+      </c>
       <c r="AA4" s="5" t="n"/>
     </row>
     <row r="5" s="1">
@@ -2589,9 +2613,21 @@
           <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}</t>
         </is>
       </c>
-      <c r="X5" s="13" t="inlineStr"/>
-      <c r="Y5" s="13" t="inlineStr"/>
-      <c r="Z5" s="13" t="inlineStr"/>
+      <c r="X5" s="13" t="inlineStr">
+        <is>
+          <t>{"page":1,"per_page":6,"total":12,"total_pages":2,"data":[{"id":1,"email":"george.bluth@reqres.in","first_name":"George","last_name":"Bluth","avatar":"https://reqres.in/img/faces/1-image.jpg"},{"id":2,"email":"janet.weaver@reqres.in","first_name":"Janet","last_name":"Weaver","avatar":"https://reqres.in/img/faces/2-image.jpg"},{"id":3,"email":"emma.wong@reqres.in","first_name":"Emma","last_name":"Wong","avatar":"https://reqres.in/img/faces/3-image.jpg"},{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},{"id":5,"email":"charles.morris@reqres.in","first_name":"Charles","last_name":"Morris","avatar":"https://reqres.in/img/faces/5-image.jpg"},{"id":6,"email":"tracey.ramos@reqres.in","first_name":"Tracey","last_name":"Ramos","avatar":"https://reqres.in/img/faces/6-image.jpg"}],"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
+        </is>
+      </c>
+      <c r="Y5" s="13" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="Z5" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '200', '期望值': 200, '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '失败'}]</t>
+        </is>
+      </c>
       <c r="AA5" s="5" t="n"/>
     </row>
     <row r="6" s="1">
@@ -2642,9 +2678,21 @@
           <t>[{"check":"$.data.id","comparator":"eq","expect":{{userId}}},{"check":"$.data.email","comparator":"eq","expect":"{{email}}"},{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}]</t>
         </is>
       </c>
-      <c r="X6" s="13" t="inlineStr"/>
-      <c r="Y6" s="13" t="inlineStr"/>
-      <c r="Z6" s="13" t="inlineStr"/>
+      <c r="X6" s="13" t="inlineStr">
+        <is>
+          <t>{"data":{"id":4,"email":"eve.holt@reqres.in","first_name":"Eve","last_name":"Holt","avatar":"https://reqres.in/img/faces/4-image.jpg"},"support":{"url":"https://reqres.in/#support-heading","text":"To keep ReqRes free, contributions towards server costs are appreciated!"}}</t>
+        </is>
+      </c>
+      <c r="Y6" s="13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Z6" s="13" t="inlineStr">
+        <is>
+          <t>[{'检查项': '$.data.id', '期望值': 4, '实际值': 4, '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '$.data.email', '期望值': 'eve.holt@reqres.in', '实际值': 'eve.holt@reqres.in', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+        </is>
+      </c>
       <c r="AA6" s="5" t="n"/>
     </row>
     <row r="7" s="1">
@@ -2801,7 +2849,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="7.36296296296296" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="0"/>
   <cols>
     <col width="2.55555555555556" customWidth="1" style="6" min="1" max="1"/>
     <col width="29.1111111111111" customWidth="1" style="6" min="2" max="2"/>
@@ -3127,7 +3175,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
     <col width="58" customWidth="1" style="1" min="1" max="1"/>
     <col width="45.8888888888889" customWidth="1" style="1" min="2" max="2"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -2123,7 +2123,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="W4" s="13" t="inlineStr">
         <is>
-          <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"}</t>
+          <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":"200"},{"check":{{responseTime}},"comparator":"gte","expect":300}]</t>
         </is>
       </c>
       <c r="X4" s="10" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="Z4" s="13" t="inlineStr">
         <is>
-          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}]</t>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 504.5, '期望值': 300, '实际值': 504.5, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
@@ -2610,7 +2610,7 @@
       <c r="V5" s="0" t="inlineStr"/>
       <c r="W5" s="13" t="inlineStr">
         <is>
-          <t>{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}</t>
+          <t>[{"check":"{{responseStatusCode}}","comparator":"eq","expect":200}]</t>
         </is>
       </c>
       <c r="X5" s="13" t="inlineStr">
@@ -3172,7 +3172,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="0"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -2555,7 +2555,7 @@
       </c>
       <c r="Z4" s="13" t="inlineStr">
         <is>
-          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 504.5, '期望值': 300, '实际值': 504.5, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 504.53, '期望值': 300, '实际值': 504.53, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -2555,7 +2555,7 @@
       </c>
       <c r="Z4" s="13" t="inlineStr">
         <is>
-          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 504.53, '期望值': 300, '实际值': 504.53, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 1245.81, '期望值': 300, '实际值': 1245.81, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -2555,7 +2555,7 @@
       </c>
       <c r="Z4" s="13" t="inlineStr">
         <is>
-          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 1245.81, '期望值': 300, '实际值': 1245.81, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 428.69, '期望值': 300, '实际值': 428.69, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -2555,7 +2555,7 @@
       </c>
       <c r="Z4" s="13" t="inlineStr">
         <is>
-          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 428.69, '期望值': 300, '实际值': 428.69, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 397.8, '期望值': 300, '实际值': 397.8, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>

--- a/cases/cases/test_cases.xlsx
+++ b/cases/cases/test_cases.xlsx
@@ -2122,8 +2122,8 @@
   </sheetPr>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="25.7777777777778" defaultRowHeight="50" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
@@ -2134,19 +2134,19 @@
     <col width="4.27407407407407" customWidth="1" style="3" min="4" max="4"/>
     <col width="5.27407407407407" customWidth="1" style="3" min="5" max="5"/>
     <col width="7.91111111111111" customWidth="1" style="3" min="6" max="6"/>
-    <col width="29.9851851851852" customWidth="1" style="10" min="7" max="7"/>
+    <col width="16.6592592592593" customWidth="1" style="10" min="7" max="7"/>
     <col width="20.1851851851852" customWidth="1" style="3" min="8" max="8"/>
-    <col width="14.7259259259259" customWidth="1" style="3" min="9" max="9"/>
+    <col width="14.1185185185185" customWidth="1" style="3" min="9" max="9"/>
     <col width="9.18518518518519" customWidth="1" style="3" min="10" max="10"/>
     <col width="19.7259259259259" customWidth="1" style="10" min="11" max="11"/>
     <col width="14.637037037037" customWidth="1" style="3" min="12" max="12"/>
-    <col width="39.4296296296296" customWidth="1" style="3" min="13" max="13"/>
+    <col width="15.237037037037" customWidth="1" style="3" min="13" max="13"/>
     <col width="19.5481481481481" customWidth="1" style="3" min="14" max="14"/>
     <col width="19.8148148148148" customWidth="1" style="3" min="15" max="15"/>
-    <col width="14.2740740740741" customWidth="1" style="3" min="16" max="16"/>
+    <col width="10.1481481481481" customWidth="1" style="3" min="16" max="16"/>
     <col width="6.36296296296296" customWidth="1" style="3" min="17" max="17"/>
     <col width="13.7259259259259" customWidth="1" style="3" min="18" max="18"/>
-    <col width="14" customWidth="1" style="3" min="19" max="19"/>
+    <col width="12.5333333333333" customWidth="1" style="3" min="19" max="19"/>
     <col width="4.18518518518519" customWidth="1" style="3" min="20" max="20"/>
     <col width="10.8148148148148" customWidth="1" style="3" min="21" max="21"/>
     <col width="9.81481481481481" customWidth="1" style="3" min="22" max="22"/>
@@ -2322,12 +2322,7 @@
       </c>
       <c r="T2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> {
-        "select":
-            {
-                # "select_one": "select username,password as pwd  from lea.user where username ='luoshunwen003';"
-            }
-    }</t>
+          <t>{"select":{"select_one": "select username,password as pwd  from lea.user where username ='luoshunwen003';"}}</t>
         </is>
       </c>
       <c r="U2" s="13" t="n"/>
@@ -2555,7 +2550,7 @@
       </c>
       <c r="Z4" s="13" t="inlineStr">
         <is>
-          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 397.8, '期望值': 300, '实际值': 397.8, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
+          <t>[{'检查项': '200', '期望值': '200', '实际值': '200', '断言方法': 'eq:实际值与期望值相等', '断言结果': '通过'}, {'检查项': 419.79, '期望值': 300, '实际值': 419.79, '断言方法': 'gte:实际值大于或等于期望值', '断言结果': '通过'}]</t>
         </is>
       </c>
       <c r="AA4" s="5" t="n"/>
